--- a/Data/Modeling/RHP.xlsx
+++ b/Data/Modeling/RHP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Data_phD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Data_phD\Data\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RHP" sheetId="1" r:id="rId1"/>
@@ -2390,7 +2390,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2718,51 +2718,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2798,12 +2753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2825,9 +2774,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,9 +2798,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2867,33 +2810,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2928,12 +2844,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2991,26 +2901,8 @@
     <xf numFmtId="11" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3022,12 +2914,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3166,6 +3052,123 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3190,16 +3193,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>451029</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>40131</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>760747</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3222,8 +3225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4463143" y="7034893"/>
-          <a:ext cx="8000000" cy="5523809"/>
+          <a:off x="609600" y="7108372"/>
+          <a:ext cx="6105633" cy="4376057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3234,16 +3237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>112667</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132261</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>145324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>866405</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>72296</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1002519</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3266,8 +3269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4649833" y="12277453"/>
-          <a:ext cx="7320001" cy="5089522"/>
+          <a:off x="10451918" y="6981553"/>
+          <a:ext cx="6008315" cy="4339591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3278,16 +3281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>860940</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>37015</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>884707</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3310,8 +3313,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12450535" y="6966859"/>
-          <a:ext cx="7487619" cy="4350477"/>
+          <a:off x="10262505" y="11070774"/>
+          <a:ext cx="6079916" cy="3690256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3322,16 +3325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>680359</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>26127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>805543</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>92801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3361,8 +3364,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20505965" y="6949440"/>
-          <a:ext cx="3799114" cy="6081032"/>
+          <a:off x="6634845" y="7047413"/>
+          <a:ext cx="3804556" cy="6358617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3732,7 +3735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -3776,15 +3779,15 @@
       <c r="G2" s="6">
         <v>0.30480000000000002</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="213" t="s">
+      <c r="I2" s="298" t="s">
         <v>488</v>
       </c>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="215"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="300"/>
       <c r="N2" s="25"/>
       <c r="O2" s="64" t="s">
         <v>35</v>
@@ -3816,16 +3819,16 @@
       <c r="Y2" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="156" t="s">
+      <c r="Z2" s="289" t="s">
         <v>389</v>
       </c>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="158"/>
+      <c r="AA2" s="290"/>
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="290"/>
+      <c r="AD2" s="290"/>
+      <c r="AE2" s="290"/>
+      <c r="AF2" s="290"/>
+      <c r="AG2" s="291"/>
     </row>
     <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -3843,13 +3846,13 @@
       <c r="G3" s="10">
         <v>1.60934</v>
       </c>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="216"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="218"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="303"/>
       <c r="N3" s="27" t="s">
         <v>33</v>
       </c>
@@ -3906,10 +3909,10 @@
       <c r="F4" s="13"/>
       <c r="G4" s="10"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="221"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="305"/>
+      <c r="K4" s="305"/>
+      <c r="L4" s="306"/>
       <c r="N4" s="27" t="s">
         <v>24</v>
       </c>
@@ -3959,37 +3962,37 @@
       <c r="AG4" s="97"/>
     </row>
     <row r="5" spans="2:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="231" t="s">
+      <c r="D5" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="232" t="s">
+      <c r="E5" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="233" t="s">
+      <c r="F5" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="234" t="s">
+      <c r="G5" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="234" t="s">
+      <c r="H5" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="232" t="s">
+      <c r="I5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="232" t="s">
+      <c r="J5" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="235" t="s">
+      <c r="K5" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="236"/>
+      <c r="L5" s="297"/>
       <c r="N5" s="27" t="s">
         <v>25</v>
       </c>
@@ -4027,39 +4030,39 @@
       <c r="AG5" s="72"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="155" t="s">
         <v>486</v>
       </c>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="157">
         <v>0.35</v>
       </c>
-      <c r="F6" s="173">
+      <c r="F6" s="158">
         <f>E6*$C$12</f>
         <v>7138619243.1225004</v>
       </c>
-      <c r="G6" s="174">
+      <c r="G6" s="159">
         <v>0.89600000000000002</v>
       </c>
-      <c r="H6" s="175">
+      <c r="H6" s="160">
         <v>2400</v>
       </c>
-      <c r="I6" s="176" t="s">
+      <c r="I6" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="178">
+      <c r="J6" s="163">
         <f>0.0000000034</f>
         <v>3.3999999999999998E-9</v>
       </c>
-      <c r="K6" s="178">
+      <c r="K6" s="163">
         <v>9.19</v>
       </c>
-      <c r="L6" s="174" t="s">
+      <c r="L6" s="159" t="s">
         <v>14</v>
       </c>
       <c r="N6" s="27" t="s">
@@ -4098,38 +4101,38 @@
       <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="170">
+      <c r="B7" s="294"/>
+      <c r="C7" s="155">
         <f>1500*$G$2</f>
         <v>457.20000000000005</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="157">
         <v>0.6</v>
       </c>
-      <c r="F7" s="173">
+      <c r="F7" s="158">
         <f>E7*$C$12</f>
         <v>12237632988.210001</v>
       </c>
-      <c r="G7" s="174">
+      <c r="G7" s="159">
         <v>1.3919999999999999</v>
       </c>
-      <c r="H7" s="175">
+      <c r="H7" s="160">
         <v>2400</v>
       </c>
-      <c r="I7" s="176" t="s">
+      <c r="I7" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="178">
+      <c r="J7" s="163">
         <f>0.000026368</f>
         <v>2.6367999999999999E-5</v>
       </c>
-      <c r="K7" s="178">
+      <c r="K7" s="163">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L7" s="174" t="s">
+      <c r="L7" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="27" t="s">
@@ -4172,33 +4175,33 @@
       <c r="AG7" s="72"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="197"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="171" t="s">
+      <c r="B8" s="294"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="172">
+      <c r="E8" s="157">
         <v>0</v>
       </c>
-      <c r="F8" s="173">
+      <c r="F8" s="158">
         <v>0</v>
       </c>
-      <c r="G8" s="174">
+      <c r="G8" s="159">
         <v>2.0659999999999998</v>
       </c>
-      <c r="H8" s="175">
+      <c r="H8" s="160">
         <v>2789</v>
       </c>
-      <c r="I8" s="176" t="s">
+      <c r="I8" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="178">
+      <c r="J8" s="163">
         <v>9.8313999999999994E-5</v>
       </c>
-      <c r="K8" s="178">
+      <c r="K8" s="163">
         <v>0.22600000000000001</v>
       </c>
-      <c r="L8" s="174" t="s">
+      <c r="L8" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="27" t="s">
@@ -4248,36 +4251,36 @@
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="197"/>
-      <c r="C9" s="177" t="s">
+      <c r="B9" s="294"/>
+      <c r="C9" s="162" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="157">
         <v>0.05</v>
       </c>
-      <c r="F9" s="173">
+      <c r="F9" s="158">
         <f>E9*$C$12</f>
         <v>1019802749.0175002</v>
       </c>
-      <c r="G9" s="174">
+      <c r="G9" s="159">
         <v>0.5</v>
       </c>
-      <c r="H9" s="175">
+      <c r="H9" s="160">
         <v>1200</v>
       </c>
-      <c r="I9" s="176" t="s">
+      <c r="I9" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="178">
+      <c r="J9" s="163">
         <v>0.35830000000000001</v>
       </c>
-      <c r="K9" s="178">
+      <c r="K9" s="163">
         <v>1.8</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="27" t="s">
@@ -4330,39 +4333,39 @@
       <c r="AG9" s="72"/>
     </row>
     <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="177">
+      <c r="C10" s="162">
         <f>S3</f>
         <v>250</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="172">
+      <c r="E10" s="157">
         <v>0.01</v>
       </c>
-      <c r="F10" s="173">
+      <c r="F10" s="158">
         <f>E10*$C$12</f>
         <v>203960549.80350003</v>
       </c>
-      <c r="G10" s="174">
+      <c r="G10" s="159">
         <v>0.7</v>
       </c>
-      <c r="H10" s="175">
+      <c r="H10" s="160">
         <v>2650</v>
       </c>
-      <c r="I10" s="176" t="s">
+      <c r="I10" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="178">
+      <c r="J10" s="163">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="K10" s="178">
+      <c r="K10" s="163">
         <v>1220</v>
       </c>
-      <c r="L10" s="174" t="s">
+      <c r="L10" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="28" t="s">
@@ -4398,33 +4401,33 @@
       <c r="AG10" s="72"/>
     </row>
     <row r="11" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="198"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="176" t="s">
+      <c r="B11" s="180"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178">
+      <c r="J11" s="163"/>
+      <c r="K11" s="163">
         <v>23.6</v>
       </c>
-      <c r="L11" s="174" t="s">
+      <c r="L11" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="155" t="s">
+      <c r="N11" s="288" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
+      <c r="O11" s="288"/>
+      <c r="P11" s="288"/>
+      <c r="Q11" s="288"/>
+      <c r="R11" s="288"/>
+      <c r="S11" s="288"/>
+      <c r="T11" s="288"/>
+      <c r="U11" s="288"/>
       <c r="Y11" s="71" t="s">
         <v>22</v>
       </c>
@@ -4444,35 +4447,35 @@
       <c r="AG11" s="72"/>
     </row>
     <row r="12" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="199"/>
-      <c r="C12" s="203">
+      <c r="B12" s="181"/>
+      <c r="C12" s="185">
         <f>$C$4*C10</f>
         <v>20396054980.350002</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="194" t="s">
         <v>457</v>
       </c>
-      <c r="E12" s="223">
+      <c r="E12" s="195">
         <f>E6*G6+E7*G7+E8*G8+E9*G9+E10*G10</f>
         <v>1.1807999999999998</v>
       </c>
-      <c r="F12" s="224" t="s">
+      <c r="F12" s="196" t="s">
         <v>458</v>
       </c>
-      <c r="G12" s="225">
+      <c r="G12" s="197">
         <f>(F6*G6+G7*F7+F8*G8+G9*F9+G10*F10)/1000000</f>
         <v>24083.661720797278</v>
       </c>
-      <c r="H12" s="190"/>
-      <c r="I12" s="192" t="s">
+      <c r="H12" s="173"/>
+      <c r="I12" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="192"/>
-      <c r="K12" s="201">
+      <c r="J12" s="175"/>
+      <c r="K12" s="183">
         <f>0.0001*H6*(9.52*K8+2.56*K7+3.48*K6)</f>
         <v>8.1973824000000004</v>
       </c>
-      <c r="L12" s="193" t="s">
+      <c r="L12" s="176" t="s">
         <v>57</v>
       </c>
       <c r="Y12" s="84" t="s">
@@ -4490,57 +4493,57 @@
       <c r="AG12" s="93"/>
     </row>
     <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="171" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="172">
+      <c r="E13" s="157">
         <v>0.9</v>
       </c>
-      <c r="F13" s="173">
+      <c r="F13" s="158">
         <f>E13*$C$18</f>
         <v>15419417565.144602</v>
       </c>
-      <c r="G13" s="174">
+      <c r="G13" s="159">
         <v>0.89600000000000002</v>
       </c>
-      <c r="H13" s="175">
+      <c r="H13" s="160">
         <v>2400</v>
       </c>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="174"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="159"/>
       <c r="O13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="197"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="171" t="s">
+      <c r="B14" s="294"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="172">
+      <c r="E14" s="157">
         <v>0.1</v>
       </c>
-      <c r="F14" s="173">
+      <c r="F14" s="158">
         <f>E14*$C$18</f>
         <v>1713268618.3494003</v>
       </c>
-      <c r="G14" s="174">
+      <c r="G14" s="159">
         <v>1.3919999999999999</v>
       </c>
-      <c r="H14" s="175">
+      <c r="H14" s="160">
         <v>2400</v>
       </c>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="174"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="159"/>
       <c r="N14" s="33" t="s">
         <v>76</v>
       </c>
@@ -4585,28 +4588,28 @@
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="197"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="171" t="s">
+      <c r="B15" s="294"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="172">
+      <c r="E15" s="157">
         <v>0</v>
       </c>
-      <c r="F15" s="182">
+      <c r="F15" s="167">
         <f>E15*$C$18</f>
         <v>0</v>
       </c>
-      <c r="G15" s="174">
+      <c r="G15" s="159">
         <v>2.0659999999999998</v>
       </c>
-      <c r="H15" s="175">
+      <c r="H15" s="160">
         <v>2789</v>
       </c>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="174"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="159"/>
       <c r="N15" s="36" t="s">
         <v>90</v>
       </c>
@@ -4645,29 +4648,29 @@
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="197"/>
-      <c r="C16" s="177" t="s">
+      <c r="B16" s="294"/>
+      <c r="C16" s="162" t="s">
         <v>487</v>
       </c>
-      <c r="D16" s="171" t="s">
+      <c r="D16" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="172">
+      <c r="E16" s="157">
         <v>0</v>
       </c>
-      <c r="F16" s="182">
+      <c r="F16" s="167">
         <v>0</v>
       </c>
-      <c r="G16" s="174">
+      <c r="G16" s="159">
         <v>0.5</v>
       </c>
-      <c r="H16" s="175">
+      <c r="H16" s="160">
         <v>1200</v>
       </c>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="174"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="36" t="s">
         <v>94</v>
       </c>
@@ -4702,32 +4705,32 @@
       <c r="AA16" s="37"/>
     </row>
     <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="177">
+      <c r="C17" s="162">
         <f>S4</f>
         <v>210</v>
       </c>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="172">
+      <c r="E17" s="157">
         <v>0</v>
       </c>
-      <c r="F17" s="182">
+      <c r="F17" s="167">
         <v>0</v>
       </c>
-      <c r="G17" s="174">
+      <c r="G17" s="159">
         <v>0.7</v>
       </c>
-      <c r="H17" s="175">
+      <c r="H17" s="160">
         <v>2650</v>
       </c>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="174"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="159"/>
       <c r="N17" s="36"/>
       <c r="O17" s="32">
         <v>3036.75</v>
@@ -4758,32 +4761,32 @@
       <c r="AA17" s="37"/>
     </row>
     <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="199"/>
-      <c r="C18" s="203">
+      <c r="B18" s="181"/>
+      <c r="C18" s="185">
         <f>$C$4*C17</f>
         <v>17132686183.494001</v>
       </c>
-      <c r="D18" s="226" t="s">
+      <c r="D18" s="198" t="s">
         <v>457</v>
       </c>
-      <c r="E18" s="223">
+      <c r="E18" s="195">
         <f>E13*G13+E14*G14+E15*G15+E16*G16</f>
         <v>0.9456</v>
       </c>
-      <c r="F18" s="224" t="s">
+      <c r="F18" s="196" t="s">
         <v>458</v>
       </c>
-      <c r="G18" s="225">
+      <c r="G18" s="197">
         <f>(F13*G13+G14*F14+F15*G15+G16*F16+G17*F17)/1000000</f>
         <v>16200.66805511193</v>
       </c>
-      <c r="H18" s="190"/>
-      <c r="I18" s="192" t="s">
+      <c r="H18" s="173"/>
+      <c r="I18" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="193"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="176"/>
       <c r="N18" s="36"/>
       <c r="O18" s="32">
         <v>3066</v>
@@ -4814,38 +4817,38 @@
       <c r="AA18" s="37"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="172">
+      <c r="E19" s="157">
         <v>0.35</v>
       </c>
-      <c r="F19" s="173">
+      <c r="F19" s="158">
         <f>E19*$C$25</f>
         <v>12135652713.30825</v>
       </c>
-      <c r="G19" s="174">
+      <c r="G19" s="159">
         <v>0.89600000000000002</v>
       </c>
-      <c r="H19" s="175">
+      <c r="H19" s="160">
         <v>2400</v>
       </c>
-      <c r="I19" s="176" t="s">
+      <c r="I19" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="178">
+      <c r="J19" s="163">
         <v>3.3999999999999998E-9</v>
       </c>
-      <c r="K19" s="178">
+      <c r="K19" s="163">
         <v>3.08</v>
       </c>
-      <c r="L19" s="174" t="s">
+      <c r="L19" s="159" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="36" t="s">
@@ -4878,37 +4881,37 @@
       <c r="AA19" s="37"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="197"/>
-      <c r="C20" s="177">
+      <c r="B20" s="294"/>
+      <c r="C20" s="162">
         <f>S5</f>
         <v>165</v>
       </c>
-      <c r="D20" s="171" t="s">
+      <c r="D20" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="172">
+      <c r="E20" s="157">
         <v>0.4</v>
       </c>
-      <c r="F20" s="173">
+      <c r="F20" s="158">
         <f>E20*$C$25</f>
         <v>13869317386.638</v>
       </c>
-      <c r="G20" s="174">
+      <c r="G20" s="159">
         <v>1.3919999999999999</v>
       </c>
-      <c r="H20" s="175">
+      <c r="H20" s="160">
         <v>2400</v>
       </c>
-      <c r="I20" s="176" t="s">
+      <c r="I20" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="178">
+      <c r="J20" s="163">
         <v>2.6367999999999999E-5</v>
       </c>
-      <c r="K20" s="178">
+      <c r="K20" s="163">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="L20" s="174" t="s">
+      <c r="L20" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N20" s="36"/>
@@ -4937,38 +4940,38 @@
       <c r="AA20" s="37"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="171" t="s">
+      <c r="D21" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="172">
+      <c r="E21" s="157">
         <v>0.2</v>
       </c>
-      <c r="F21" s="173">
+      <c r="F21" s="158">
         <f>E21*$C$25</f>
         <v>6934658693.3190002</v>
       </c>
-      <c r="G21" s="174">
+      <c r="G21" s="159">
         <v>2.0659999999999998</v>
       </c>
-      <c r="H21" s="175">
+      <c r="H21" s="160">
         <v>2789</v>
       </c>
-      <c r="I21" s="176" t="s">
+      <c r="I21" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="178">
+      <c r="J21" s="163">
         <v>9.8313999999999994E-5</v>
       </c>
-      <c r="K21" s="178">
+      <c r="K21" s="163">
         <v>0.04</v>
       </c>
-      <c r="L21" s="174" t="s">
+      <c r="L21" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="36" t="s">
@@ -5007,39 +5010,39 @@
       <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="197" t="s">
+      <c r="B22" s="294" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="162">
         <f>S6</f>
         <v>175</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="172">
+      <c r="E22" s="157">
         <v>0.05</v>
       </c>
-      <c r="F22" s="173">
+      <c r="F22" s="158">
         <f>E22*$C$25</f>
         <v>1733664673.3297501</v>
       </c>
-      <c r="G22" s="174">
+      <c r="G22" s="159">
         <v>0.5</v>
       </c>
-      <c r="H22" s="175">
+      <c r="H22" s="160">
         <v>1200</v>
       </c>
-      <c r="I22" s="176" t="s">
+      <c r="I22" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="178">
+      <c r="J22" s="163">
         <v>0.35830000000000001</v>
       </c>
-      <c r="K22" s="178">
+      <c r="K22" s="163">
         <v>4</v>
       </c>
-      <c r="L22" s="174" t="s">
+      <c r="L22" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N22" s="36"/>
@@ -5074,36 +5077,36 @@
       <c r="AA22" s="37"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="197"/>
-      <c r="C23" s="177">
+      <c r="B23" s="294"/>
+      <c r="C23" s="162">
         <f>S7</f>
         <v>85</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="172">
+      <c r="E23" s="157">
         <v>0</v>
       </c>
-      <c r="F23" s="182">
+      <c r="F23" s="167">
         <v>0</v>
       </c>
-      <c r="G23" s="174">
+      <c r="G23" s="159">
         <v>0.7</v>
       </c>
-      <c r="H23" s="175">
+      <c r="H23" s="160">
         <v>2650</v>
       </c>
-      <c r="I23" s="176" t="s">
+      <c r="I23" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="178">
+      <c r="J23" s="163">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="K23" s="178">
+      <c r="K23" s="163">
         <v>322</v>
       </c>
-      <c r="L23" s="174" t="s">
+      <c r="L23" s="159" t="s">
         <v>15</v>
       </c>
       <c r="N23" s="36" t="s">
@@ -5142,21 +5145,21 @@
       <c r="AA23" s="37"/>
     </row>
     <row r="24" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="197"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="176" t="s">
+      <c r="B24" s="294"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178">
+      <c r="J24" s="163"/>
+      <c r="K24" s="163">
         <v>48.5</v>
       </c>
-      <c r="L24" s="174" t="s">
+      <c r="L24" s="159" t="s">
         <v>14</v>
       </c>
       <c r="N24" s="36"/>
@@ -5187,35 +5190,35 @@
       <c r="AA24" s="37"/>
     </row>
     <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="199"/>
-      <c r="C25" s="203">
+      <c r="B25" s="181"/>
+      <c r="C25" s="185">
         <f>C4*(C20+C22+C23)</f>
         <v>34673293466.595001</v>
       </c>
-      <c r="D25" s="226" t="s">
+      <c r="D25" s="198" t="s">
         <v>457</v>
       </c>
-      <c r="E25" s="223">
+      <c r="E25" s="195">
         <f>E19*G19+E20*G20+E21*G21+E22*G22+E23*G23</f>
         <v>1.3085999999999998</v>
       </c>
-      <c r="F25" s="224" t="s">
+      <c r="F25" s="196" t="s">
         <v>458</v>
       </c>
-      <c r="G25" s="227">
+      <c r="G25" s="199">
         <f>(F19*G19+G20*F20+F21*G21+G22*F22+G23*F23)/1000000</f>
         <v>45373.471830386217</v>
       </c>
-      <c r="H25" s="194"/>
-      <c r="I25" s="192" t="s">
+      <c r="H25" s="177"/>
+      <c r="I25" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="192"/>
-      <c r="K25" s="201">
+      <c r="J25" s="175"/>
+      <c r="K25" s="183">
         <f>0.0001*H19*(9.52*K21+2.56*K20+3.48*K19)</f>
         <v>2.6652088320000002</v>
       </c>
-      <c r="L25" s="193" t="s">
+      <c r="L25" s="176" t="s">
         <v>57</v>
       </c>
       <c r="N25" s="36"/>
@@ -5248,29 +5251,29 @@
       <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" s="197" t="s">
+      <c r="B26" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="171" t="s">
+      <c r="C26" s="162"/>
+      <c r="D26" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="172" t="s">
+      <c r="E26" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="172" t="s">
+      <c r="F26" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="182">
+      <c r="G26" s="167">
         <v>2.827</v>
       </c>
-      <c r="H26" s="183">
+      <c r="H26" s="168">
         <v>2650</v>
       </c>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="174"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="159"/>
       <c r="N26" s="36"/>
       <c r="O26" s="32">
         <v>3104.5</v>
@@ -5303,29 +5306,29 @@
       <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="197"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="171" t="s">
+      <c r="B27" s="294"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="172" t="s">
+      <c r="E27" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="172" t="s">
+      <c r="F27" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="182">
+      <c r="G27" s="167">
         <v>0.35799999999999998</v>
       </c>
-      <c r="H27" s="183">
+      <c r="H27" s="168">
         <v>2750</v>
       </c>
-      <c r="I27" s="176" t="s">
+      <c r="I27" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="174"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="159"/>
       <c r="N27" s="38"/>
       <c r="O27" s="39">
         <v>3839</v>
@@ -5358,212 +5361,212 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="197"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="171" t="s">
+      <c r="B28" s="294"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="172">
+      <c r="E28" s="157">
         <v>0.3</v>
       </c>
-      <c r="F28" s="172" t="s">
+      <c r="F28" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="182">
+      <c r="G28" s="167">
         <v>0.89600000000000002</v>
       </c>
-      <c r="H28" s="183">
+      <c r="H28" s="168">
         <v>2400</v>
       </c>
-      <c r="I28" s="176" t="s">
+      <c r="I28" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="178">
+      <c r="J28" s="163">
         <v>9.8313999999999994E-5</v>
       </c>
-      <c r="K28" s="178">
+      <c r="K28" s="163">
         <v>0.78</v>
       </c>
-      <c r="L28" s="174" t="s">
+      <c r="L28" s="159" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="197"/>
-      <c r="C29" s="177">
+      <c r="B29" s="294"/>
+      <c r="C29" s="162">
         <f>3800*G2-(C10+C17+C20+C22+C23)+600</f>
         <v>873.24</v>
       </c>
-      <c r="D29" s="171" t="s">
+      <c r="D29" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="172">
+      <c r="E29" s="157">
         <v>0.5</v>
       </c>
-      <c r="F29" s="172" t="s">
+      <c r="F29" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="182">
+      <c r="G29" s="167">
         <v>1.3919999999999999</v>
       </c>
-      <c r="H29" s="183">
+      <c r="H29" s="168">
         <v>2400</v>
       </c>
-      <c r="I29" s="176" t="s">
+      <c r="I29" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="178">
+      <c r="J29" s="163">
         <v>3.3999999999999998E-9</v>
       </c>
-      <c r="K29" s="178">
+      <c r="K29" s="163">
         <v>19.899999999999999</v>
       </c>
-      <c r="L29" s="174" t="s">
+      <c r="L29" s="159" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="197"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="171" t="s">
+      <c r="B30" s="294"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="172">
+      <c r="E30" s="157">
         <v>0.2</v>
       </c>
-      <c r="F30" s="172" t="s">
+      <c r="F30" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="182">
+      <c r="G30" s="167">
         <v>2.0659999999999998</v>
       </c>
-      <c r="H30" s="183">
+      <c r="H30" s="168">
         <v>2789</v>
       </c>
-      <c r="I30" s="176" t="s">
+      <c r="I30" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="178">
+      <c r="J30" s="163">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="K30" s="178">
+      <c r="K30" s="163">
         <v>3280</v>
       </c>
-      <c r="L30" s="174" t="s">
+      <c r="L30" s="159" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="197"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="171" t="s">
+      <c r="B31" s="294"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="172">
+      <c r="E31" s="157">
         <v>0</v>
       </c>
-      <c r="F31" s="172">
+      <c r="F31" s="157">
         <v>0</v>
       </c>
-      <c r="G31" s="182">
+      <c r="G31" s="167">
         <v>0.5</v>
       </c>
-      <c r="H31" s="183">
+      <c r="H31" s="168">
         <v>1200</v>
       </c>
-      <c r="I31" s="176" t="s">
+      <c r="I31" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="178">
+      <c r="J31" s="163">
         <v>0.35830000000000001</v>
       </c>
-      <c r="K31" s="178">
+      <c r="K31" s="163">
         <v>13</v>
       </c>
-      <c r="L31" s="174" t="s">
+      <c r="L31" s="159" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="207"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="209" t="s">
+      <c r="B32" s="295"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="210">
+      <c r="E32" s="191">
         <v>0</v>
       </c>
-      <c r="F32" s="210">
+      <c r="F32" s="191">
         <v>0</v>
       </c>
-      <c r="G32" s="211">
+      <c r="G32" s="192">
         <v>0.7</v>
       </c>
-      <c r="H32" s="212">
+      <c r="H32" s="193">
         <v>2650</v>
       </c>
-      <c r="I32" s="176" t="s">
+      <c r="I32" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178">
+      <c r="J32" s="163"/>
+      <c r="K32" s="163">
         <v>456</v>
       </c>
-      <c r="L32" s="174" t="s">
+      <c r="L32" s="159" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="195"/>
-      <c r="C33" s="202">
+      <c r="B33" s="178"/>
+      <c r="C33" s="184">
         <f>C4*C29</f>
         <v>71242604204.163345</v>
       </c>
-      <c r="D33" s="226" t="s">
+      <c r="D33" s="198" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="228">
+      <c r="E33" s="200">
         <f>E28*G28+E29*G29+E30*G30+E31*G31</f>
         <v>1.3779999999999999</v>
       </c>
-      <c r="F33" s="228" t="s">
+      <c r="F33" s="200" t="s">
         <v>458</v>
       </c>
-      <c r="G33" s="228"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="191" t="s">
+      <c r="G33" s="200"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="192"/>
-      <c r="K33" s="201">
+      <c r="J33" s="175"/>
+      <c r="K33" s="183">
         <f>0.0001*H27*(9.52*K28+3.48*K9)</f>
         <v>3.7646400000000004</v>
       </c>
-      <c r="L33" s="193" t="s">
+      <c r="L33" s="176" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="184" t="s">
+      <c r="B34" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186" t="s">
+      <c r="C34" s="170"/>
+      <c r="D34" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188">
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="171">
         <f>G12+G18+G25</f>
         <v>85657.801606295427</v>
       </c>
-      <c r="H34" s="189" t="s">
+      <c r="H34" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="181"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="166"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
@@ -5613,8 +5616,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="A9" zoomScale="65" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6950,7 +6953,7 @@
       <c r="I48" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="K48" s="106"/>
+      <c r="K48" s="326"/>
       <c r="L48" s="56"/>
     </row>
     <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7398,246 +7401,246 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="159" t="s">
+      <c r="A66" s="307" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="159"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
+      <c r="B66" s="307"/>
+      <c r="C66" s="307"/>
+      <c r="D66" s="307"/>
+      <c r="E66" s="307"/>
+      <c r="F66" s="307"/>
+      <c r="G66" s="307"/>
+      <c r="H66" s="307"/>
+      <c r="I66" s="307"/>
+      <c r="J66" s="307"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="159"/>
-      <c r="B67" s="159"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
+      <c r="A67" s="307"/>
+      <c r="B67" s="307"/>
+      <c r="C67" s="307"/>
+      <c r="D67" s="307"/>
+      <c r="E67" s="307"/>
+      <c r="F67" s="307"/>
+      <c r="G67" s="307"/>
+      <c r="H67" s="307"/>
+      <c r="I67" s="307"/>
+      <c r="J67" s="307"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="159"/>
-      <c r="B68" s="159"/>
-      <c r="C68" s="159"/>
-      <c r="D68" s="159"/>
-      <c r="E68" s="159"/>
-      <c r="F68" s="159"/>
-      <c r="G68" s="159"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="159"/>
-      <c r="J68" s="159"/>
+      <c r="A68" s="307"/>
+      <c r="B68" s="307"/>
+      <c r="C68" s="307"/>
+      <c r="D68" s="307"/>
+      <c r="E68" s="307"/>
+      <c r="F68" s="307"/>
+      <c r="G68" s="307"/>
+      <c r="H68" s="307"/>
+      <c r="I68" s="307"/>
+      <c r="J68" s="307"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="159"/>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
+      <c r="A69" s="307"/>
+      <c r="B69" s="307"/>
+      <c r="C69" s="307"/>
+      <c r="D69" s="307"/>
+      <c r="E69" s="307"/>
+      <c r="F69" s="307"/>
+      <c r="G69" s="307"/>
+      <c r="H69" s="307"/>
+      <c r="I69" s="307"/>
+      <c r="J69" s="307"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="159"/>
-      <c r="B70" s="159"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="159"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="159"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="159"/>
-      <c r="I70" s="159"/>
-      <c r="J70" s="159"/>
+      <c r="A70" s="307"/>
+      <c r="B70" s="307"/>
+      <c r="C70" s="307"/>
+      <c r="D70" s="307"/>
+      <c r="E70" s="307"/>
+      <c r="F70" s="307"/>
+      <c r="G70" s="307"/>
+      <c r="H70" s="307"/>
+      <c r="I70" s="307"/>
+      <c r="J70" s="307"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="159"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
-      <c r="E71" s="159"/>
-      <c r="F71" s="159"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="159"/>
-      <c r="I71" s="159"/>
-      <c r="J71" s="159"/>
+      <c r="A71" s="307"/>
+      <c r="B71" s="307"/>
+      <c r="C71" s="307"/>
+      <c r="D71" s="307"/>
+      <c r="E71" s="307"/>
+      <c r="F71" s="307"/>
+      <c r="G71" s="307"/>
+      <c r="H71" s="307"/>
+      <c r="I71" s="307"/>
+      <c r="J71" s="307"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="159"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
-      <c r="I72" s="159"/>
-      <c r="J72" s="159"/>
+      <c r="A72" s="307"/>
+      <c r="B72" s="307"/>
+      <c r="C72" s="307"/>
+      <c r="D72" s="307"/>
+      <c r="E72" s="307"/>
+      <c r="F72" s="307"/>
+      <c r="G72" s="307"/>
+      <c r="H72" s="307"/>
+      <c r="I72" s="307"/>
+      <c r="J72" s="307"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="159"/>
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="159"/>
-      <c r="F73" s="159"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="159"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="159"/>
+      <c r="A73" s="307"/>
+      <c r="B73" s="307"/>
+      <c r="C73" s="307"/>
+      <c r="D73" s="307"/>
+      <c r="E73" s="307"/>
+      <c r="F73" s="307"/>
+      <c r="G73" s="307"/>
+      <c r="H73" s="307"/>
+      <c r="I73" s="307"/>
+      <c r="J73" s="307"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="159"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="159"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="159"/>
-      <c r="G74" s="159"/>
-      <c r="H74" s="159"/>
-      <c r="I74" s="159"/>
-      <c r="J74" s="159"/>
+      <c r="A74" s="307"/>
+      <c r="B74" s="307"/>
+      <c r="C74" s="307"/>
+      <c r="D74" s="307"/>
+      <c r="E74" s="307"/>
+      <c r="F74" s="307"/>
+      <c r="G74" s="307"/>
+      <c r="H74" s="307"/>
+      <c r="I74" s="307"/>
+      <c r="J74" s="307"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="159"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="159"/>
-      <c r="E75" s="159"/>
-      <c r="F75" s="159"/>
-      <c r="G75" s="159"/>
-      <c r="H75" s="159"/>
-      <c r="I75" s="159"/>
-      <c r="J75" s="159"/>
+      <c r="A75" s="307"/>
+      <c r="B75" s="307"/>
+      <c r="C75" s="307"/>
+      <c r="D75" s="307"/>
+      <c r="E75" s="307"/>
+      <c r="F75" s="307"/>
+      <c r="G75" s="307"/>
+      <c r="H75" s="307"/>
+      <c r="I75" s="307"/>
+      <c r="J75" s="307"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="159"/>
-      <c r="B76" s="159"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="159"/>
-      <c r="E76" s="159"/>
-      <c r="F76" s="159"/>
-      <c r="G76" s="159"/>
-      <c r="H76" s="159"/>
-      <c r="I76" s="159"/>
-      <c r="J76" s="159"/>
+      <c r="A76" s="307"/>
+      <c r="B76" s="307"/>
+      <c r="C76" s="307"/>
+      <c r="D76" s="307"/>
+      <c r="E76" s="307"/>
+      <c r="F76" s="307"/>
+      <c r="G76" s="307"/>
+      <c r="H76" s="307"/>
+      <c r="I76" s="307"/>
+      <c r="J76" s="307"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="159"/>
-      <c r="B77" s="159"/>
-      <c r="C77" s="159"/>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="159"/>
-      <c r="I77" s="159"/>
-      <c r="J77" s="159"/>
+      <c r="A77" s="307"/>
+      <c r="B77" s="307"/>
+      <c r="C77" s="307"/>
+      <c r="D77" s="307"/>
+      <c r="E77" s="307"/>
+      <c r="F77" s="307"/>
+      <c r="G77" s="307"/>
+      <c r="H77" s="307"/>
+      <c r="I77" s="307"/>
+      <c r="J77" s="307"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="159"/>
-      <c r="B78" s="159"/>
-      <c r="C78" s="159"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="159"/>
-      <c r="G78" s="159"/>
-      <c r="H78" s="159"/>
-      <c r="I78" s="159"/>
-      <c r="J78" s="159"/>
+      <c r="A78" s="307"/>
+      <c r="B78" s="307"/>
+      <c r="C78" s="307"/>
+      <c r="D78" s="307"/>
+      <c r="E78" s="307"/>
+      <c r="F78" s="307"/>
+      <c r="G78" s="307"/>
+      <c r="H78" s="307"/>
+      <c r="I78" s="307"/>
+      <c r="J78" s="307"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="159"/>
-      <c r="B79" s="159"/>
-      <c r="C79" s="159"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="159"/>
-      <c r="G79" s="159"/>
-      <c r="H79" s="159"/>
-      <c r="I79" s="159"/>
-      <c r="J79" s="159"/>
+      <c r="A79" s="307"/>
+      <c r="B79" s="307"/>
+      <c r="C79" s="307"/>
+      <c r="D79" s="307"/>
+      <c r="E79" s="307"/>
+      <c r="F79" s="307"/>
+      <c r="G79" s="307"/>
+      <c r="H79" s="307"/>
+      <c r="I79" s="307"/>
+      <c r="J79" s="307"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="159"/>
-      <c r="B80" s="159"/>
-      <c r="C80" s="159"/>
-      <c r="D80" s="159"/>
-      <c r="E80" s="159"/>
-      <c r="F80" s="159"/>
-      <c r="G80" s="159"/>
-      <c r="H80" s="159"/>
-      <c r="I80" s="159"/>
-      <c r="J80" s="159"/>
+      <c r="A80" s="307"/>
+      <c r="B80" s="307"/>
+      <c r="C80" s="307"/>
+      <c r="D80" s="307"/>
+      <c r="E80" s="307"/>
+      <c r="F80" s="307"/>
+      <c r="G80" s="307"/>
+      <c r="H80" s="307"/>
+      <c r="I80" s="307"/>
+      <c r="J80" s="307"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="159"/>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="159"/>
-      <c r="F81" s="159"/>
-      <c r="G81" s="159"/>
-      <c r="H81" s="159"/>
-      <c r="I81" s="159"/>
-      <c r="J81" s="159"/>
+      <c r="A81" s="307"/>
+      <c r="B81" s="307"/>
+      <c r="C81" s="307"/>
+      <c r="D81" s="307"/>
+      <c r="E81" s="307"/>
+      <c r="F81" s="307"/>
+      <c r="G81" s="307"/>
+      <c r="H81" s="307"/>
+      <c r="I81" s="307"/>
+      <c r="J81" s="307"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="159"/>
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="159"/>
-      <c r="G82" s="159"/>
-      <c r="H82" s="159"/>
-      <c r="I82" s="159"/>
-      <c r="J82" s="159"/>
+      <c r="A82" s="307"/>
+      <c r="B82" s="307"/>
+      <c r="C82" s="307"/>
+      <c r="D82" s="307"/>
+      <c r="E82" s="307"/>
+      <c r="F82" s="307"/>
+      <c r="G82" s="307"/>
+      <c r="H82" s="307"/>
+      <c r="I82" s="307"/>
+      <c r="J82" s="307"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="159"/>
-      <c r="B83" s="159"/>
-      <c r="C83" s="159"/>
-      <c r="D83" s="159"/>
-      <c r="E83" s="159"/>
-      <c r="F83" s="159"/>
-      <c r="G83" s="159"/>
-      <c r="H83" s="159"/>
-      <c r="I83" s="159"/>
-      <c r="J83" s="159"/>
+      <c r="A83" s="307"/>
+      <c r="B83" s="307"/>
+      <c r="C83" s="307"/>
+      <c r="D83" s="307"/>
+      <c r="E83" s="307"/>
+      <c r="F83" s="307"/>
+      <c r="G83" s="307"/>
+      <c r="H83" s="307"/>
+      <c r="I83" s="307"/>
+      <c r="J83" s="307"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="159"/>
-      <c r="B84" s="159"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="159"/>
-      <c r="F84" s="159"/>
-      <c r="G84" s="159"/>
-      <c r="H84" s="159"/>
-      <c r="I84" s="159"/>
-      <c r="J84" s="159"/>
+      <c r="A84" s="307"/>
+      <c r="B84" s="307"/>
+      <c r="C84" s="307"/>
+      <c r="D84" s="307"/>
+      <c r="E84" s="307"/>
+      <c r="F84" s="307"/>
+      <c r="G84" s="307"/>
+      <c r="H84" s="307"/>
+      <c r="I84" s="307"/>
+      <c r="J84" s="307"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="159"/>
-      <c r="B85" s="159"/>
-      <c r="C85" s="159"/>
-      <c r="D85" s="159"/>
-      <c r="E85" s="159"/>
-      <c r="F85" s="159"/>
-      <c r="G85" s="159"/>
-      <c r="H85" s="159"/>
-      <c r="I85" s="159"/>
-      <c r="J85" s="159"/>
+      <c r="A85" s="307"/>
+      <c r="B85" s="307"/>
+      <c r="C85" s="307"/>
+      <c r="D85" s="307"/>
+      <c r="E85" s="307"/>
+      <c r="F85" s="307"/>
+      <c r="G85" s="307"/>
+      <c r="H85" s="307"/>
+      <c r="I85" s="307"/>
+      <c r="J85" s="307"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I64">
@@ -7662,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8793,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8811,7 +8814,7 @@
     <col min="10" max="10" width="8.109375" style="70" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" style="70" customWidth="1"/>
     <col min="12" max="12" width="13" style="70" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" style="70" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="70" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" style="70" customWidth="1"/>
     <col min="15" max="15" width="9.44140625" style="70" customWidth="1"/>
     <col min="16" max="16" width="3.5546875" style="70" customWidth="1"/>
@@ -8826,15 +8829,15 @@
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="316" t="s">
         <v>449</v>
       </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="165"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="318"/>
       <c r="Q1" s="139" t="s">
         <v>442</v>
       </c>
@@ -8918,7 +8921,7 @@
       <c r="J3" s="98"/>
       <c r="K3" s="98"/>
       <c r="L3" s="99"/>
-      <c r="Q3" s="160" t="s">
+      <c r="Q3" s="313" t="s">
         <v>439</v>
       </c>
       <c r="R3" s="134" t="s">
@@ -8967,7 +8970,7 @@
         <f>H4-G4*I4*0.001</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="Q4" s="160"/>
+      <c r="Q4" s="313"/>
       <c r="R4" s="134" t="s">
         <v>437</v>
       </c>
@@ -9014,7 +9017,7 @@
         <f t="shared" ref="M5:M10" si="0">H5-G5*I5*0.001</f>
         <v>9.0007999999999981</v>
       </c>
-      <c r="Q5" s="160"/>
+      <c r="Q5" s="313"/>
       <c r="R5" s="134" t="s">
         <v>65</v>
       </c>
@@ -9045,7 +9048,7 @@
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
       <c r="L6" s="83"/>
-      <c r="Q6" s="160"/>
+      <c r="Q6" s="313"/>
       <c r="R6" s="134" t="s">
         <v>66</v>
       </c>
@@ -9092,7 +9095,7 @@
         <f t="shared" si="0"/>
         <v>8.5922999999999945</v>
       </c>
-      <c r="Q7" s="160"/>
+      <c r="Q7" s="313"/>
       <c r="R7" s="135" t="s">
         <v>436</v>
       </c>
@@ -9123,7 +9126,7 @@
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
       <c r="L8" s="83"/>
-      <c r="Q8" s="161" t="s">
+      <c r="Q8" s="314" t="s">
         <v>435</v>
       </c>
       <c r="R8" s="136" t="s">
@@ -9172,7 +9175,7 @@
         <f t="shared" si="0"/>
         <v>9.4707000000000008</v>
       </c>
-      <c r="Q9" s="161"/>
+      <c r="Q9" s="314"/>
       <c r="R9" s="136" t="s">
         <v>446</v>
       </c>
@@ -9219,7 +9222,7 @@
         <f t="shared" si="0"/>
         <v>5.0242000000000004</v>
       </c>
-      <c r="Q10" s="161"/>
+      <c r="Q10" s="314"/>
       <c r="R10" s="137" t="s">
         <v>433</v>
       </c>
@@ -9250,7 +9253,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
       <c r="L11" s="88"/>
-      <c r="Q11" s="161"/>
+      <c r="Q11" s="314"/>
       <c r="R11" s="135" t="s">
         <v>445</v>
       </c>
@@ -9279,7 +9282,7 @@
       <c r="N12" s="79"/>
       <c r="O12" s="79"/>
       <c r="P12" s="79"/>
-      <c r="Q12" s="161"/>
+      <c r="Q12" s="314"/>
       <c r="R12" s="135" t="s">
         <v>432</v>
       </c>
@@ -9294,7 +9297,7 @@
       <c r="B13" t="s">
         <v>404</v>
       </c>
-      <c r="Q13" s="161" t="s">
+      <c r="Q13" s="314" t="s">
         <v>431</v>
       </c>
       <c r="R13" s="135" t="s">
@@ -9319,7 +9322,7 @@
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
       <c r="L14" s="79"/>
-      <c r="Q14" s="161"/>
+      <c r="Q14" s="314"/>
       <c r="R14" s="134" t="s">
         <v>429</v>
       </c>
@@ -9331,23 +9334,23 @@
       <c r="X14"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="266"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="297"/>
-      <c r="E15" s="297"/>
-      <c r="F15" s="297"/>
-      <c r="G15" s="297"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="297"/>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
-      <c r="M15" s="267"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="265"/>
-      <c r="Q15" s="161"/>
+      <c r="A15" s="230"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="259"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="229"/>
+      <c r="Q15" s="314"/>
       <c r="R15" s="134" t="s">
         <v>428</v>
       </c>
@@ -9359,45 +9362,45 @@
       <c r="X15"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="266"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="237" t="s">
+      <c r="A16" s="230"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="207" t="s">
         <v>443</v>
       </c>
-      <c r="E16" s="238" t="s">
+      <c r="E16" s="208" t="s">
         <v>444</v>
       </c>
-      <c r="F16" s="239" t="s">
+      <c r="F16" s="209" t="s">
         <v>489</v>
       </c>
-      <c r="G16" s="239" t="s">
+      <c r="G16" s="209" t="s">
         <v>490</v>
       </c>
-      <c r="H16" s="238" t="s">
+      <c r="H16" s="208" t="s">
         <v>460</v>
       </c>
-      <c r="I16" s="239" t="s">
+      <c r="I16" s="209" t="s">
         <v>399</v>
       </c>
-      <c r="J16" s="240" t="s">
+      <c r="J16" s="210" t="s">
         <v>491</v>
       </c>
-      <c r="K16" s="261" t="s">
+      <c r="K16" s="311" t="s">
         <v>397</v>
       </c>
-      <c r="L16" s="262"/>
-      <c r="M16" s="263" t="s">
+      <c r="L16" s="312"/>
+      <c r="M16" s="227" t="s">
         <v>494</v>
       </c>
-      <c r="N16" s="259" t="s">
+      <c r="N16" s="324" t="s">
         <v>452</v>
       </c>
-      <c r="O16" s="259" t="s">
+      <c r="O16" s="324" t="s">
         <v>461</v>
       </c>
-      <c r="P16" s="265"/>
-      <c r="Q16" s="161" t="s">
+      <c r="P16" s="229"/>
+      <c r="Q16" s="314" t="s">
         <v>427</v>
       </c>
       <c r="R16" s="135" t="s">
@@ -9411,45 +9414,45 @@
       <c r="X16"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="266"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="245" t="s">
+      <c r="A17" s="230"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="215" t="s">
         <v>391</v>
       </c>
-      <c r="D17" s="272">
+      <c r="D17" s="234">
         <v>3.58</v>
       </c>
-      <c r="E17" s="273">
+      <c r="E17" s="235">
         <v>2.91</v>
       </c>
-      <c r="F17" s="274">
+      <c r="F17" s="236">
         <v>2.23</v>
       </c>
-      <c r="G17" s="274">
+      <c r="G17" s="236">
         <v>1.85</v>
       </c>
-      <c r="H17" s="274">
+      <c r="H17" s="236">
         <v>3.14</v>
       </c>
-      <c r="I17" s="274">
+      <c r="I17" s="236">
         <v>2.35</v>
       </c>
-      <c r="J17" s="275">
+      <c r="J17" s="237">
         <v>0.31</v>
       </c>
-      <c r="K17" s="167" t="s">
+      <c r="K17" s="309" t="s">
         <v>492</v>
       </c>
-      <c r="L17" s="256" t="s">
+      <c r="L17" s="319" t="s">
         <v>410</v>
       </c>
-      <c r="M17" s="168" t="s">
+      <c r="M17" s="323" t="s">
         <v>493</v>
       </c>
-      <c r="N17" s="260"/>
-      <c r="O17" s="260"/>
-      <c r="P17" s="265"/>
-      <c r="Q17" s="161"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="229"/>
+      <c r="Q17" s="314"/>
       <c r="R17" s="135" t="s">
         <v>425</v>
       </c>
@@ -9461,43 +9464,43 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="266"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="246" t="s">
+      <c r="A18" s="230"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="216" t="s">
         <v>459</v>
       </c>
-      <c r="D18" s="276">
+      <c r="D18" s="238">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E18" s="277">
+      <c r="E18" s="239">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F18" s="277">
+      <c r="F18" s="239">
         <v>1.3919999999999999</v>
       </c>
-      <c r="G18" s="277">
+      <c r="G18" s="239">
         <v>1.3919999999999999</v>
       </c>
-      <c r="H18" s="277">
+      <c r="H18" s="239">
         <v>2.0659999999999998</v>
       </c>
-      <c r="I18" s="277">
+      <c r="I18" s="239">
         <v>0.7</v>
       </c>
-      <c r="J18" s="278">
+      <c r="J18" s="240">
         <v>0.5</v>
       </c>
-      <c r="K18" s="169"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="258">
+      <c r="K18" s="310"/>
+      <c r="L18" s="320"/>
+      <c r="M18" s="310"/>
+      <c r="N18" s="226">
         <v>53</v>
       </c>
       <c r="O18" s="146">
         <v>30</v>
       </c>
-      <c r="P18" s="265"/>
-      <c r="Q18" s="161"/>
+      <c r="P18" s="229"/>
+      <c r="Q18" s="314"/>
       <c r="R18" s="135" t="s">
         <v>424</v>
       </c>
@@ -9509,29 +9512,29 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="266"/>
-      <c r="B19" s="293" t="s">
+      <c r="A19" s="230"/>
+      <c r="B19" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="217" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="268" t="s">
+      <c r="D19" s="321" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="269"/>
-      <c r="H19" s="269"/>
-      <c r="I19" s="269"/>
-      <c r="J19" s="269"/>
-      <c r="K19" s="270"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="265"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="265"/>
-      <c r="Q19" s="161"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="229"/>
+      <c r="N19" s="229"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="229"/>
+      <c r="Q19" s="314"/>
       <c r="R19" s="135" t="s">
         <v>423</v>
       </c>
@@ -9543,49 +9546,49 @@
       <c r="X19"/>
     </row>
     <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="266"/>
-      <c r="B20" s="294" t="s">
+      <c r="A20" s="230"/>
+      <c r="B20" s="256" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="289">
+      <c r="C20" s="251">
         <v>250</v>
       </c>
-      <c r="D20" s="279">
+      <c r="D20" s="241">
         <v>35</v>
       </c>
-      <c r="E20" s="280"/>
-      <c r="F20" s="281">
+      <c r="E20" s="242"/>
+      <c r="F20" s="243">
         <v>30</v>
       </c>
-      <c r="G20" s="281">
+      <c r="G20" s="243">
         <v>30</v>
       </c>
-      <c r="H20" s="280"/>
-      <c r="I20" s="281">
+      <c r="H20" s="242"/>
+      <c r="I20" s="243">
         <v>1</v>
       </c>
-      <c r="J20" s="248">
+      <c r="J20" s="218">
         <v>5</v>
       </c>
-      <c r="K20" s="248">
+      <c r="K20" s="218">
         <f>SUMPRODUCT($D$17:$J$17,D20:J20)/100</f>
         <v>2.516</v>
       </c>
-      <c r="L20" s="250">
-        <v>1.91</v>
-      </c>
-      <c r="M20" s="253">
-        <f>SUMPRODUCT($D$18:$J$18,D20:J20)/100*0.001</f>
+      <c r="L20" s="220">
+        <v>2.02</v>
+      </c>
+      <c r="M20" s="223">
+        <f t="shared" ref="M20:M25" si="1">SUMPRODUCT($D$18:$J$18,D20:J20)/100*0.001</f>
         <v>1.1808000000000001E-3</v>
       </c>
-      <c r="N20" s="249" t="s">
+      <c r="N20" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="249" t="s">
+      <c r="O20" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="265"/>
-      <c r="Q20" s="161"/>
+      <c r="P20" s="229"/>
+      <c r="Q20" s="314"/>
       <c r="R20" s="135" t="s">
         <v>422</v>
       </c>
@@ -9597,36 +9600,36 @@
       <c r="X20"/>
     </row>
     <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="266"/>
-      <c r="B21" s="295" t="s">
+      <c r="A21" s="230"/>
+      <c r="B21" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="290">
+      <c r="C21" s="252">
         <f>460-C20</f>
         <v>210</v>
       </c>
-      <c r="D21" s="282"/>
-      <c r="E21" s="283">
+      <c r="D21" s="244"/>
+      <c r="E21" s="245">
         <v>90</v>
       </c>
-      <c r="F21" s="283">
+      <c r="F21" s="245">
         <v>5</v>
       </c>
-      <c r="G21" s="283">
+      <c r="G21" s="245">
         <v>5</v>
       </c>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
       <c r="J21" s="143"/>
       <c r="K21" s="141">
         <f>SUMPRODUCT($D$17:$J$17,D21:J21)/100</f>
         <v>2.823</v>
       </c>
-      <c r="L21" s="251">
+      <c r="L21" s="221">
         <v>2.91</v>
       </c>
-      <c r="M21" s="254">
-        <f>SUMPRODUCT($D$18:$J$18,D21:J21)/100*0.001</f>
+      <c r="M21" s="224">
+        <f t="shared" si="1"/>
         <v>9.4559999999999989E-4</v>
       </c>
       <c r="N21" s="147" t="s">
@@ -9635,8 +9638,8 @@
       <c r="O21" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="265"/>
-      <c r="Q21" s="161"/>
+      <c r="P21" s="229"/>
+      <c r="Q21" s="314"/>
       <c r="R21" s="135" t="s">
         <v>421</v>
       </c>
@@ -9648,40 +9651,40 @@
       <c r="X21"/>
     </row>
     <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="266"/>
-      <c r="B22" s="295" t="s">
+      <c r="A22" s="230"/>
+      <c r="B22" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="290">
+      <c r="C22" s="252">
         <f>625-(C21+C20)</f>
         <v>165</v>
       </c>
-      <c r="D22" s="285">
+      <c r="D22" s="247">
         <v>39</v>
       </c>
-      <c r="E22" s="284"/>
-      <c r="F22" s="283">
+      <c r="E22" s="246"/>
+      <c r="F22" s="245">
         <v>20</v>
       </c>
-      <c r="G22" s="283">
+      <c r="G22" s="245">
         <v>20</v>
       </c>
-      <c r="H22" s="283">
+      <c r="H22" s="245">
         <v>20</v>
       </c>
-      <c r="I22" s="284"/>
+      <c r="I22" s="246"/>
       <c r="J22" s="142">
         <v>1</v>
       </c>
       <c r="K22" s="141">
-        <f t="shared" ref="K22:K25" si="1">SUMPRODUCT($D$17:$J$17,D22:J22)/100</f>
+        <f t="shared" ref="K22:K25" si="2">SUMPRODUCT($D$17:$J$17,D22:J22)/100</f>
         <v>2.8432999999999997</v>
       </c>
-      <c r="L22" s="251">
+      <c r="L22" s="221">
         <v>2.25</v>
       </c>
-      <c r="M22" s="254">
-        <f>SUMPRODUCT($D$18:$J$18,D22:J22)/100*0.001</f>
+      <c r="M22" s="224">
+        <f t="shared" si="1"/>
         <v>1.3244399999999999E-3</v>
       </c>
       <c r="N22" s="147" t="s">
@@ -9690,8 +9693,8 @@
       <c r="O22" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="265"/>
-      <c r="Q22" s="161"/>
+      <c r="P22" s="229"/>
+      <c r="Q22" s="314"/>
       <c r="R22" s="135" t="s">
         <v>420</v>
       </c>
@@ -9703,40 +9706,40 @@
       <c r="X22"/>
     </row>
     <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="266"/>
-      <c r="B23" s="295" t="s">
+      <c r="A23" s="230"/>
+      <c r="B23" s="257" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="290">
+      <c r="C23" s="252">
         <f>800-(C22+C21+C20)</f>
         <v>175</v>
       </c>
-      <c r="D23" s="285">
+      <c r="D23" s="247">
         <v>35</v>
       </c>
-      <c r="E23" s="284"/>
-      <c r="F23" s="283">
+      <c r="E23" s="246"/>
+      <c r="F23" s="245">
         <v>20</v>
       </c>
-      <c r="G23" s="283">
+      <c r="G23" s="245">
         <v>20</v>
       </c>
-      <c r="H23" s="283">
+      <c r="H23" s="245">
         <v>20</v>
       </c>
-      <c r="I23" s="284"/>
+      <c r="I23" s="246"/>
       <c r="J23" s="142">
         <v>5</v>
       </c>
       <c r="K23" s="141">
+        <f t="shared" si="2"/>
+        <v>2.7124999999999999</v>
+      </c>
+      <c r="L23" s="221">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M23" s="224">
         <f t="shared" si="1"/>
-        <v>2.7124999999999999</v>
-      </c>
-      <c r="L23" s="251">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="M23" s="254">
-        <f>SUMPRODUCT($D$18:$J$18,D23:J23)/100*0.001</f>
         <v>1.3085999999999998E-3</v>
       </c>
       <c r="N23" s="147" t="s">
@@ -9745,8 +9748,8 @@
       <c r="O23" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="265"/>
-      <c r="Q23" s="161"/>
+      <c r="P23" s="229"/>
+      <c r="Q23" s="314"/>
       <c r="R23" s="135" t="s">
         <v>419</v>
       </c>
@@ -9758,40 +9761,40 @@
       <c r="X23"/>
     </row>
     <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="266"/>
-      <c r="B24" s="295" t="s">
+      <c r="A24" s="230"/>
+      <c r="B24" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="290">
+      <c r="C24" s="252">
         <f>885-(C23+C22+C21+C20)</f>
         <v>85</v>
       </c>
-      <c r="D24" s="285">
+      <c r="D24" s="247">
         <v>39</v>
       </c>
-      <c r="E24" s="284"/>
-      <c r="F24" s="283">
+      <c r="E24" s="246"/>
+      <c r="F24" s="245">
         <v>20</v>
       </c>
-      <c r="G24" s="283">
+      <c r="G24" s="245">
         <v>20</v>
       </c>
-      <c r="H24" s="283">
+      <c r="H24" s="245">
         <v>20</v>
       </c>
-      <c r="I24" s="284"/>
+      <c r="I24" s="246"/>
       <c r="J24" s="142">
         <v>1</v>
       </c>
       <c r="K24" s="141">
+        <f t="shared" si="2"/>
+        <v>2.8432999999999997</v>
+      </c>
+      <c r="L24" s="221">
+        <v>1.88</v>
+      </c>
+      <c r="M24" s="224">
         <f t="shared" si="1"/>
-        <v>2.8432999999999997</v>
-      </c>
-      <c r="L24" s="251">
-        <v>1.88</v>
-      </c>
-      <c r="M24" s="254">
-        <f>SUMPRODUCT($D$18:$J$18,D24:J24)/100*0.001</f>
         <v>1.3244399999999999E-3</v>
       </c>
       <c r="N24" s="147" t="s">
@@ -9800,8 +9803,8 @@
       <c r="O24" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="265"/>
-      <c r="Q24" s="161"/>
+      <c r="P24" s="229"/>
+      <c r="Q24" s="314"/>
       <c r="R24" s="135" t="s">
         <v>418</v>
       </c>
@@ -9813,37 +9816,37 @@
       <c r="X24"/>
     </row>
     <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="266"/>
-      <c r="B25" s="295" t="s">
+      <c r="A25" s="230"/>
+      <c r="B25" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="290">
+      <c r="C25" s="252">
         <v>492</v>
       </c>
-      <c r="D25" s="285">
+      <c r="D25" s="247">
         <v>30</v>
       </c>
-      <c r="E25" s="284"/>
-      <c r="F25" s="283">
+      <c r="E25" s="246"/>
+      <c r="F25" s="245">
         <v>25</v>
       </c>
-      <c r="G25" s="283">
+      <c r="G25" s="245">
         <v>25</v>
       </c>
-      <c r="H25" s="283">
+      <c r="H25" s="245">
         <v>20</v>
       </c>
-      <c r="I25" s="284"/>
+      <c r="I25" s="246"/>
       <c r="J25" s="143"/>
       <c r="K25" s="141">
+        <f t="shared" si="2"/>
+        <v>2.722</v>
+      </c>
+      <c r="L25" s="221" t="s">
+        <v>453</v>
+      </c>
+      <c r="M25" s="224">
         <f t="shared" si="1"/>
-        <v>2.722</v>
-      </c>
-      <c r="L25" s="251" t="s">
-        <v>453</v>
-      </c>
-      <c r="M25" s="254">
-        <f>SUMPRODUCT($D$18:$J$18,D25:J25)/100*0.001</f>
         <v>1.3779999999999999E-3</v>
       </c>
       <c r="N25" s="147" t="s">
@@ -9852,8 +9855,8 @@
       <c r="O25" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="265"/>
-      <c r="Q25" s="161"/>
+      <c r="P25" s="229"/>
+      <c r="Q25" s="314"/>
       <c r="R25" s="135" t="s">
         <v>417</v>
       </c>
@@ -9865,25 +9868,25 @@
       <c r="X25"/>
     </row>
     <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="266"/>
-      <c r="B26" s="295" t="s">
+      <c r="A26" s="230"/>
+      <c r="B26" s="257" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="291" t="s">
+      <c r="C26" s="253" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="286"/>
-      <c r="E26" s="284"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="284"/>
-      <c r="H26" s="284"/>
-      <c r="I26" s="284"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="246"/>
       <c r="J26" s="143"/>
       <c r="K26" s="143"/>
-      <c r="L26" s="251" t="s">
+      <c r="L26" s="221" t="s">
         <v>455</v>
       </c>
-      <c r="M26" s="255">
+      <c r="M26" s="225">
         <v>1.4E-3</v>
       </c>
       <c r="N26" s="147" t="s">
@@ -9892,8 +9895,8 @@
       <c r="O26" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P26" s="265"/>
-      <c r="Q26" s="161"/>
+      <c r="P26" s="229"/>
+      <c r="Q26" s="314"/>
       <c r="R26" s="135" t="s">
         <v>416</v>
       </c>
@@ -9905,23 +9908,23 @@
       <c r="X26"/>
     </row>
     <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="266"/>
-      <c r="B27" s="296" t="s">
+      <c r="A27" s="230"/>
+      <c r="B27" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="292">
+      <c r="C27" s="254">
         <f>1030-960</f>
         <v>70</v>
       </c>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288"/>
-      <c r="I27" s="288"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="250"/>
       <c r="J27" s="144"/>
       <c r="K27" s="144"/>
-      <c r="L27" s="252">
+      <c r="L27" s="222">
         <v>2.2000000000000002</v>
       </c>
       <c r="M27" s="145" t="s">
@@ -9933,8 +9936,8 @@
       <c r="O27" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="265"/>
-      <c r="Q27" s="161"/>
+      <c r="P27" s="229"/>
+      <c r="Q27" s="314"/>
       <c r="R27" s="135" t="s">
         <v>415</v>
       </c>
@@ -9946,27 +9949,27 @@
       <c r="X27"/>
     </row>
     <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="266"/>
-      <c r="B28" s="264"/>
-      <c r="C28" s="265" t="s">
+      <c r="A28" s="230"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="229" t="s">
         <v>412</v>
       </c>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="266"/>
-      <c r="J28" s="266"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="266" t="s">
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="230" t="s">
         <v>454</v>
       </c>
-      <c r="M28" s="266"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266"/>
-      <c r="P28" s="265"/>
-      <c r="Q28" s="161"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="229"/>
+      <c r="Q28" s="314"/>
       <c r="R28" s="135" t="s">
         <v>414</v>
       </c>
@@ -9978,25 +9981,25 @@
       <c r="X28"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="266"/>
-      <c r="B29" s="264"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266" t="s">
+      <c r="A29" s="230"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230" t="s">
         <v>456</v>
       </c>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="265"/>
-      <c r="Q29" s="162"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="229"/>
+      <c r="Q29" s="315"/>
       <c r="R29" s="138" t="s">
         <v>413</v>
       </c>
@@ -10008,7 +10011,7 @@
       <c r="X29"/>
     </row>
     <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="266"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="107"/>
       <c r="P30" s="79"/>
       <c r="Q30" t="s">
@@ -10045,8 +10048,8 @@
       <c r="M32" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="N32" s="241"/>
-      <c r="O32" s="241"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="211"/>
       <c r="P32" s="79"/>
       <c r="Q32"/>
       <c r="R32" s="122"/>
@@ -10067,8 +10070,8 @@
       <c r="M33" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="N33" s="241"/>
-      <c r="O33" s="241"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
       <c r="Q33"/>
       <c r="R33" s="122"/>
       <c r="S33"/>
@@ -10088,8 +10091,8 @@
       <c r="M34" s="70" t="s">
         <v>483</v>
       </c>
-      <c r="N34" s="241"/>
-      <c r="O34" s="241"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="211"/>
       <c r="Q34"/>
       <c r="R34" s="122"/>
       <c r="S34"/>
@@ -10109,8 +10112,8 @@
       <c r="M35" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="N35" s="242"/>
-      <c r="O35" s="242"/>
+      <c r="N35" s="212"/>
+      <c r="O35" s="212"/>
       <c r="Q35"/>
       <c r="R35" s="122"/>
       <c r="S35"/>
@@ -10127,10 +10130,10 @@
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
       <c r="N36" s="79"/>
-      <c r="O36" s="244"/>
+      <c r="O36" s="214"/>
       <c r="Q36"/>
       <c r="R36"/>
-      <c r="S36" s="166"/>
+      <c r="S36" s="308"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
@@ -10143,10 +10146,10 @@
       <c r="D37" s="117"/>
       <c r="E37" s="79"/>
       <c r="N37" s="79"/>
-      <c r="O37" s="244"/>
+      <c r="O37" s="214"/>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37" s="166"/>
+      <c r="S37" s="308"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
@@ -10157,12 +10160,12 @@
       <c r="C38" s="116"/>
       <c r="D38" s="117"/>
       <c r="E38" s="79"/>
-      <c r="M38" s="241"/>
+      <c r="M38" s="211"/>
       <c r="N38" s="79"/>
-      <c r="O38" s="244"/>
+      <c r="O38" s="214"/>
       <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38" s="166"/>
+      <c r="S38" s="308"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
@@ -10170,19 +10173,19 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="266"/>
-      <c r="B39" s="325" t="s">
+      <c r="A39" s="230"/>
+      <c r="B39" s="287" t="s">
         <v>498</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="298"/>
-      <c r="E39" s="265"/>
-      <c r="F39" s="266"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="266"/>
-      <c r="M39" s="241"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="230"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="230"/>
+      <c r="M39" s="211"/>
       <c r="N39" s="79"/>
-      <c r="O39" s="244"/>
+      <c r="O39" s="214"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -10193,27 +10196,27 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="266"/>
-      <c r="B40" s="299"/>
-      <c r="C40" s="300" t="s">
+      <c r="A40" s="230"/>
+      <c r="B40" s="261"/>
+      <c r="C40" s="262" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="301" t="s">
+      <c r="D40" s="263" t="s">
         <v>478</v>
       </c>
-      <c r="E40" s="301" t="s">
+      <c r="E40" s="263" t="s">
         <v>476</v>
       </c>
-      <c r="F40" s="301" t="s">
+      <c r="F40" s="263" t="s">
         <v>477</v>
       </c>
-      <c r="G40" s="302" t="s">
+      <c r="G40" s="264" t="s">
         <v>391</v>
       </c>
-      <c r="H40" s="266"/>
-      <c r="M40" s="241"/>
+      <c r="H40" s="230"/>
+      <c r="M40" s="211"/>
       <c r="N40" s="79"/>
-      <c r="O40" s="244"/>
+      <c r="O40" s="214"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -10224,32 +10227,32 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="266"/>
-      <c r="B41" s="303" t="s">
+      <c r="A41" s="230"/>
+      <c r="B41" s="265" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="306">
+      <c r="C41" s="268">
         <v>125</v>
       </c>
-      <c r="D41" s="307">
-        <f>C41/SUM($C$41:$C$47)</f>
+      <c r="D41" s="269">
+        <f t="shared" ref="D41:D47" si="3">C41/SUM($C$41:$C$47)</f>
         <v>0.125</v>
       </c>
-      <c r="E41" s="308">
+      <c r="E41" s="270">
         <f>0.0012</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F41" s="307">
-        <f>C41*E41</f>
+      <c r="F41" s="269">
+        <f t="shared" ref="F41:F47" si="4">C41*E41</f>
         <v>0.15</v>
       </c>
-      <c r="G41" s="309">
+      <c r="G41" s="271">
         <v>1.91</v>
       </c>
-      <c r="H41" s="266"/>
-      <c r="M41" s="241"/>
+      <c r="H41" s="230"/>
+      <c r="M41" s="211"/>
       <c r="N41" s="79"/>
-      <c r="O41" s="244"/>
+      <c r="O41" s="214"/>
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
@@ -10260,32 +10263,32 @@
       <c r="X41"/>
     </row>
     <row r="42" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="266"/>
-      <c r="B42" s="304" t="s">
+      <c r="A42" s="230"/>
+      <c r="B42" s="266" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="306">
+      <c r="C42" s="268">
         <f>230-125</f>
         <v>105</v>
       </c>
-      <c r="D42" s="307">
-        <f>C42/SUM($C$41:$C$47)</f>
+      <c r="D42" s="269">
+        <f t="shared" si="3"/>
         <v>0.105</v>
       </c>
-      <c r="E42" s="308">
+      <c r="E42" s="270">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F42" s="307">
-        <f>C42*E42</f>
+      <c r="F42" s="269">
+        <f t="shared" si="4"/>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="G42" s="309">
+      <c r="G42" s="271">
         <v>2.91</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="M42" s="243"/>
+      <c r="H42" s="230"/>
+      <c r="M42" s="213"/>
       <c r="N42" s="79"/>
-      <c r="O42" s="244"/>
+      <c r="O42" s="214"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -10296,32 +10299,32 @@
       <c r="X42"/>
     </row>
     <row r="43" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="266"/>
-      <c r="B43" s="304" t="s">
+      <c r="A43" s="230"/>
+      <c r="B43" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="306">
+      <c r="C43" s="268">
         <f>315-230</f>
         <v>85</v>
       </c>
-      <c r="D43" s="307">
-        <f>C43/SUM($C$41:$C$47)</f>
+      <c r="D43" s="269">
+        <f t="shared" si="3"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E43" s="308">
+      <c r="E43" s="270">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F43" s="307">
-        <f>C43*E43</f>
+      <c r="F43" s="269">
+        <f t="shared" si="4"/>
         <v>0.1105</v>
       </c>
-      <c r="G43" s="309">
+      <c r="G43" s="271">
         <v>2.25</v>
       </c>
-      <c r="H43" s="266"/>
-      <c r="M43" s="244"/>
+      <c r="H43" s="230"/>
+      <c r="M43" s="214"/>
       <c r="N43" s="79"/>
-      <c r="O43" s="244"/>
+      <c r="O43" s="214"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43"/>
@@ -10332,29 +10335,29 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="266"/>
-      <c r="B44" s="304" t="s">
+      <c r="A44" s="230"/>
+      <c r="B44" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="306">
+      <c r="C44" s="268">
         <f>400-315</f>
         <v>85</v>
       </c>
-      <c r="D44" s="307">
-        <f>C44/SUM($C$41:$C$47)</f>
+      <c r="D44" s="269">
+        <f t="shared" si="3"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E44" s="308">
+      <c r="E44" s="270">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F44" s="307">
-        <f>C44*E44</f>
+      <c r="F44" s="269">
+        <f t="shared" si="4"/>
         <v>0.1105</v>
       </c>
-      <c r="G44" s="309">
+      <c r="G44" s="271">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H44" s="266"/>
+      <c r="H44" s="230"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
@@ -10368,29 +10371,29 @@
       <c r="X44"/>
     </row>
     <row r="45" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="266"/>
-      <c r="B45" s="304" t="s">
+      <c r="A45" s="230"/>
+      <c r="B45" s="266" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="306">
+      <c r="C45" s="268">
         <f>445-400</f>
         <v>45</v>
       </c>
-      <c r="D45" s="307">
-        <f>C45/SUM($C$41:$C$47)</f>
+      <c r="D45" s="269">
+        <f t="shared" si="3"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E45" s="308">
+      <c r="E45" s="270">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F45" s="307">
-        <f>C45*E45</f>
+      <c r="F45" s="269">
+        <f t="shared" si="4"/>
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="G45" s="309">
+      <c r="G45" s="271">
         <v>1.88</v>
       </c>
-      <c r="H45" s="266"/>
+      <c r="H45" s="230"/>
       <c r="Q45" s="54"/>
       <c r="R45" s="54"/>
       <c r="S45"/>
@@ -10401,29 +10404,29 @@
       <c r="X45"/>
     </row>
     <row r="46" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="266"/>
-      <c r="B46" s="304" t="s">
+      <c r="A46" s="230"/>
+      <c r="B46" s="266" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="306">
+      <c r="C46" s="268">
         <f>700-445</f>
         <v>255</v>
       </c>
-      <c r="D46" s="307">
-        <f>C46/SUM($C$41:$C$47)</f>
+      <c r="D46" s="269">
+        <f t="shared" si="3"/>
         <v>0.255</v>
       </c>
-      <c r="E46" s="310">
+      <c r="E46" s="272">
         <v>1.4E-3</v>
       </c>
-      <c r="F46" s="307">
-        <f>C46*E46</f>
+      <c r="F46" s="269">
+        <f t="shared" si="4"/>
         <v>0.35699999999999998</v>
       </c>
-      <c r="G46" s="309">
+      <c r="G46" s="271">
         <v>2.1</v>
       </c>
-      <c r="H46" s="266"/>
+      <c r="H46" s="230"/>
       <c r="Q46" s="54"/>
       <c r="R46" s="54"/>
       <c r="S46"/>
@@ -10434,29 +10437,29 @@
       <c r="X46"/>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="266"/>
-      <c r="B47" s="305" t="s">
+      <c r="A47" s="230"/>
+      <c r="B47" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="311">
+      <c r="C47" s="273">
         <f>1000-700</f>
         <v>300</v>
       </c>
-      <c r="D47" s="312">
-        <f>C47/SUM($C$41:$C$47)</f>
+      <c r="D47" s="274">
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="E47" s="313">
+      <c r="E47" s="275">
         <v>1.4E-3</v>
       </c>
-      <c r="F47" s="312">
-        <f>C47*E47</f>
+      <c r="F47" s="274">
+        <f t="shared" si="4"/>
         <v>0.42</v>
       </c>
-      <c r="G47" s="314">
+      <c r="G47" s="276">
         <v>4.1900000000000004</v>
       </c>
-      <c r="H47" s="266"/>
+      <c r="H47" s="230"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
       <c r="S47"/>
@@ -10467,19 +10470,22 @@
       <c r="X47"/>
     </row>
     <row r="48" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="266"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="315"/>
-      <c r="D48" s="316"/>
-      <c r="E48" s="317" t="s">
+      <c r="A48" s="230"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="277">
+        <f>SUM(C41:C47)</f>
+        <v>1000</v>
+      </c>
+      <c r="D48" s="278"/>
+      <c r="E48" s="279" t="s">
         <v>495</v>
       </c>
-      <c r="F48" s="318">
+      <c r="F48" s="280">
         <f>SUMPRODUCT(G41:G47,D41:D47)</f>
         <v>2.8030500000000003</v>
       </c>
-      <c r="G48" s="316"/>
-      <c r="H48" s="266"/>
+      <c r="G48" s="278"/>
+      <c r="H48" s="230"/>
       <c r="Q48" s="54"/>
       <c r="R48" s="54"/>
       <c r="S48"/>
@@ -10490,19 +10496,19 @@
       <c r="X48"/>
     </row>
     <row r="49" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="266"/>
-      <c r="B49" s="266"/>
-      <c r="C49" s="315"/>
-      <c r="D49" s="316"/>
-      <c r="E49" s="317" t="s">
+      <c r="A49" s="230"/>
+      <c r="B49" s="230"/>
+      <c r="C49" s="277"/>
+      <c r="D49" s="278"/>
+      <c r="E49" s="279" t="s">
         <v>496</v>
       </c>
-      <c r="F49" s="318">
+      <c r="F49" s="280">
         <f>0.031</f>
         <v>3.1E-2</v>
       </c>
-      <c r="G49" s="316"/>
-      <c r="H49" s="266"/>
+      <c r="G49" s="278"/>
+      <c r="H49" s="230"/>
       <c r="Q49" s="54"/>
       <c r="R49" s="54"/>
       <c r="S49"/>
@@ -10513,19 +10519,19 @@
       <c r="X49"/>
     </row>
     <row r="50" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="266"/>
-      <c r="B50" s="266"/>
-      <c r="C50" s="315"/>
-      <c r="D50" s="316"/>
-      <c r="E50" s="317" t="s">
+      <c r="A50" s="230"/>
+      <c r="B50" s="230"/>
+      <c r="C50" s="277"/>
+      <c r="D50" s="278"/>
+      <c r="E50" s="279" t="s">
         <v>497</v>
       </c>
-      <c r="F50" s="319">
+      <c r="F50" s="281">
         <f>F48*F49</f>
         <v>8.6894550000000001E-2</v>
       </c>
-      <c r="G50" s="316"/>
-      <c r="H50" s="266"/>
+      <c r="G50" s="278"/>
+      <c r="H50" s="230"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -10536,229 +10542,234 @@
       <c r="X50"/>
     </row>
     <row r="51" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="266"/>
-      <c r="B51" s="266"/>
-      <c r="C51" s="315"/>
-      <c r="D51" s="316"/>
-      <c r="E51" s="316"/>
-      <c r="F51" s="316"/>
-      <c r="G51" s="316"/>
-      <c r="H51" s="266"/>
+      <c r="A51" s="230"/>
+      <c r="B51" s="230"/>
+      <c r="C51" s="277"/>
+      <c r="D51" s="278"/>
+      <c r="E51" s="278"/>
+      <c r="F51" s="278"/>
+      <c r="G51" s="278"/>
+      <c r="H51" s="230"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="266"/>
-      <c r="B52" s="266"/>
-      <c r="C52" s="315"/>
-      <c r="D52" s="316"/>
-      <c r="E52" s="316"/>
-      <c r="F52" s="316"/>
-      <c r="G52" s="316"/>
-      <c r="H52" s="266"/>
+      <c r="A52" s="230"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="277"/>
+      <c r="D52" s="278"/>
+      <c r="E52" s="278"/>
+      <c r="F52" s="278"/>
+      <c r="G52" s="278"/>
+      <c r="H52" s="230"/>
     </row>
     <row r="53" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="266"/>
-      <c r="B53" s="325" t="s">
+      <c r="A53" s="230"/>
+      <c r="B53" s="287" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="300" t="s">
+      <c r="C53" s="262" t="s">
         <v>390</v>
       </c>
-      <c r="D53" s="301" t="s">
+      <c r="D53" s="263" t="s">
         <v>478</v>
       </c>
-      <c r="E53" s="301" t="s">
+      <c r="E53" s="263" t="s">
         <v>476</v>
       </c>
-      <c r="F53" s="301" t="s">
+      <c r="F53" s="263" t="s">
         <v>477</v>
       </c>
-      <c r="G53" s="302" t="s">
+      <c r="G53" s="264" t="s">
         <v>391</v>
       </c>
-      <c r="H53" s="266"/>
+      <c r="H53" s="230"/>
     </row>
     <row r="54" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="266"/>
-      <c r="B54" s="266"/>
-      <c r="C54" s="306">
+      <c r="A54" s="230"/>
+      <c r="B54" s="230"/>
+      <c r="C54" s="268">
         <v>50</v>
       </c>
-      <c r="D54" s="307">
+      <c r="D54" s="269">
         <f>C54/SUM($C$54:$C$58)</f>
         <v>0.05</v>
       </c>
-      <c r="E54" s="308">
+      <c r="E54" s="270">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="F54" s="320">
+      <c r="F54" s="282">
         <f>C54*E54</f>
         <v>0.05</v>
       </c>
-      <c r="G54" s="321">
+      <c r="G54" s="283">
         <v>1.2</v>
       </c>
-      <c r="H54" s="266"/>
+      <c r="H54" s="230"/>
     </row>
     <row r="55" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="266"/>
-      <c r="B55" s="266"/>
-      <c r="C55" s="306">
+      <c r="A55" s="230"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="268">
         <v>200</v>
       </c>
-      <c r="D55" s="307">
+      <c r="D55" s="269">
         <f>C55/SUM($C$54:$C$58)</f>
         <v>0.2</v>
       </c>
-      <c r="E55" s="308">
+      <c r="E55" s="270">
         <v>1.4E-3</v>
       </c>
-      <c r="F55" s="320">
+      <c r="F55" s="282">
         <f>C55*E55</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G55" s="321">
+      <c r="G55" s="283">
         <v>1.8</v>
       </c>
-      <c r="H55" s="266"/>
+      <c r="H55" s="230"/>
     </row>
     <row r="56" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="266"/>
-      <c r="B56" s="266"/>
-      <c r="C56" s="306">
+      <c r="A56" s="230"/>
+      <c r="B56" s="230"/>
+      <c r="C56" s="268">
         <v>200</v>
       </c>
-      <c r="D56" s="307">
+      <c r="D56" s="269">
         <f>C56/SUM($C$54:$C$58)</f>
         <v>0.2</v>
       </c>
-      <c r="E56" s="308">
+      <c r="E56" s="270">
         <v>1.4E-3</v>
       </c>
-      <c r="F56" s="320">
+      <c r="F56" s="282">
         <f>C56*E56</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G56" s="321">
+      <c r="G56" s="283">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H56" s="266"/>
+      <c r="H56" s="230"/>
     </row>
     <row r="57" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="266"/>
-      <c r="B57" s="266"/>
-      <c r="C57" s="306">
+      <c r="A57" s="230"/>
+      <c r="B57" s="230"/>
+      <c r="C57" s="268">
         <v>200</v>
       </c>
-      <c r="D57" s="307">
+      <c r="D57" s="269">
         <f>C57/SUM($C$54:$C$58)</f>
         <v>0.2</v>
       </c>
-      <c r="E57" s="308">
+      <c r="E57" s="270">
         <v>1.4E-3</v>
       </c>
-      <c r="F57" s="320">
+      <c r="F57" s="282">
         <f>C57*E57</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G57" s="321">
+      <c r="G57" s="283">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H57" s="266"/>
+      <c r="H57" s="230"/>
     </row>
     <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="266"/>
-      <c r="B58" s="266"/>
-      <c r="C58" s="311">
+      <c r="A58" s="230"/>
+      <c r="B58" s="230"/>
+      <c r="C58" s="273">
         <f>1000-50-600</f>
         <v>350</v>
       </c>
-      <c r="D58" s="312">
+      <c r="D58" s="274">
         <f>C58/SUM($C$54:$C$58)</f>
         <v>0.35</v>
       </c>
-      <c r="E58" s="322">
+      <c r="E58" s="284">
         <v>1.4E-3</v>
       </c>
-      <c r="F58" s="323">
+      <c r="F58" s="285">
         <f>C58*E58</f>
         <v>0.49</v>
       </c>
-      <c r="G58" s="324">
+      <c r="G58" s="286">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H58" s="266"/>
+      <c r="H58" s="230"/>
     </row>
     <row r="59" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="266"/>
-      <c r="B59" s="266"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="316"/>
-      <c r="E59" s="317" t="s">
+      <c r="A59" s="230"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="230"/>
+      <c r="D59" s="278"/>
+      <c r="E59" s="279" t="s">
         <v>495</v>
       </c>
-      <c r="F59" s="318">
+      <c r="F59" s="280">
         <f>SUMPRODUCT(G53:G58,D53:D58)</f>
         <v>2.1449999999999996</v>
       </c>
-      <c r="G59" s="316"/>
-      <c r="H59" s="266"/>
+      <c r="G59" s="278"/>
+      <c r="H59" s="230"/>
     </row>
     <row r="60" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="266"/>
-      <c r="B60" s="266"/>
-      <c r="C60" s="266"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="317" t="s">
+      <c r="A60" s="230"/>
+      <c r="B60" s="230"/>
+      <c r="C60" s="230"/>
+      <c r="D60" s="278"/>
+      <c r="E60" s="279" t="s">
         <v>496</v>
       </c>
-      <c r="F60" s="318">
+      <c r="F60" s="280">
         <f>(40-9)/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="G60" s="316"/>
-      <c r="H60" s="266"/>
+      <c r="G60" s="278"/>
+      <c r="H60" s="230"/>
     </row>
     <row r="61" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="266"/>
-      <c r="B61" s="266"/>
-      <c r="C61" s="266"/>
-      <c r="D61" s="316"/>
-      <c r="E61" s="317" t="s">
+      <c r="A61" s="230"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="230"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="279" t="s">
         <v>497</v>
       </c>
-      <c r="F61" s="319">
+      <c r="F61" s="281">
         <f>F59*F60</f>
         <v>6.6494999999999985E-2</v>
       </c>
-      <c r="G61" s="316"/>
-      <c r="H61" s="266"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="230"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="266"/>
-      <c r="B62" s="266"/>
-      <c r="C62" s="266"/>
-      <c r="D62" s="266"/>
-      <c r="E62" s="266"/>
-      <c r="F62" s="266"/>
-      <c r="G62" s="266"/>
-      <c r="H62" s="266"/>
+      <c r="A62" s="230"/>
+      <c r="B62" s="230"/>
+      <c r="C62" s="230"/>
+      <c r="D62" s="230"/>
+      <c r="E62" s="230"/>
+      <c r="F62" s="230"/>
+      <c r="G62" s="230"/>
+      <c r="H62" s="230"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="266"/>
-      <c r="B63" s="266"/>
-      <c r="C63" s="266"/>
-      <c r="D63" s="266"/>
-      <c r="E63" s="266"/>
-      <c r="F63" s="266"/>
-      <c r="G63" s="266"/>
-      <c r="H63" s="266"/>
+      <c r="A63" s="230"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="230"/>
+      <c r="D63" s="230"/>
+      <c r="E63" s="230"/>
+      <c r="F63" s="230"/>
+      <c r="G63" s="230"/>
+      <c r="H63" s="230"/>
     </row>
   </sheetData>
   <sortState ref="B1:R12">
     <sortCondition ref="B1"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N16:N17"/>
     <mergeCell ref="S36:S38"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="K16:L16"/>
@@ -10766,11 +10777,6 @@
     <mergeCell ref="Q16:Q29"/>
     <mergeCell ref="Q13:Q15"/>
     <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N16:N17"/>
     <mergeCell ref="O16:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Modeling/RHP.xlsx
+++ b/Data/Modeling/RHP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RHP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="529">
   <si>
     <t>Coal Measures</t>
   </si>
@@ -1536,6 +1536,93 @@
   </si>
   <si>
     <t>Reference Model</t>
+  </si>
+  <si>
+    <t>Maryhill Boreholes</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>IRONSTONE</t>
+  </si>
+  <si>
+    <t>LIMESTONE</t>
+  </si>
+  <si>
+    <t>MUDSTONE</t>
+  </si>
+  <si>
+    <t>SILTSTONE</t>
+  </si>
+  <si>
+    <t>SANDSTONE</t>
+  </si>
+  <si>
+    <t>SEATROCK</t>
+  </si>
+  <si>
+    <t>DOLERITE</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>% rock</t>
+  </si>
+  <si>
+    <t>ssd</t>
+  </si>
+  <si>
+    <t>slst</t>
+  </si>
+  <si>
+    <t>mdst</t>
+  </si>
+  <si>
+    <t>lmst</t>
+  </si>
+  <si>
+    <t>seatrock</t>
+  </si>
+  <si>
+    <t>dlst</t>
+  </si>
+  <si>
+    <t>fireclay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UPPER COAL MEASURES GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOWER COAL MEASURES GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIDDLE COAL MEASURES GROUP</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>MUD</t>
+  </si>
+  <si>
+    <t>SIL</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>GRA</t>
+  </si>
+  <si>
+    <t>2200m²</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,8 +1807,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2384,13 +2483,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2862,9 +2998,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3030,7 +3163,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3039,20 +3171,40 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3137,6 +3289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3161,14 +3319,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3425,6 +3579,83 @@
         <a:xfrm>
           <a:off x="11298116" y="0"/>
           <a:ext cx="11212166" cy="6186239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6581775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230225" y="5553075"/>
+          <a:ext cx="7981950" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68140</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>151883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13298365" y="6781800"/>
+          <a:ext cx="5989760" cy="3257033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3735,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3782,12 +4013,12 @@
       <c r="H2" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="298" t="s">
+      <c r="I2" s="306" t="s">
         <v>488</v>
       </c>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="300"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="308"/>
       <c r="N2" s="25"/>
       <c r="O2" s="64" t="s">
         <v>35</v>
@@ -3819,16 +4050,16 @@
       <c r="Y2" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="289" t="s">
+      <c r="Z2" s="297" t="s">
         <v>389</v>
       </c>
-      <c r="AA2" s="290"/>
-      <c r="AB2" s="290"/>
-      <c r="AC2" s="290"/>
-      <c r="AD2" s="290"/>
-      <c r="AE2" s="290"/>
-      <c r="AF2" s="290"/>
-      <c r="AG2" s="291"/>
+      <c r="AA2" s="298"/>
+      <c r="AB2" s="298"/>
+      <c r="AC2" s="298"/>
+      <c r="AD2" s="298"/>
+      <c r="AE2" s="298"/>
+      <c r="AF2" s="298"/>
+      <c r="AG2" s="299"/>
     </row>
     <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -3849,10 +4080,10 @@
       <c r="H3" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="301"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="303"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="311"/>
       <c r="N3" s="27" t="s">
         <v>33</v>
       </c>
@@ -3909,10 +4140,10 @@
       <c r="F4" s="13"/>
       <c r="G4" s="10"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="305"/>
-      <c r="K4" s="305"/>
-      <c r="L4" s="306"/>
+      <c r="I4" s="312"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="314"/>
       <c r="N4" s="27" t="s">
         <v>24</v>
       </c>
@@ -3989,10 +4220,10 @@
       <c r="J5" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="296" t="s">
+      <c r="K5" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="297"/>
+      <c r="L5" s="305"/>
       <c r="N5" s="27" t="s">
         <v>25</v>
       </c>
@@ -4030,7 +4261,7 @@
       <c r="AG5" s="72"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="294" t="s">
+      <c r="B6" s="302" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="155" t="s">
@@ -4101,7 +4332,7 @@
       <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="294"/>
+      <c r="B7" s="302"/>
       <c r="C7" s="155">
         <f>1500*$G$2</f>
         <v>457.20000000000005</v>
@@ -4175,7 +4406,7 @@
       <c r="AG7" s="72"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="294"/>
+      <c r="B8" s="302"/>
       <c r="C8" s="162"/>
       <c r="D8" s="156" t="s">
         <v>51</v>
@@ -4251,7 +4482,7 @@
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="294"/>
+      <c r="B9" s="302"/>
       <c r="C9" s="162" t="s">
         <v>487</v>
       </c>
@@ -4418,16 +4649,16 @@
       <c r="L11" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="288" t="s">
+      <c r="N11" s="296" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="288"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="288"/>
-      <c r="R11" s="288"/>
-      <c r="S11" s="288"/>
-      <c r="T11" s="288"/>
-      <c r="U11" s="288"/>
+      <c r="O11" s="296"/>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="296"/>
+      <c r="U11" s="296"/>
       <c r="Y11" s="71" t="s">
         <v>22</v>
       </c>
@@ -4493,7 +4724,7 @@
       <c r="AG12" s="93"/>
     </row>
     <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="302" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="162"/>
@@ -4522,7 +4753,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="294"/>
+      <c r="B14" s="302"/>
       <c r="C14" s="162"/>
       <c r="D14" s="156" t="s">
         <v>46</v>
@@ -4588,7 +4819,7 @@
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="294"/>
+      <c r="B15" s="302"/>
       <c r="C15" s="162"/>
       <c r="D15" s="156" t="s">
         <v>51</v>
@@ -4648,7 +4879,7 @@
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="294"/>
+      <c r="B16" s="302"/>
       <c r="C16" s="162" t="s">
         <v>487</v>
       </c>
@@ -4817,7 +5048,7 @@
       <c r="AA18" s="37"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="294" t="s">
+      <c r="B19" s="302" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="155" t="s">
@@ -4881,7 +5112,7 @@
       <c r="AA19" s="37"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="294"/>
+      <c r="B20" s="302"/>
       <c r="C20" s="162">
         <f>S5</f>
         <v>165</v>
@@ -5010,7 +5241,7 @@
       <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="294" t="s">
+      <c r="B22" s="302" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="162">
@@ -5077,7 +5308,7 @@
       <c r="AA22" s="37"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="294"/>
+      <c r="B23" s="302"/>
       <c r="C23" s="162">
         <f>S7</f>
         <v>85</v>
@@ -5145,7 +5376,7 @@
       <c r="AA23" s="37"/>
     </row>
     <row r="24" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="294"/>
+      <c r="B24" s="302"/>
       <c r="C24" s="188"/>
       <c r="D24" s="156"/>
       <c r="E24" s="164"/>
@@ -5251,7 +5482,7 @@
       <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="302" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="162"/>
@@ -5306,7 +5537,7 @@
       <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="294"/>
+      <c r="B27" s="302"/>
       <c r="C27" s="162"/>
       <c r="D27" s="156" t="s">
         <v>50</v>
@@ -5361,7 +5592,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="294"/>
+      <c r="B28" s="302"/>
       <c r="C28" s="162"/>
       <c r="D28" s="156" t="s">
         <v>45</v>
@@ -5392,7 +5623,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="294"/>
+      <c r="B29" s="302"/>
       <c r="C29" s="162">
         <f>3800*G2-(C10+C17+C20+C22+C23)+600</f>
         <v>873.24</v>
@@ -5426,7 +5657,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="294"/>
+      <c r="B30" s="302"/>
       <c r="C30" s="162"/>
       <c r="D30" s="156" t="s">
         <v>51</v>
@@ -5457,7 +5688,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="294"/>
+      <c r="B31" s="302"/>
       <c r="C31" s="162"/>
       <c r="D31" s="156" t="s">
         <v>47</v>
@@ -5488,7 +5719,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="295"/>
+      <c r="B32" s="303"/>
       <c r="C32" s="189"/>
       <c r="D32" s="190" t="s">
         <v>48</v>
@@ -5551,11 +5782,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="170"/>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="293"/>
-      <c r="F34" s="293"/>
+      <c r="E34" s="301"/>
+      <c r="F34" s="301"/>
       <c r="G34" s="171">
         <f>G12+G18+G25</f>
         <v>85657.801606295427</v>
@@ -5616,8 +5847,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="65" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView topLeftCell="A26" zoomScale="65" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6108,7 +6339,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="48" t="s">
         <v>192</v>
       </c>
@@ -6134,7 +6365,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="46" t="s">
         <v>196</v>
       </c>
@@ -6160,7 +6391,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="48" t="s">
         <v>200</v>
       </c>
@@ -6186,7 +6417,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="46" t="s">
         <v>204</v>
       </c>
@@ -6212,7 +6443,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="48" t="s">
         <v>207</v>
       </c>
@@ -6238,7 +6469,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="46" t="s">
         <v>210</v>
       </c>
@@ -6264,7 +6495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>213</v>
       </c>
@@ -6290,7 +6521,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>215</v>
       </c>
@@ -6316,7 +6547,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="48" t="s">
         <v>218</v>
       </c>
@@ -6342,7 +6573,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="46" t="s">
         <v>221</v>
       </c>
@@ -6368,7 +6599,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="48" t="s">
         <v>225</v>
       </c>
@@ -6394,7 +6625,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="46" t="s">
         <v>228</v>
       </c>
@@ -6420,7 +6651,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="48" t="s">
         <v>231</v>
       </c>
@@ -6446,7 +6677,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="46" t="s">
         <v>235</v>
       </c>
@@ -6472,7 +6703,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="48" t="s">
         <v>238</v>
       </c>
@@ -6498,7 +6729,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="46" t="s">
         <v>242</v>
       </c>
@@ -6522,6 +6753,12 @@
       </c>
       <c r="I32" s="47" t="s">
         <v>142</v>
+      </c>
+      <c r="K32">
+        <v>1485</v>
+      </c>
+      <c r="L32">
+        <v>42.3</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6549,6 +6786,13 @@
       <c r="I33" s="49" t="s">
         <v>142</v>
       </c>
+      <c r="K33">
+        <v>1000</v>
+      </c>
+      <c r="L33">
+        <f>K33*L32/K32</f>
+        <v>28.484848484848484</v>
+      </c>
     </row>
     <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
@@ -6953,7 +7197,7 @@
       <c r="I48" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="K48" s="326"/>
+      <c r="K48" s="284"/>
       <c r="L48" s="56"/>
     </row>
     <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7401,246 +7645,246 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="307" t="s">
+      <c r="A66" s="315" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="307"/>
-      <c r="C66" s="307"/>
-      <c r="D66" s="307"/>
-      <c r="E66" s="307"/>
-      <c r="F66" s="307"/>
-      <c r="G66" s="307"/>
-      <c r="H66" s="307"/>
-      <c r="I66" s="307"/>
-      <c r="J66" s="307"/>
+      <c r="B66" s="315"/>
+      <c r="C66" s="315"/>
+      <c r="D66" s="315"/>
+      <c r="E66" s="315"/>
+      <c r="F66" s="315"/>
+      <c r="G66" s="315"/>
+      <c r="H66" s="315"/>
+      <c r="I66" s="315"/>
+      <c r="J66" s="315"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="307"/>
-      <c r="B67" s="307"/>
-      <c r="C67" s="307"/>
-      <c r="D67" s="307"/>
-      <c r="E67" s="307"/>
-      <c r="F67" s="307"/>
-      <c r="G67" s="307"/>
-      <c r="H67" s="307"/>
-      <c r="I67" s="307"/>
-      <c r="J67" s="307"/>
+      <c r="A67" s="315"/>
+      <c r="B67" s="315"/>
+      <c r="C67" s="315"/>
+      <c r="D67" s="315"/>
+      <c r="E67" s="315"/>
+      <c r="F67" s="315"/>
+      <c r="G67" s="315"/>
+      <c r="H67" s="315"/>
+      <c r="I67" s="315"/>
+      <c r="J67" s="315"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="307"/>
-      <c r="B68" s="307"/>
-      <c r="C68" s="307"/>
-      <c r="D68" s="307"/>
-      <c r="E68" s="307"/>
-      <c r="F68" s="307"/>
-      <c r="G68" s="307"/>
-      <c r="H68" s="307"/>
-      <c r="I68" s="307"/>
-      <c r="J68" s="307"/>
+      <c r="A68" s="315"/>
+      <c r="B68" s="315"/>
+      <c r="C68" s="315"/>
+      <c r="D68" s="315"/>
+      <c r="E68" s="315"/>
+      <c r="F68" s="315"/>
+      <c r="G68" s="315"/>
+      <c r="H68" s="315"/>
+      <c r="I68" s="315"/>
+      <c r="J68" s="315"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="307"/>
-      <c r="B69" s="307"/>
-      <c r="C69" s="307"/>
-      <c r="D69" s="307"/>
-      <c r="E69" s="307"/>
-      <c r="F69" s="307"/>
-      <c r="G69" s="307"/>
-      <c r="H69" s="307"/>
-      <c r="I69" s="307"/>
-      <c r="J69" s="307"/>
+      <c r="A69" s="315"/>
+      <c r="B69" s="315"/>
+      <c r="C69" s="315"/>
+      <c r="D69" s="315"/>
+      <c r="E69" s="315"/>
+      <c r="F69" s="315"/>
+      <c r="G69" s="315"/>
+      <c r="H69" s="315"/>
+      <c r="I69" s="315"/>
+      <c r="J69" s="315"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="307"/>
-      <c r="B70" s="307"/>
-      <c r="C70" s="307"/>
-      <c r="D70" s="307"/>
-      <c r="E70" s="307"/>
-      <c r="F70" s="307"/>
-      <c r="G70" s="307"/>
-      <c r="H70" s="307"/>
-      <c r="I70" s="307"/>
-      <c r="J70" s="307"/>
+      <c r="A70" s="315"/>
+      <c r="B70" s="315"/>
+      <c r="C70" s="315"/>
+      <c r="D70" s="315"/>
+      <c r="E70" s="315"/>
+      <c r="F70" s="315"/>
+      <c r="G70" s="315"/>
+      <c r="H70" s="315"/>
+      <c r="I70" s="315"/>
+      <c r="J70" s="315"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="307"/>
-      <c r="B71" s="307"/>
-      <c r="C71" s="307"/>
-      <c r="D71" s="307"/>
-      <c r="E71" s="307"/>
-      <c r="F71" s="307"/>
-      <c r="G71" s="307"/>
-      <c r="H71" s="307"/>
-      <c r="I71" s="307"/>
-      <c r="J71" s="307"/>
+      <c r="A71" s="315"/>
+      <c r="B71" s="315"/>
+      <c r="C71" s="315"/>
+      <c r="D71" s="315"/>
+      <c r="E71" s="315"/>
+      <c r="F71" s="315"/>
+      <c r="G71" s="315"/>
+      <c r="H71" s="315"/>
+      <c r="I71" s="315"/>
+      <c r="J71" s="315"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="307"/>
-      <c r="B72" s="307"/>
-      <c r="C72" s="307"/>
-      <c r="D72" s="307"/>
-      <c r="E72" s="307"/>
-      <c r="F72" s="307"/>
-      <c r="G72" s="307"/>
-      <c r="H72" s="307"/>
-      <c r="I72" s="307"/>
-      <c r="J72" s="307"/>
+      <c r="A72" s="315"/>
+      <c r="B72" s="315"/>
+      <c r="C72" s="315"/>
+      <c r="D72" s="315"/>
+      <c r="E72" s="315"/>
+      <c r="F72" s="315"/>
+      <c r="G72" s="315"/>
+      <c r="H72" s="315"/>
+      <c r="I72" s="315"/>
+      <c r="J72" s="315"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="307"/>
-      <c r="B73" s="307"/>
-      <c r="C73" s="307"/>
-      <c r="D73" s="307"/>
-      <c r="E73" s="307"/>
-      <c r="F73" s="307"/>
-      <c r="G73" s="307"/>
-      <c r="H73" s="307"/>
-      <c r="I73" s="307"/>
-      <c r="J73" s="307"/>
+      <c r="A73" s="315"/>
+      <c r="B73" s="315"/>
+      <c r="C73" s="315"/>
+      <c r="D73" s="315"/>
+      <c r="E73" s="315"/>
+      <c r="F73" s="315"/>
+      <c r="G73" s="315"/>
+      <c r="H73" s="315"/>
+      <c r="I73" s="315"/>
+      <c r="J73" s="315"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="307"/>
-      <c r="B74" s="307"/>
-      <c r="C74" s="307"/>
-      <c r="D74" s="307"/>
-      <c r="E74" s="307"/>
-      <c r="F74" s="307"/>
-      <c r="G74" s="307"/>
-      <c r="H74" s="307"/>
-      <c r="I74" s="307"/>
-      <c r="J74" s="307"/>
+      <c r="A74" s="315"/>
+      <c r="B74" s="315"/>
+      <c r="C74" s="315"/>
+      <c r="D74" s="315"/>
+      <c r="E74" s="315"/>
+      <c r="F74" s="315"/>
+      <c r="G74" s="315"/>
+      <c r="H74" s="315"/>
+      <c r="I74" s="315"/>
+      <c r="J74" s="315"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="307"/>
-      <c r="B75" s="307"/>
-      <c r="C75" s="307"/>
-      <c r="D75" s="307"/>
-      <c r="E75" s="307"/>
-      <c r="F75" s="307"/>
-      <c r="G75" s="307"/>
-      <c r="H75" s="307"/>
-      <c r="I75" s="307"/>
-      <c r="J75" s="307"/>
+      <c r="A75" s="315"/>
+      <c r="B75" s="315"/>
+      <c r="C75" s="315"/>
+      <c r="D75" s="315"/>
+      <c r="E75" s="315"/>
+      <c r="F75" s="315"/>
+      <c r="G75" s="315"/>
+      <c r="H75" s="315"/>
+      <c r="I75" s="315"/>
+      <c r="J75" s="315"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="307"/>
-      <c r="B76" s="307"/>
-      <c r="C76" s="307"/>
-      <c r="D76" s="307"/>
-      <c r="E76" s="307"/>
-      <c r="F76" s="307"/>
-      <c r="G76" s="307"/>
-      <c r="H76" s="307"/>
-      <c r="I76" s="307"/>
-      <c r="J76" s="307"/>
+      <c r="A76" s="315"/>
+      <c r="B76" s="315"/>
+      <c r="C76" s="315"/>
+      <c r="D76" s="315"/>
+      <c r="E76" s="315"/>
+      <c r="F76" s="315"/>
+      <c r="G76" s="315"/>
+      <c r="H76" s="315"/>
+      <c r="I76" s="315"/>
+      <c r="J76" s="315"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="307"/>
-      <c r="B77" s="307"/>
-      <c r="C77" s="307"/>
-      <c r="D77" s="307"/>
-      <c r="E77" s="307"/>
-      <c r="F77" s="307"/>
-      <c r="G77" s="307"/>
-      <c r="H77" s="307"/>
-      <c r="I77" s="307"/>
-      <c r="J77" s="307"/>
+      <c r="A77" s="315"/>
+      <c r="B77" s="315"/>
+      <c r="C77" s="315"/>
+      <c r="D77" s="315"/>
+      <c r="E77" s="315"/>
+      <c r="F77" s="315"/>
+      <c r="G77" s="315"/>
+      <c r="H77" s="315"/>
+      <c r="I77" s="315"/>
+      <c r="J77" s="315"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="307"/>
-      <c r="B78" s="307"/>
-      <c r="C78" s="307"/>
-      <c r="D78" s="307"/>
-      <c r="E78" s="307"/>
-      <c r="F78" s="307"/>
-      <c r="G78" s="307"/>
-      <c r="H78" s="307"/>
-      <c r="I78" s="307"/>
-      <c r="J78" s="307"/>
+      <c r="A78" s="315"/>
+      <c r="B78" s="315"/>
+      <c r="C78" s="315"/>
+      <c r="D78" s="315"/>
+      <c r="E78" s="315"/>
+      <c r="F78" s="315"/>
+      <c r="G78" s="315"/>
+      <c r="H78" s="315"/>
+      <c r="I78" s="315"/>
+      <c r="J78" s="315"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="307"/>
-      <c r="B79" s="307"/>
-      <c r="C79" s="307"/>
-      <c r="D79" s="307"/>
-      <c r="E79" s="307"/>
-      <c r="F79" s="307"/>
-      <c r="G79" s="307"/>
-      <c r="H79" s="307"/>
-      <c r="I79" s="307"/>
-      <c r="J79" s="307"/>
+      <c r="A79" s="315"/>
+      <c r="B79" s="315"/>
+      <c r="C79" s="315"/>
+      <c r="D79" s="315"/>
+      <c r="E79" s="315"/>
+      <c r="F79" s="315"/>
+      <c r="G79" s="315"/>
+      <c r="H79" s="315"/>
+      <c r="I79" s="315"/>
+      <c r="J79" s="315"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="307"/>
-      <c r="B80" s="307"/>
-      <c r="C80" s="307"/>
-      <c r="D80" s="307"/>
-      <c r="E80" s="307"/>
-      <c r="F80" s="307"/>
-      <c r="G80" s="307"/>
-      <c r="H80" s="307"/>
-      <c r="I80" s="307"/>
-      <c r="J80" s="307"/>
+      <c r="A80" s="315"/>
+      <c r="B80" s="315"/>
+      <c r="C80" s="315"/>
+      <c r="D80" s="315"/>
+      <c r="E80" s="315"/>
+      <c r="F80" s="315"/>
+      <c r="G80" s="315"/>
+      <c r="H80" s="315"/>
+      <c r="I80" s="315"/>
+      <c r="J80" s="315"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="307"/>
-      <c r="B81" s="307"/>
-      <c r="C81" s="307"/>
-      <c r="D81" s="307"/>
-      <c r="E81" s="307"/>
-      <c r="F81" s="307"/>
-      <c r="G81" s="307"/>
-      <c r="H81" s="307"/>
-      <c r="I81" s="307"/>
-      <c r="J81" s="307"/>
+      <c r="A81" s="315"/>
+      <c r="B81" s="315"/>
+      <c r="C81" s="315"/>
+      <c r="D81" s="315"/>
+      <c r="E81" s="315"/>
+      <c r="F81" s="315"/>
+      <c r="G81" s="315"/>
+      <c r="H81" s="315"/>
+      <c r="I81" s="315"/>
+      <c r="J81" s="315"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="307"/>
-      <c r="B82" s="307"/>
-      <c r="C82" s="307"/>
-      <c r="D82" s="307"/>
-      <c r="E82" s="307"/>
-      <c r="F82" s="307"/>
-      <c r="G82" s="307"/>
-      <c r="H82" s="307"/>
-      <c r="I82" s="307"/>
-      <c r="J82" s="307"/>
+      <c r="A82" s="315"/>
+      <c r="B82" s="315"/>
+      <c r="C82" s="315"/>
+      <c r="D82" s="315"/>
+      <c r="E82" s="315"/>
+      <c r="F82" s="315"/>
+      <c r="G82" s="315"/>
+      <c r="H82" s="315"/>
+      <c r="I82" s="315"/>
+      <c r="J82" s="315"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="307"/>
-      <c r="B83" s="307"/>
-      <c r="C83" s="307"/>
-      <c r="D83" s="307"/>
-      <c r="E83" s="307"/>
-      <c r="F83" s="307"/>
-      <c r="G83" s="307"/>
-      <c r="H83" s="307"/>
-      <c r="I83" s="307"/>
-      <c r="J83" s="307"/>
+      <c r="A83" s="315"/>
+      <c r="B83" s="315"/>
+      <c r="C83" s="315"/>
+      <c r="D83" s="315"/>
+      <c r="E83" s="315"/>
+      <c r="F83" s="315"/>
+      <c r="G83" s="315"/>
+      <c r="H83" s="315"/>
+      <c r="I83" s="315"/>
+      <c r="J83" s="315"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="307"/>
-      <c r="B84" s="307"/>
-      <c r="C84" s="307"/>
-      <c r="D84" s="307"/>
-      <c r="E84" s="307"/>
-      <c r="F84" s="307"/>
-      <c r="G84" s="307"/>
-      <c r="H84" s="307"/>
-      <c r="I84" s="307"/>
-      <c r="J84" s="307"/>
+      <c r="A84" s="315"/>
+      <c r="B84" s="315"/>
+      <c r="C84" s="315"/>
+      <c r="D84" s="315"/>
+      <c r="E84" s="315"/>
+      <c r="F84" s="315"/>
+      <c r="G84" s="315"/>
+      <c r="H84" s="315"/>
+      <c r="I84" s="315"/>
+      <c r="J84" s="315"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="307"/>
-      <c r="B85" s="307"/>
-      <c r="C85" s="307"/>
-      <c r="D85" s="307"/>
-      <c r="E85" s="307"/>
-      <c r="F85" s="307"/>
-      <c r="G85" s="307"/>
-      <c r="H85" s="307"/>
-      <c r="I85" s="307"/>
-      <c r="J85" s="307"/>
+      <c r="A85" s="315"/>
+      <c r="B85" s="315"/>
+      <c r="C85" s="315"/>
+      <c r="D85" s="315"/>
+      <c r="E85" s="315"/>
+      <c r="F85" s="315"/>
+      <c r="G85" s="315"/>
+      <c r="H85" s="315"/>
+      <c r="I85" s="315"/>
+      <c r="J85" s="315"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I64">
@@ -7665,7 +7909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -8794,10 +9038,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8809,15 +9053,15 @@
     <col min="5" max="5" width="17.44140625" style="70" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="70" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" style="70" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="70" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" style="70" customWidth="1"/>
     <col min="12" max="12" width="13" style="70" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="70" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" style="70" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" style="70" customWidth="1"/>
     <col min="15" max="15" width="9.44140625" style="70" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" style="70" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="70" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.44140625" style="70" customWidth="1"/>
     <col min="18" max="18" width="100.109375" style="70" customWidth="1"/>
     <col min="19" max="19" width="19.33203125" style="70" customWidth="1"/>
@@ -8829,15 +9073,15 @@
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="316" t="s">
+      <c r="F1" s="326" t="s">
         <v>449</v>
       </c>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="318"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="328"/>
       <c r="Q1" s="139" t="s">
         <v>442</v>
       </c>
@@ -8921,7 +9165,7 @@
       <c r="J3" s="98"/>
       <c r="K3" s="98"/>
       <c r="L3" s="99"/>
-      <c r="Q3" s="313" t="s">
+      <c r="Q3" s="321" t="s">
         <v>439</v>
       </c>
       <c r="R3" s="134" t="s">
@@ -8970,7 +9214,7 @@
         <f>H4-G4*I4*0.001</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="Q4" s="313"/>
+      <c r="Q4" s="321"/>
       <c r="R4" s="134" t="s">
         <v>437</v>
       </c>
@@ -9017,7 +9261,7 @@
         <f t="shared" ref="M5:M10" si="0">H5-G5*I5*0.001</f>
         <v>9.0007999999999981</v>
       </c>
-      <c r="Q5" s="313"/>
+      <c r="Q5" s="321"/>
       <c r="R5" s="134" t="s">
         <v>65</v>
       </c>
@@ -9048,7 +9292,7 @@
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
       <c r="L6" s="83"/>
-      <c r="Q6" s="313"/>
+      <c r="Q6" s="321"/>
       <c r="R6" s="134" t="s">
         <v>66</v>
       </c>
@@ -9095,7 +9339,7 @@
         <f t="shared" si="0"/>
         <v>8.5922999999999945</v>
       </c>
-      <c r="Q7" s="313"/>
+      <c r="Q7" s="321"/>
       <c r="R7" s="135" t="s">
         <v>436</v>
       </c>
@@ -9126,7 +9370,7 @@
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
       <c r="L8" s="83"/>
-      <c r="Q8" s="314" t="s">
+      <c r="Q8" s="322" t="s">
         <v>435</v>
       </c>
       <c r="R8" s="136" t="s">
@@ -9175,7 +9419,7 @@
         <f t="shared" si="0"/>
         <v>9.4707000000000008</v>
       </c>
-      <c r="Q9" s="314"/>
+      <c r="Q9" s="322"/>
       <c r="R9" s="136" t="s">
         <v>446</v>
       </c>
@@ -9222,7 +9466,7 @@
         <f t="shared" si="0"/>
         <v>5.0242000000000004</v>
       </c>
-      <c r="Q10" s="314"/>
+      <c r="Q10" s="322"/>
       <c r="R10" s="137" t="s">
         <v>433</v>
       </c>
@@ -9253,7 +9497,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
       <c r="L11" s="88"/>
-      <c r="Q11" s="314"/>
+      <c r="Q11" s="322"/>
       <c r="R11" s="135" t="s">
         <v>445</v>
       </c>
@@ -9282,7 +9526,7 @@
       <c r="N12" s="79"/>
       <c r="O12" s="79"/>
       <c r="P12" s="79"/>
-      <c r="Q12" s="314"/>
+      <c r="Q12" s="322"/>
       <c r="R12" s="135" t="s">
         <v>432</v>
       </c>
@@ -9297,7 +9541,7 @@
       <c r="B13" t="s">
         <v>404</v>
       </c>
-      <c r="Q13" s="314" t="s">
+      <c r="Q13" s="322" t="s">
         <v>431</v>
       </c>
       <c r="R13" s="135" t="s">
@@ -9322,7 +9566,7 @@
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
       <c r="L14" s="79"/>
-      <c r="Q14" s="314"/>
+      <c r="Q14" s="322"/>
       <c r="R14" s="134" t="s">
         <v>429</v>
       </c>
@@ -9334,23 +9578,23 @@
       <c r="X14"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="230"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="259"/>
-      <c r="K15" s="259"/>
-      <c r="L15" s="259"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="230"/>
-      <c r="O15" s="230"/>
-      <c r="P15" s="229"/>
-      <c r="Q15" s="314"/>
+      <c r="A15" s="229"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="229"/>
+      <c r="O15" s="229"/>
+      <c r="P15" s="228"/>
+      <c r="Q15" s="322"/>
       <c r="R15" s="134" t="s">
         <v>428</v>
       </c>
@@ -9362,9 +9606,9 @@
       <c r="X15"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="230"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
+      <c r="A16" s="229"/>
+      <c r="B16" s="229"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="207" t="s">
         <v>443</v>
       </c>
@@ -9386,11 +9630,11 @@
       <c r="J16" s="210" t="s">
         <v>491</v>
       </c>
-      <c r="K16" s="311" t="s">
+      <c r="K16" s="319" t="s">
         <v>397</v>
       </c>
-      <c r="L16" s="312"/>
-      <c r="M16" s="227" t="s">
+      <c r="L16" s="320"/>
+      <c r="M16" s="226" t="s">
         <v>494</v>
       </c>
       <c r="N16" s="324" t="s">
@@ -9399,8 +9643,8 @@
       <c r="O16" s="324" t="s">
         <v>461</v>
       </c>
-      <c r="P16" s="229"/>
-      <c r="Q16" s="314" t="s">
+      <c r="P16" s="228"/>
+      <c r="Q16" s="322" t="s">
         <v>427</v>
       </c>
       <c r="R16" s="135" t="s">
@@ -9414,45 +9658,45 @@
       <c r="X16"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="230"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="215" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="214" t="s">
         <v>391</v>
       </c>
-      <c r="D17" s="234">
+      <c r="D17" s="233">
         <v>3.58</v>
       </c>
-      <c r="E17" s="235">
+      <c r="E17" s="234">
         <v>2.91</v>
       </c>
-      <c r="F17" s="236">
+      <c r="F17" s="235">
         <v>2.23</v>
       </c>
-      <c r="G17" s="236">
+      <c r="G17" s="235">
         <v>1.85</v>
       </c>
-      <c r="H17" s="236">
+      <c r="H17" s="235">
         <v>3.14</v>
       </c>
-      <c r="I17" s="236">
+      <c r="I17" s="235">
         <v>2.35</v>
       </c>
-      <c r="J17" s="237">
+      <c r="J17" s="236">
         <v>0.31</v>
       </c>
-      <c r="K17" s="309" t="s">
+      <c r="K17" s="317" t="s">
         <v>492</v>
       </c>
-      <c r="L17" s="319" t="s">
+      <c r="L17" s="329" t="s">
         <v>410</v>
       </c>
-      <c r="M17" s="323" t="s">
+      <c r="M17" s="333" t="s">
         <v>493</v>
       </c>
       <c r="N17" s="325"/>
       <c r="O17" s="325"/>
-      <c r="P17" s="229"/>
-      <c r="Q17" s="314"/>
+      <c r="P17" s="228"/>
+      <c r="Q17" s="322"/>
       <c r="R17" s="135" t="s">
         <v>425</v>
       </c>
@@ -9464,43 +9708,43 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="230"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="216" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="215" t="s">
         <v>459</v>
       </c>
-      <c r="D18" s="238">
+      <c r="D18" s="237">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E18" s="239">
+      <c r="E18" s="238">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F18" s="239">
+      <c r="F18" s="238">
         <v>1.3919999999999999</v>
       </c>
-      <c r="G18" s="239">
+      <c r="G18" s="238">
         <v>1.3919999999999999</v>
       </c>
-      <c r="H18" s="239">
+      <c r="H18" s="238">
         <v>2.0659999999999998</v>
       </c>
-      <c r="I18" s="239">
+      <c r="I18" s="238">
         <v>0.7</v>
       </c>
-      <c r="J18" s="240">
+      <c r="J18" s="239">
         <v>0.5</v>
       </c>
-      <c r="K18" s="310"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="310"/>
-      <c r="N18" s="226">
+      <c r="K18" s="318"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="318"/>
+      <c r="N18" s="225">
         <v>53</v>
       </c>
       <c r="O18" s="146">
         <v>30</v>
       </c>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="314"/>
+      <c r="P18" s="228"/>
+      <c r="Q18" s="322"/>
       <c r="R18" s="135" t="s">
         <v>424</v>
       </c>
@@ -9512,29 +9756,29 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="230"/>
-      <c r="B19" s="255" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="217" t="s">
+      <c r="C19" s="216" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="321" t="s">
+      <c r="D19" s="331" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="322"/>
-      <c r="F19" s="322"/>
-      <c r="G19" s="322"/>
-      <c r="H19" s="322"/>
-      <c r="I19" s="322"/>
-      <c r="J19" s="322"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="229"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="229"/>
-      <c r="Q19" s="314"/>
+      <c r="E19" s="332"/>
+      <c r="F19" s="332"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="332"/>
+      <c r="I19" s="332"/>
+      <c r="J19" s="332"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="322"/>
       <c r="R19" s="135" t="s">
         <v>423</v>
       </c>
@@ -9546,49 +9790,49 @@
       <c r="X19"/>
     </row>
     <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="230"/>
-      <c r="B20" s="256" t="s">
+      <c r="A20" s="229"/>
+      <c r="B20" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="251">
+      <c r="C20" s="250">
         <v>250</v>
       </c>
-      <c r="D20" s="241">
+      <c r="D20" s="240">
         <v>35</v>
       </c>
-      <c r="E20" s="242"/>
-      <c r="F20" s="243">
+      <c r="E20" s="241"/>
+      <c r="F20" s="242">
         <v>30</v>
       </c>
-      <c r="G20" s="243">
+      <c r="G20" s="242">
         <v>30</v>
       </c>
-      <c r="H20" s="242"/>
-      <c r="I20" s="243">
+      <c r="H20" s="241"/>
+      <c r="I20" s="242">
         <v>1</v>
       </c>
-      <c r="J20" s="218">
+      <c r="J20" s="217">
         <v>5</v>
       </c>
-      <c r="K20" s="218">
+      <c r="K20" s="217">
         <f>SUMPRODUCT($D$17:$J$17,D20:J20)/100</f>
         <v>2.516</v>
       </c>
-      <c r="L20" s="220">
+      <c r="L20" s="219">
         <v>2.02</v>
       </c>
-      <c r="M20" s="223">
-        <f t="shared" ref="M20:M25" si="1">SUMPRODUCT($D$18:$J$18,D20:J20)/100*0.001</f>
-        <v>1.1808000000000001E-3</v>
-      </c>
-      <c r="N20" s="219" t="s">
+      <c r="M20" s="222">
+        <f>SUMPRODUCT($D$18:$J$18,D20:J20)/100*0.0017</f>
+        <v>2.0073600000000001E-3</v>
+      </c>
+      <c r="N20" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="219" t="s">
+      <c r="O20" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="229"/>
-      <c r="Q20" s="314"/>
+      <c r="P20" s="228"/>
+      <c r="Q20" s="322"/>
       <c r="R20" s="135" t="s">
         <v>422</v>
       </c>
@@ -9600,36 +9844,36 @@
       <c r="X20"/>
     </row>
     <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="230"/>
-      <c r="B21" s="257" t="s">
+      <c r="A21" s="229"/>
+      <c r="B21" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="252">
+      <c r="C21" s="251">
         <f>460-C20</f>
         <v>210</v>
       </c>
-      <c r="D21" s="244"/>
-      <c r="E21" s="245">
+      <c r="D21" s="243"/>
+      <c r="E21" s="244">
         <v>90</v>
       </c>
-      <c r="F21" s="245">
+      <c r="F21" s="244">
         <v>5</v>
       </c>
-      <c r="G21" s="245">
+      <c r="G21" s="244">
         <v>5</v>
       </c>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246"/>
+      <c r="H21" s="245"/>
+      <c r="I21" s="245"/>
       <c r="J21" s="143"/>
       <c r="K21" s="141">
         <f>SUMPRODUCT($D$17:$J$17,D21:J21)/100</f>
         <v>2.823</v>
       </c>
-      <c r="L21" s="221">
+      <c r="L21" s="220">
         <v>2.91</v>
       </c>
-      <c r="M21" s="224">
-        <f t="shared" si="1"/>
+      <c r="M21" s="223">
+        <f t="shared" ref="M21:M25" si="1">SUMPRODUCT($D$18:$J$18,D21:J21)/100*0.001</f>
         <v>9.4559999999999989E-4</v>
       </c>
       <c r="N21" s="147" t="s">
@@ -9638,8 +9882,8 @@
       <c r="O21" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="229"/>
-      <c r="Q21" s="314"/>
+      <c r="P21" s="228"/>
+      <c r="Q21" s="322"/>
       <c r="R21" s="135" t="s">
         <v>421</v>
       </c>
@@ -9651,28 +9895,28 @@
       <c r="X21"/>
     </row>
     <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="230"/>
-      <c r="B22" s="257" t="s">
+      <c r="A22" s="229"/>
+      <c r="B22" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="252">
+      <c r="C22" s="251">
         <f>625-(C21+C20)</f>
         <v>165</v>
       </c>
-      <c r="D22" s="247">
+      <c r="D22" s="246">
         <v>39</v>
       </c>
-      <c r="E22" s="246"/>
-      <c r="F22" s="245">
+      <c r="E22" s="245"/>
+      <c r="F22" s="244">
         <v>20</v>
       </c>
-      <c r="G22" s="245">
+      <c r="G22" s="244">
         <v>20</v>
       </c>
-      <c r="H22" s="245">
+      <c r="H22" s="244">
         <v>20</v>
       </c>
-      <c r="I22" s="246"/>
+      <c r="I22" s="245"/>
       <c r="J22" s="142">
         <v>1</v>
       </c>
@@ -9680,10 +9924,10 @@
         <f t="shared" ref="K22:K25" si="2">SUMPRODUCT($D$17:$J$17,D22:J22)/100</f>
         <v>2.8432999999999997</v>
       </c>
-      <c r="L22" s="221">
+      <c r="L22" s="220">
         <v>2.25</v>
       </c>
-      <c r="M22" s="224">
+      <c r="M22" s="223">
         <f t="shared" si="1"/>
         <v>1.3244399999999999E-3</v>
       </c>
@@ -9693,8 +9937,8 @@
       <c r="O22" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="229"/>
-      <c r="Q22" s="314"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="322"/>
       <c r="R22" s="135" t="s">
         <v>420</v>
       </c>
@@ -9706,28 +9950,28 @@
       <c r="X22"/>
     </row>
     <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="230"/>
-      <c r="B23" s="257" t="s">
+      <c r="A23" s="229"/>
+      <c r="B23" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="252">
+      <c r="C23" s="251">
         <f>800-(C22+C21+C20)</f>
         <v>175</v>
       </c>
-      <c r="D23" s="247">
+      <c r="D23" s="246">
         <v>35</v>
       </c>
-      <c r="E23" s="246"/>
-      <c r="F23" s="245">
+      <c r="E23" s="245"/>
+      <c r="F23" s="244">
         <v>20</v>
       </c>
-      <c r="G23" s="245">
+      <c r="G23" s="244">
         <v>20</v>
       </c>
-      <c r="H23" s="245">
+      <c r="H23" s="244">
         <v>20</v>
       </c>
-      <c r="I23" s="246"/>
+      <c r="I23" s="245"/>
       <c r="J23" s="142">
         <v>5</v>
       </c>
@@ -9735,10 +9979,10 @@
         <f t="shared" si="2"/>
         <v>2.7124999999999999</v>
       </c>
-      <c r="L23" s="221">
+      <c r="L23" s="220">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M23" s="224">
+      <c r="M23" s="223">
         <f t="shared" si="1"/>
         <v>1.3085999999999998E-3</v>
       </c>
@@ -9748,8 +9992,8 @@
       <c r="O23" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="229"/>
-      <c r="Q23" s="314"/>
+      <c r="P23" s="228"/>
+      <c r="Q23" s="322"/>
       <c r="R23" s="135" t="s">
         <v>419</v>
       </c>
@@ -9761,28 +10005,28 @@
       <c r="X23"/>
     </row>
     <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="230"/>
-      <c r="B24" s="257" t="s">
+      <c r="A24" s="229"/>
+      <c r="B24" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="252">
+      <c r="C24" s="251">
         <f>885-(C23+C22+C21+C20)</f>
         <v>85</v>
       </c>
-      <c r="D24" s="247">
+      <c r="D24" s="246">
         <v>39</v>
       </c>
-      <c r="E24" s="246"/>
-      <c r="F24" s="245">
+      <c r="E24" s="245"/>
+      <c r="F24" s="244">
         <v>20</v>
       </c>
-      <c r="G24" s="245">
+      <c r="G24" s="244">
         <v>20</v>
       </c>
-      <c r="H24" s="245">
+      <c r="H24" s="244">
         <v>20</v>
       </c>
-      <c r="I24" s="246"/>
+      <c r="I24" s="245"/>
       <c r="J24" s="142">
         <v>1</v>
       </c>
@@ -9790,10 +10034,10 @@
         <f t="shared" si="2"/>
         <v>2.8432999999999997</v>
       </c>
-      <c r="L24" s="221">
+      <c r="L24" s="220">
         <v>1.88</v>
       </c>
-      <c r="M24" s="224">
+      <c r="M24" s="223">
         <f t="shared" si="1"/>
         <v>1.3244399999999999E-3</v>
       </c>
@@ -9803,8 +10047,8 @@
       <c r="O24" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="229"/>
-      <c r="Q24" s="314"/>
+      <c r="P24" s="228"/>
+      <c r="Q24" s="322"/>
       <c r="R24" s="135" t="s">
         <v>418</v>
       </c>
@@ -9816,36 +10060,36 @@
       <c r="X24"/>
     </row>
     <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="230"/>
-      <c r="B25" s="257" t="s">
+      <c r="A25" s="229"/>
+      <c r="B25" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="252">
+      <c r="C25" s="251">
         <v>492</v>
       </c>
-      <c r="D25" s="247">
+      <c r="D25" s="246">
         <v>30</v>
       </c>
-      <c r="E25" s="246"/>
-      <c r="F25" s="245">
+      <c r="E25" s="245"/>
+      <c r="F25" s="244">
         <v>25</v>
       </c>
-      <c r="G25" s="245">
+      <c r="G25" s="244">
         <v>25</v>
       </c>
-      <c r="H25" s="245">
+      <c r="H25" s="244">
         <v>20</v>
       </c>
-      <c r="I25" s="246"/>
+      <c r="I25" s="245"/>
       <c r="J25" s="143"/>
       <c r="K25" s="141">
         <f t="shared" si="2"/>
         <v>2.722</v>
       </c>
-      <c r="L25" s="221" t="s">
+      <c r="L25" s="220" t="s">
         <v>453</v>
       </c>
-      <c r="M25" s="224">
+      <c r="M25" s="223">
         <f t="shared" si="1"/>
         <v>1.3779999999999999E-3</v>
       </c>
@@ -9855,8 +10099,8 @@
       <c r="O25" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="229"/>
-      <c r="Q25" s="314"/>
+      <c r="P25" s="228"/>
+      <c r="Q25" s="322"/>
       <c r="R25" s="135" t="s">
         <v>417</v>
       </c>
@@ -9868,25 +10112,25 @@
       <c r="X25"/>
     </row>
     <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="230"/>
-      <c r="B26" s="257" t="s">
+      <c r="A26" s="229"/>
+      <c r="B26" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="253" t="s">
+      <c r="C26" s="252" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="248"/>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="245"/>
       <c r="J26" s="143"/>
       <c r="K26" s="143"/>
-      <c r="L26" s="221" t="s">
+      <c r="L26" s="220" t="s">
         <v>455</v>
       </c>
-      <c r="M26" s="225">
+      <c r="M26" s="224">
         <v>1.4E-3</v>
       </c>
       <c r="N26" s="147" t="s">
@@ -9895,8 +10139,8 @@
       <c r="O26" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="P26" s="229"/>
-      <c r="Q26" s="314"/>
+      <c r="P26" s="228"/>
+      <c r="Q26" s="322"/>
       <c r="R26" s="135" t="s">
         <v>416</v>
       </c>
@@ -9908,23 +10152,23 @@
       <c r="X26"/>
     </row>
     <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="230"/>
-      <c r="B27" s="258" t="s">
+      <c r="A27" s="229"/>
+      <c r="B27" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="254">
+      <c r="C27" s="253">
         <f>1030-960</f>
         <v>70</v>
       </c>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
       <c r="J27" s="144"/>
       <c r="K27" s="144"/>
-      <c r="L27" s="222">
+      <c r="L27" s="221">
         <v>2.2000000000000002</v>
       </c>
       <c r="M27" s="145" t="s">
@@ -9936,8 +10180,8 @@
       <c r="O27" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="229"/>
-      <c r="Q27" s="314"/>
+      <c r="P27" s="228"/>
+      <c r="Q27" s="322"/>
       <c r="R27" s="135" t="s">
         <v>415</v>
       </c>
@@ -9949,27 +10193,27 @@
       <c r="X27"/>
     </row>
     <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="230"/>
-      <c r="B28" s="228"/>
-      <c r="C28" s="229" t="s">
+      <c r="A28" s="229"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="228" t="s">
         <v>412</v>
       </c>
-      <c r="D28" s="230"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="230" t="s">
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="229"/>
+      <c r="L28" s="229" t="s">
         <v>454</v>
       </c>
-      <c r="M28" s="230"/>
-      <c r="N28" s="230"/>
-      <c r="O28" s="230"/>
-      <c r="P28" s="229"/>
-      <c r="Q28" s="314"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="229"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="322"/>
       <c r="R28" s="135" t="s">
         <v>414</v>
       </c>
@@ -9981,25 +10225,25 @@
       <c r="X28"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="230"/>
-      <c r="B29" s="228"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="230" t="s">
+      <c r="A29" s="229"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="229"/>
+      <c r="L29" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="M29" s="230"/>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="229"/>
-      <c r="Q29" s="315"/>
+      <c r="M29" s="229"/>
+      <c r="N29" s="229"/>
+      <c r="O29" s="229"/>
+      <c r="P29" s="228"/>
+      <c r="Q29" s="323"/>
       <c r="R29" s="138" t="s">
         <v>413</v>
       </c>
@@ -10011,7 +10255,7 @@
       <c r="X29"/>
     </row>
     <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="230"/>
+      <c r="A30" s="229"/>
       <c r="B30" s="107"/>
       <c r="P30" s="79"/>
       <c r="Q30" t="s">
@@ -10130,10 +10374,10 @@
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
       <c r="N36" s="79"/>
-      <c r="O36" s="214"/>
+      <c r="O36" s="213"/>
       <c r="Q36"/>
       <c r="R36"/>
-      <c r="S36" s="308"/>
+      <c r="S36" s="316"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
@@ -10146,10 +10390,10 @@
       <c r="D37" s="117"/>
       <c r="E37" s="79"/>
       <c r="N37" s="79"/>
-      <c r="O37" s="214"/>
+      <c r="O37" s="213"/>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37" s="308"/>
+      <c r="S37" s="316"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
@@ -10162,10 +10406,10 @@
       <c r="E38" s="79"/>
       <c r="M38" s="211"/>
       <c r="N38" s="79"/>
-      <c r="O38" s="214"/>
+      <c r="O38" s="213"/>
       <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38" s="308"/>
+      <c r="S38" s="316"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
@@ -10173,19 +10417,16 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="230"/>
-      <c r="B39" s="287" t="s">
+      <c r="A39" s="229"/>
+      <c r="B39" s="283" t="s">
         <v>498</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="260"/>
-      <c r="E39" s="229"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230"/>
-      <c r="M39" s="211"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="214"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="228"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="229"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -10196,27 +10437,48 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="230"/>
-      <c r="B40" s="261"/>
-      <c r="C40" s="262" t="s">
+      <c r="A40" s="229"/>
+      <c r="B40" s="260"/>
+      <c r="C40" s="261" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="263" t="s">
+      <c r="D40" s="262" t="s">
         <v>478</v>
       </c>
-      <c r="E40" s="263" t="s">
+      <c r="E40" s="262" t="s">
         <v>476</v>
       </c>
-      <c r="F40" s="263" t="s">
+      <c r="F40" s="262" t="s">
         <v>477</v>
       </c>
-      <c r="G40" s="264" t="s">
+      <c r="G40" s="263" t="s">
         <v>391</v>
       </c>
-      <c r="H40" s="230"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="214"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="70" t="s">
+        <v>513</v>
+      </c>
+      <c r="J40" s="70" t="s">
+        <v>514</v>
+      </c>
+      <c r="K40" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="L40" s="70" t="s">
+        <v>491</v>
+      </c>
+      <c r="M40" s="211" t="s">
+        <v>516</v>
+      </c>
+      <c r="N40" s="79" t="s">
+        <v>517</v>
+      </c>
+      <c r="O40" s="213" t="s">
+        <v>518</v>
+      </c>
+      <c r="P40" s="70" t="s">
+        <v>519</v>
+      </c>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -10227,32 +10489,24 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="230"/>
-      <c r="B41" s="265" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="268">
-        <v>125</v>
-      </c>
-      <c r="D41" s="269">
-        <f t="shared" ref="D41:D47" si="3">C41/SUM($C$41:$C$47)</f>
-        <v>0.125</v>
-      </c>
-      <c r="E41" s="270">
-        <f>0.0012</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="F41" s="269">
-        <f t="shared" ref="F41:F47" si="4">C41*E41</f>
-        <v>0.15</v>
-      </c>
-      <c r="G41" s="271">
-        <v>1.91</v>
-      </c>
-      <c r="H41" s="230"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="214"/>
+      <c r="A41" s="229"/>
+      <c r="B41" s="264" t="s">
+        <v>520</v>
+      </c>
+      <c r="C41" s="290"/>
+      <c r="D41" s="286"/>
+      <c r="E41" s="286"/>
+      <c r="F41" s="286"/>
+      <c r="G41" s="287"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="285"/>
+      <c r="J41" s="285"/>
+      <c r="K41" s="285"/>
+      <c r="L41" s="285"/>
+      <c r="M41" s="293"/>
+      <c r="N41" s="289"/>
+      <c r="O41" s="294"/>
+      <c r="P41" s="295"/>
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
@@ -10263,32 +10517,24 @@
       <c r="X41"/>
     </row>
     <row r="42" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="230"/>
-      <c r="B42" s="266" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="268">
-        <f>230-125</f>
-        <v>105</v>
-      </c>
-      <c r="D42" s="269">
-        <f t="shared" si="3"/>
-        <v>0.105</v>
-      </c>
-      <c r="E42" s="270">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="F42" s="269">
-        <f t="shared" si="4"/>
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="G42" s="271">
-        <v>2.91</v>
-      </c>
-      <c r="H42" s="230"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="214"/>
+      <c r="A42" s="229"/>
+      <c r="B42" s="265" t="s">
+        <v>522</v>
+      </c>
+      <c r="C42" s="290"/>
+      <c r="D42" s="286"/>
+      <c r="E42" s="286"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="229"/>
+      <c r="I42" s="285"/>
+      <c r="J42" s="285"/>
+      <c r="K42" s="285"/>
+      <c r="L42" s="285"/>
+      <c r="M42" s="288"/>
+      <c r="N42" s="289"/>
+      <c r="O42" s="294"/>
+      <c r="P42" s="295"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -10298,35 +10544,39 @@
       <c r="W42"/>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="230"/>
-      <c r="B43" s="266" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="268">
-        <f>315-230</f>
-        <v>85</v>
-      </c>
-      <c r="D43" s="269">
-        <f t="shared" si="3"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E43" s="270">
-        <v>1.2999999999999999E-3</v>
+    <row r="43" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="229"/>
+      <c r="B43" s="265" t="s">
+        <v>521</v>
+      </c>
+      <c r="C43" s="291">
+        <v>125</v>
+      </c>
+      <c r="D43" s="268">
+        <f t="shared" ref="D43:D49" si="3">C43/SUM($C$43:$C$49)</f>
+        <v>0.125</v>
+      </c>
+      <c r="E43" s="269">
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="F43" s="269">
-        <f t="shared" si="4"/>
-        <v>0.1105</v>
-      </c>
-      <c r="G43" s="271">
-        <v>2.25</v>
-      </c>
-      <c r="H43" s="230"/>
-      <c r="M43" s="214"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="214"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
+        <f>C43*E43</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G43" s="270">
+        <v>1.91</v>
+      </c>
+      <c r="H43" s="229"/>
+      <c r="I43" s="285"/>
+      <c r="J43" s="285"/>
+      <c r="K43" s="285"/>
+      <c r="L43" s="285"/>
+      <c r="M43" s="295"/>
+      <c r="N43" s="285"/>
+      <c r="O43" s="295"/>
+      <c r="P43" s="295"/>
+      <c r="Q43"/>
+      <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43"/>
@@ -10335,34 +10585,39 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="230"/>
-      <c r="B44" s="266" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="268">
-        <f>400-315</f>
-        <v>85</v>
-      </c>
-      <c r="D44" s="269">
+      <c r="A44" s="229"/>
+      <c r="B44" s="265" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="291">
+        <f>230-125</f>
+        <v>105</v>
+      </c>
+      <c r="D44" s="268">
         <f t="shared" si="3"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E44" s="270">
-        <v>1.2999999999999999E-3</v>
+        <v>0.105</v>
+      </c>
+      <c r="E44" s="269">
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="F44" s="269">
-        <f t="shared" si="4"/>
-        <v>0.1105</v>
-      </c>
-      <c r="G44" s="271">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H44" s="230"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
+        <f t="shared" ref="F44:F49" si="4">C44*E44</f>
+        <v>9.4499999999999993E-5</v>
+      </c>
+      <c r="G44" s="270">
+        <v>2.91</v>
+      </c>
+      <c r="H44" s="229"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="295"/>
+      <c r="K44" s="295"/>
+      <c r="L44" s="295"/>
+      <c r="M44" s="295"/>
+      <c r="N44" s="295"/>
+      <c r="O44" s="295"/>
+      <c r="P44" s="285"/>
+      <c r="Q44"/>
+      <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44"/>
@@ -10370,30 +10625,38 @@
       <c r="W44"/>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="230"/>
-      <c r="B45" s="266" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="268">
-        <f>445-400</f>
-        <v>45</v>
-      </c>
-      <c r="D45" s="269">
+    <row r="45" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="229"/>
+      <c r="B45" s="265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="291">
+        <f>315-230</f>
+        <v>85</v>
+      </c>
+      <c r="D45" s="268">
         <f t="shared" si="3"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E45" s="270">
-        <v>1.2999999999999999E-3</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E45" s="269">
+        <v>1.3E-6</v>
       </c>
       <c r="F45" s="269">
         <f t="shared" si="4"/>
-        <v>5.8499999999999996E-2</v>
-      </c>
-      <c r="G45" s="271">
-        <v>1.88</v>
-      </c>
-      <c r="H45" s="230"/>
+        <v>1.105E-4</v>
+      </c>
+      <c r="G45" s="270">
+        <v>2.25</v>
+      </c>
+      <c r="H45" s="229"/>
+      <c r="I45" s="285"/>
+      <c r="J45" s="285"/>
+      <c r="K45" s="285"/>
+      <c r="L45" s="285"/>
+      <c r="M45" s="285"/>
+      <c r="N45" s="285"/>
+      <c r="O45" s="285"/>
+      <c r="P45" s="295"/>
       <c r="Q45" s="54"/>
       <c r="R45" s="54"/>
       <c r="S45"/>
@@ -10404,29 +10667,37 @@
       <c r="X45"/>
     </row>
     <row r="46" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="230"/>
-      <c r="B46" s="266" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="268">
-        <f>700-445</f>
-        <v>255</v>
-      </c>
-      <c r="D46" s="269">
+      <c r="A46" s="229"/>
+      <c r="B46" s="265" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="291">
+        <f>400-315</f>
+        <v>85</v>
+      </c>
+      <c r="D46" s="268">
         <f t="shared" si="3"/>
-        <v>0.255</v>
-      </c>
-      <c r="E46" s="272">
-        <v>1.4E-3</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E46" s="269">
+        <v>1.3E-6</v>
       </c>
       <c r="F46" s="269">
         <f t="shared" si="4"/>
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G46" s="271">
-        <v>2.1</v>
-      </c>
-      <c r="H46" s="230"/>
+        <v>1.105E-4</v>
+      </c>
+      <c r="G46" s="270">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H46" s="229"/>
+      <c r="I46" s="285"/>
+      <c r="J46" s="285"/>
+      <c r="K46" s="285"/>
+      <c r="L46" s="285"/>
+      <c r="M46" s="285"/>
+      <c r="N46" s="285"/>
+      <c r="O46" s="295"/>
+      <c r="P46" s="295"/>
       <c r="Q46" s="54"/>
       <c r="R46" s="54"/>
       <c r="S46"/>
@@ -10436,30 +10707,38 @@
       <c r="W46"/>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="230"/>
-      <c r="B47" s="267" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="273">
-        <f>1000-700</f>
-        <v>300</v>
-      </c>
-      <c r="D47" s="274">
+    <row r="47" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="229"/>
+      <c r="B47" s="265" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="291">
+        <f>445-400</f>
+        <v>45</v>
+      </c>
+      <c r="D47" s="268">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="E47" s="275">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F47" s="274">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E47" s="269">
+        <v>1.3E-6</v>
+      </c>
+      <c r="F47" s="269">
         <f t="shared" si="4"/>
-        <v>0.42</v>
-      </c>
-      <c r="G47" s="276">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="H47" s="230"/>
+        <v>5.8499999999999999E-5</v>
+      </c>
+      <c r="G47" s="270">
+        <v>1.88</v>
+      </c>
+      <c r="H47" s="229"/>
+      <c r="I47" s="285"/>
+      <c r="J47" s="285"/>
+      <c r="K47" s="285"/>
+      <c r="L47" s="285"/>
+      <c r="M47" s="285"/>
+      <c r="N47" s="295"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="295"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
       <c r="S47"/>
@@ -10470,22 +10749,29 @@
       <c r="X47"/>
     </row>
     <row r="48" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="230"/>
-      <c r="B48" s="230"/>
-      <c r="C48" s="277">
-        <f>SUM(C41:C47)</f>
-        <v>1000</v>
-      </c>
-      <c r="D48" s="278"/>
-      <c r="E48" s="279" t="s">
-        <v>495</v>
-      </c>
-      <c r="F48" s="280">
-        <f>SUMPRODUCT(G41:G47,D41:D47)</f>
-        <v>2.8030500000000003</v>
-      </c>
-      <c r="G48" s="278"/>
-      <c r="H48" s="230"/>
+      <c r="A48" s="229"/>
+      <c r="B48" s="265" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="291">
+        <f>700-445</f>
+        <v>255</v>
+      </c>
+      <c r="D48" s="268">
+        <f t="shared" si="3"/>
+        <v>0.255</v>
+      </c>
+      <c r="E48" s="271">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="F48" s="269">
+        <f t="shared" si="4"/>
+        <v>3.57E-4</v>
+      </c>
+      <c r="G48" s="270">
+        <v>2.1</v>
+      </c>
+      <c r="H48" s="229"/>
       <c r="Q48" s="54"/>
       <c r="R48" s="54"/>
       <c r="S48"/>
@@ -10495,20 +10781,30 @@
       <c r="W48"/>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="230"/>
-      <c r="B49" s="230"/>
-      <c r="C49" s="277"/>
-      <c r="D49" s="278"/>
-      <c r="E49" s="279" t="s">
-        <v>496</v>
-      </c>
-      <c r="F49" s="280">
-        <f>0.031</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="G49" s="278"/>
-      <c r="H49" s="230"/>
+    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="229"/>
+      <c r="B49" s="266" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="292">
+        <f>1000-700</f>
+        <v>300</v>
+      </c>
+      <c r="D49" s="273">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="E49" s="271">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="F49" s="281">
+        <f t="shared" si="4"/>
+        <v>4.1999999999999996E-4</v>
+      </c>
+      <c r="G49" s="274">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H49" s="229"/>
       <c r="Q49" s="54"/>
       <c r="R49" s="54"/>
       <c r="S49"/>
@@ -10519,21 +10815,24 @@
       <c r="X49"/>
     </row>
     <row r="50" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="230"/>
-      <c r="B50" s="230"/>
-      <c r="C50" s="277"/>
-      <c r="D50" s="278"/>
-      <c r="E50" s="279" t="s">
-        <v>497</v>
-      </c>
-      <c r="F50" s="281">
-        <f>F48*F49</f>
-        <v>8.6894550000000001E-2</v>
-      </c>
-      <c r="G50" s="278"/>
-      <c r="H50" s="230"/>
-      <c r="Q50"/>
-      <c r="R50"/>
+      <c r="A50" s="229"/>
+      <c r="B50" s="229"/>
+      <c r="C50" s="275">
+        <f>SUM(C43:C49)</f>
+        <v>1000</v>
+      </c>
+      <c r="D50" s="276"/>
+      <c r="E50" s="277" t="s">
+        <v>495</v>
+      </c>
+      <c r="F50" s="278">
+        <f>SUMPRODUCT(G43:G49,D43:D49)</f>
+        <v>2.8030500000000003</v>
+      </c>
+      <c r="G50" s="276"/>
+      <c r="H50" s="229"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50"/>
@@ -10542,223 +10841,513 @@
       <c r="X50"/>
     </row>
     <row r="51" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="230"/>
-      <c r="B51" s="230"/>
-      <c r="C51" s="277"/>
-      <c r="D51" s="278"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="278"/>
-      <c r="G51" s="278"/>
-      <c r="H51" s="230"/>
-    </row>
-    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="230"/>
-      <c r="B52" s="230"/>
-      <c r="C52" s="277"/>
-      <c r="D52" s="278"/>
-      <c r="E52" s="278"/>
-      <c r="F52" s="278"/>
-      <c r="G52" s="278"/>
-      <c r="H52" s="230"/>
+      <c r="A51" s="229"/>
+      <c r="B51" s="229"/>
+      <c r="C51" s="275"/>
+      <c r="D51" s="276"/>
+      <c r="E51" s="277" t="s">
+        <v>496</v>
+      </c>
+      <c r="F51" s="278">
+        <f>0.031</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="G51" s="276"/>
+      <c r="H51" s="229"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+    </row>
+    <row r="52" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="229"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="275"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="277" t="s">
+        <v>497</v>
+      </c>
+      <c r="F52" s="279">
+        <f>F50*F51</f>
+        <v>8.6894550000000001E-2</v>
+      </c>
+      <c r="G52" s="276"/>
+      <c r="H52" s="229"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
     </row>
     <row r="53" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="230"/>
-      <c r="B53" s="287" t="s">
+      <c r="A53" s="229"/>
+      <c r="B53" s="229"/>
+      <c r="C53" s="275"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="276"/>
+      <c r="F53" s="276"/>
+      <c r="G53" s="276"/>
+      <c r="H53" s="229"/>
+      <c r="I53" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="J53" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="70" t="s">
+        <v>510</v>
+      </c>
+      <c r="L53" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="M53" s="70" t="s">
+        <v>511</v>
+      </c>
+      <c r="N53" s="70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="229"/>
+      <c r="B54" s="229"/>
+      <c r="C54" s="275"/>
+      <c r="D54" s="276"/>
+      <c r="E54" s="276"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="276"/>
+      <c r="H54" s="229"/>
+      <c r="I54" s="70" t="s">
+        <v>501</v>
+      </c>
+      <c r="J54" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="K54" s="70">
+        <v>1300</v>
+      </c>
+      <c r="L54" s="70">
+        <v>1350</v>
+      </c>
+      <c r="M54" s="70">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="N54" s="70">
+        <v>0.44</v>
+      </c>
+      <c r="O54" s="70">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="229"/>
+      <c r="B55" s="283" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="262" t="s">
+      <c r="C55" s="261" t="s">
         <v>390</v>
       </c>
-      <c r="D53" s="263" t="s">
+      <c r="D55" s="262" t="s">
         <v>478</v>
       </c>
-      <c r="E53" s="263" t="s">
+      <c r="E55" s="262" t="s">
         <v>476</v>
       </c>
-      <c r="F53" s="263" t="s">
+      <c r="F55" s="262" t="s">
         <v>477</v>
       </c>
-      <c r="G53" s="264" t="s">
+      <c r="G55" s="263" t="s">
         <v>391</v>
       </c>
-      <c r="H53" s="230"/>
-    </row>
-    <row r="54" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="230"/>
-      <c r="B54" s="230"/>
-      <c r="C54" s="268">
+      <c r="H55" s="336" t="s">
+        <v>528</v>
+      </c>
+      <c r="I55" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="J55" s="70">
+        <v>2.85</v>
+      </c>
+      <c r="K55" s="70">
+        <v>880</v>
+      </c>
+      <c r="L55" s="70">
+        <v>2760</v>
+      </c>
+      <c r="M55" s="70">
+        <v>1.173</v>
+      </c>
+      <c r="N55" s="70">
+        <v>0.49</v>
+      </c>
+      <c r="O55" s="70">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="229"/>
+      <c r="B56" s="229" t="s">
+        <v>523</v>
+      </c>
+      <c r="C56" s="267">
         <v>50</v>
       </c>
-      <c r="D54" s="269">
-        <f>C54/SUM($C$54:$C$58)</f>
+      <c r="D56" s="268">
+        <f>C56/SUM($C$56:$C$60)</f>
         <v>0.05</v>
       </c>
-      <c r="E54" s="270">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F54" s="282">
-        <f>C54*E54</f>
-        <v>0.05</v>
-      </c>
-      <c r="G54" s="283">
+      <c r="E56" s="269">
+        <v>8.9999999999999995E-9</v>
+      </c>
+      <c r="F56" s="269">
+        <f>C56*E56*70</f>
+        <v>3.15E-5</v>
+      </c>
+      <c r="G56" s="280">
         <v>1.2</v>
       </c>
-      <c r="H54" s="230"/>
-    </row>
-    <row r="55" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="230"/>
-      <c r="B55" s="230"/>
-      <c r="C55" s="268">
+      <c r="H56" s="335">
+        <f>F56/70*2200</f>
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="I56" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="J56" s="70">
+        <v>2.85</v>
+      </c>
+      <c r="K56" s="70">
+        <v>880</v>
+      </c>
+      <c r="L56" s="70">
+        <v>2760</v>
+      </c>
+      <c r="M56" s="70">
+        <v>1.173</v>
+      </c>
+      <c r="N56" s="70">
+        <v>0.63</v>
+      </c>
+      <c r="O56" s="70">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="229"/>
+      <c r="B57" s="229" t="s">
+        <v>524</v>
+      </c>
+      <c r="C57" s="267">
         <v>200</v>
       </c>
-      <c r="D55" s="269">
-        <f>C55/SUM($C$54:$C$58)</f>
+      <c r="D57" s="268">
+        <f>C57/SUM($C$56:$C$60)</f>
         <v>0.2</v>
       </c>
-      <c r="E55" s="270">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F55" s="282">
-        <f>C55*E55</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="G55" s="283">
+      <c r="E57" s="269">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="F57" s="269">
+        <f>C57*E57*70</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G57" s="280">
         <v>1.8</v>
       </c>
-      <c r="H55" s="230"/>
-    </row>
-    <row r="56" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="230"/>
-      <c r="B56" s="230"/>
-      <c r="C56" s="268">
+      <c r="H57" s="335">
+        <f t="shared" ref="H57:H60" si="5">F57/70*2200</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I57" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="J57" s="70">
+        <v>1.41</v>
+      </c>
+      <c r="K57" s="70">
+        <v>770</v>
+      </c>
+      <c r="L57" s="70">
+        <v>2600</v>
+      </c>
+      <c r="M57" s="70">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="N57" s="70">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="O57" s="70">
+        <v>37.950000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="229"/>
+      <c r="B58" s="229" t="s">
+        <v>525</v>
+      </c>
+      <c r="C58" s="267">
         <v>200</v>
       </c>
-      <c r="D56" s="269">
-        <f>C56/SUM($C$54:$C$58)</f>
+      <c r="D58" s="268">
+        <f>C58/SUM($C$56:$C$60)</f>
         <v>0.2</v>
       </c>
-      <c r="E56" s="270">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F56" s="282">
-        <f>C56*E56</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="G56" s="283">
+      <c r="E58" s="269">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="F58" s="269">
+        <f t="shared" ref="F57:F60" si="6">C58*E58*70</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G58" s="280">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H56" s="230"/>
-    </row>
-    <row r="57" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="230"/>
-      <c r="B57" s="230"/>
-      <c r="C57" s="268">
+      <c r="H58" s="335">
+        <f t="shared" si="5"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="J58" s="70">
+        <v>1.84</v>
+      </c>
+      <c r="K58" s="70">
+        <v>910</v>
+      </c>
+      <c r="L58" s="70">
+        <v>2680</v>
+      </c>
+      <c r="M58" s="70">
+        <v>0.754</v>
+      </c>
+      <c r="N58" s="70">
+        <v>10.88</v>
+      </c>
+      <c r="O58" s="70">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="229"/>
+      <c r="B59" s="229" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="267">
         <v>200</v>
       </c>
-      <c r="D57" s="269">
-        <f>C57/SUM($C$54:$C$58)</f>
+      <c r="D59" s="268">
+        <f>C59/SUM($C$56:$C$60)</f>
         <v>0.2</v>
       </c>
-      <c r="E57" s="270">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F57" s="282">
-        <f>C57*E57</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="G57" s="283">
+      <c r="E59" s="269">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="F59" s="269">
+        <f t="shared" si="6"/>
+        <v>1.2599999999999998E-2</v>
+      </c>
+      <c r="G59" s="280">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H57" s="230"/>
-    </row>
-    <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="230"/>
-      <c r="B58" s="230"/>
-      <c r="C58" s="273">
+      <c r="H59" s="335">
+        <f t="shared" si="5"/>
+        <v>0.39599999999999996</v>
+      </c>
+      <c r="I59" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="J59" s="70">
+        <v>4.54</v>
+      </c>
+      <c r="K59" s="70">
+        <v>930</v>
+      </c>
+      <c r="L59" s="70">
+        <v>2460</v>
+      </c>
+      <c r="M59" s="70">
+        <v>1.984</v>
+      </c>
+      <c r="N59" s="70">
+        <v>20.74</v>
+      </c>
+      <c r="O59" s="70">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="229"/>
+      <c r="B60" s="229" t="s">
+        <v>527</v>
+      </c>
+      <c r="C60" s="272">
         <f>1000-50-600</f>
         <v>350</v>
       </c>
-      <c r="D58" s="274">
-        <f>C58/SUM($C$54:$C$58)</f>
+      <c r="D60" s="273">
+        <f>C60/SUM($C$56:$C$60)</f>
         <v>0.35</v>
       </c>
-      <c r="E58" s="284">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F58" s="285">
-        <f>C58*E58</f>
-        <v>0.49</v>
-      </c>
-      <c r="G58" s="286">
+      <c r="E60" s="269">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F60" s="269">
+        <f>C60*E60*70</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G60" s="282">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H58" s="230"/>
-    </row>
-    <row r="59" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="230"/>
-      <c r="B59" s="230"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="278"/>
-      <c r="E59" s="279" t="s">
+      <c r="H60" s="335">
+        <f t="shared" si="5"/>
+        <v>1.54</v>
+      </c>
+      <c r="I60" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="J60" s="70">
+        <v>2.42</v>
+      </c>
+      <c r="K60" s="70">
+        <v>860</v>
+      </c>
+      <c r="L60" s="70">
+        <v>2680</v>
+      </c>
+      <c r="M60" s="70">
+        <v>1.05</v>
+      </c>
+      <c r="N60" s="70">
+        <v>0.86</v>
+      </c>
+      <c r="O60" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="229"/>
+      <c r="B61" s="229"/>
+      <c r="C61" s="229"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="277" t="s">
         <v>495</v>
       </c>
-      <c r="F59" s="280">
-        <f>SUMPRODUCT(G53:G58,D53:D58)</f>
+      <c r="F61" s="278">
+        <f>SUMPRODUCT(G55:G60,D55:D60)</f>
         <v>2.1449999999999996</v>
       </c>
-      <c r="G59" s="278"/>
-      <c r="H59" s="230"/>
-    </row>
-    <row r="60" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="230"/>
-      <c r="B60" s="230"/>
-      <c r="C60" s="230"/>
-      <c r="D60" s="278"/>
-      <c r="E60" s="279" t="s">
+      <c r="G61" s="276"/>
+      <c r="H61" s="229"/>
+      <c r="I61" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" s="70">
+        <v>1.81</v>
+      </c>
+      <c r="K61" s="70">
+        <v>858</v>
+      </c>
+      <c r="L61" s="70">
+        <v>2870</v>
+      </c>
+      <c r="M61" s="70">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="N61" s="70">
+        <v>4.38</v>
+      </c>
+      <c r="O61" s="70">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="229"/>
+      <c r="B62" s="229"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="276"/>
+      <c r="E62" s="277" t="s">
         <v>496</v>
       </c>
-      <c r="F60" s="280">
+      <c r="F62" s="278">
         <f>(40-9)/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="G60" s="278"/>
-      <c r="H60" s="230"/>
-    </row>
-    <row r="61" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="230"/>
-      <c r="B61" s="230"/>
-      <c r="C61" s="230"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="279" t="s">
+      <c r="G62" s="276"/>
+      <c r="H62" s="229"/>
+      <c r="I62" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="J62" s="70">
+        <v>0.59</v>
+      </c>
+      <c r="K62" s="70">
+        <v>4185</v>
+      </c>
+      <c r="L62" s="70">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="70">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N62" s="70">
+        <v>0.76</v>
+      </c>
+      <c r="O62" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="229"/>
+      <c r="B63" s="229"/>
+      <c r="C63" s="229"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="277" t="s">
         <v>497</v>
       </c>
-      <c r="F61" s="281">
-        <f>F59*F60</f>
+      <c r="F63" s="279">
+        <f>F61*F62</f>
         <v>6.6494999999999985E-2</v>
       </c>
-      <c r="G61" s="278"/>
-      <c r="H61" s="230"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="230"/>
-      <c r="B62" s="230"/>
-      <c r="C62" s="230"/>
-      <c r="D62" s="230"/>
-      <c r="E62" s="230"/>
-      <c r="F62" s="230"/>
-      <c r="G62" s="230"/>
-      <c r="H62" s="230"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="230"/>
-      <c r="B63" s="230"/>
-      <c r="C63" s="230"/>
-      <c r="D63" s="230"/>
-      <c r="E63" s="230"/>
-      <c r="F63" s="230"/>
-      <c r="G63" s="230"/>
-      <c r="H63" s="230"/>
+      <c r="G63" s="276"/>
+      <c r="H63" s="229"/>
+      <c r="N63" s="70">
+        <f>SUM(N54:N62)</f>
+        <v>78.02000000000001</v>
+      </c>
+      <c r="O63" s="70">
+        <f>SUM(O54:O62)</f>
+        <v>66.820000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="229"/>
+      <c r="B64" s="229"/>
+      <c r="C64" s="229"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="229"/>
+      <c r="B65" s="229"/>
+      <c r="C65" s="229"/>
+      <c r="D65" s="229"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="229"/>
+      <c r="H65" s="229"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E68" s="334"/>
     </row>
   </sheetData>
   <sortState ref="B1:R12">
@@ -10781,5 +11370,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Modeling/RHP.xlsx
+++ b/Data/Modeling/RHP.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RHP" sheetId="1" r:id="rId1"/>
     <sheet name="Geothermal gradient" sheetId="2" r:id="rId2"/>
     <sheet name="Heat flux" sheetId="3" r:id="rId3"/>
     <sheet name="Conductivity" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Geothermal gradient'!$B$1:$I$64</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="534">
   <si>
     <t>Coal Measures</t>
   </si>
@@ -1622,16 +1623,32 @@
     <t>GRA</t>
   </si>
   <si>
-    <t>2200m²</t>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Table. Average and total radiogenic heat production estimates in the Midlothian coalfield. The average formation conductivity values are from Busby (2019)</t>
+  </si>
+  <si>
+    <t>Total RHP (W)</t>
+  </si>
+  <si>
+    <t>2200 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1660,6 +1677,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1820,7 +1838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2520,13 +2538,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3171,11 +3213,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,6 +3245,145 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3265,6 +3444,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3319,9 +3504,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3398,7 +3587,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1002519</xdr:colOff>
+      <xdr:colOff>992994</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
@@ -3639,7 +3828,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>4657725</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>151883</xdr:rowOff>
+      <xdr:rowOff>139977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3967,34 +4156,34 @@
   <dimension ref="B1:AG76"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
@@ -4013,12 +4202,12 @@
       <c r="H2" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="306" t="s">
+      <c r="I2" s="355" t="s">
         <v>488</v>
       </c>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="308"/>
+      <c r="J2" s="356"/>
+      <c r="K2" s="356"/>
+      <c r="L2" s="357"/>
       <c r="N2" s="25"/>
       <c r="O2" s="64" t="s">
         <v>35</v>
@@ -4050,18 +4239,18 @@
       <c r="Y2" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="297" t="s">
+      <c r="Z2" s="346" t="s">
         <v>389</v>
       </c>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="298"/>
-      <c r="AG2" s="299"/>
-    </row>
-    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA2" s="347"/>
+      <c r="AB2" s="347"/>
+      <c r="AC2" s="347"/>
+      <c r="AD2" s="347"/>
+      <c r="AE2" s="347"/>
+      <c r="AF2" s="347"/>
+      <c r="AG2" s="348"/>
+    </row>
+    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
@@ -4080,10 +4269,10 @@
       <c r="H3" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="309"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="311"/>
+      <c r="I3" s="358"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="360"/>
       <c r="N3" s="27" t="s">
         <v>33</v>
       </c>
@@ -4127,7 +4316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
@@ -4140,10 +4329,10 @@
       <c r="F4" s="13"/>
       <c r="G4" s="10"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="313"/>
-      <c r="L4" s="314"/>
+      <c r="I4" s="361"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="362"/>
+      <c r="L4" s="363"/>
       <c r="N4" s="27" t="s">
         <v>24</v>
       </c>
@@ -4192,7 +4381,7 @@
       </c>
       <c r="AG4" s="97"/>
     </row>
-    <row r="5" spans="2:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="201" t="s">
         <v>5</v>
       </c>
@@ -4220,10 +4409,10 @@
       <c r="J5" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="304" t="s">
+      <c r="K5" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="305"/>
+      <c r="L5" s="354"/>
       <c r="N5" s="27" t="s">
         <v>25</v>
       </c>
@@ -4260,8 +4449,8 @@
       </c>
       <c r="AG5" s="72"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="302" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="351" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="155" t="s">
@@ -4331,8 +4520,8 @@
       </c>
       <c r="AG6" s="75"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="302"/>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="351"/>
       <c r="C7" s="155">
         <f>1500*$G$2</f>
         <v>457.20000000000005</v>
@@ -4405,8 +4594,8 @@
       <c r="AF7" s="69"/>
       <c r="AG7" s="72"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="302"/>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="351"/>
       <c r="C8" s="162"/>
       <c r="D8" s="156" t="s">
         <v>51</v>
@@ -4481,8 +4670,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="302"/>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="351"/>
       <c r="C9" s="162" t="s">
         <v>487</v>
       </c>
@@ -4563,7 +4752,7 @@
       <c r="AF9" s="69"/>
       <c r="AG9" s="72"/>
     </row>
-    <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="180" t="s">
         <v>21</v>
       </c>
@@ -4631,7 +4820,7 @@
       </c>
       <c r="AG10" s="72"/>
     </row>
-    <row r="11" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="180"/>
       <c r="C11" s="162"/>
       <c r="D11" s="156"/>
@@ -4649,16 +4838,16 @@
       <c r="L11" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="296" t="s">
+      <c r="N11" s="345" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="296"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="296"/>
+      <c r="O11" s="345"/>
+      <c r="P11" s="345"/>
+      <c r="Q11" s="345"/>
+      <c r="R11" s="345"/>
+      <c r="S11" s="345"/>
+      <c r="T11" s="345"/>
+      <c r="U11" s="345"/>
       <c r="Y11" s="71" t="s">
         <v>22</v>
       </c>
@@ -4677,7 +4866,7 @@
       </c>
       <c r="AG11" s="72"/>
     </row>
-    <row r="12" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="181"/>
       <c r="C12" s="185">
         <f>$C$4*C10</f>
@@ -4723,8 +4912,8 @@
       </c>
       <c r="AG12" s="93"/>
     </row>
-    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="302" t="s">
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="351" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="162"/>
@@ -4752,8 +4941,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="302"/>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="351"/>
       <c r="C14" s="162"/>
       <c r="D14" s="156" t="s">
         <v>46</v>
@@ -4818,8 +5007,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="302"/>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="351"/>
       <c r="C15" s="162"/>
       <c r="D15" s="156" t="s">
         <v>51</v>
@@ -4878,8 +5067,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="302"/>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="351"/>
       <c r="C16" s="162" t="s">
         <v>487</v>
       </c>
@@ -4935,7 +5124,7 @@
       </c>
       <c r="AA16" s="37"/>
     </row>
-    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="180" t="s">
         <v>21</v>
       </c>
@@ -4991,7 +5180,7 @@
       </c>
       <c r="AA17" s="37"/>
     </row>
-    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="181"/>
       <c r="C18" s="185">
         <f>$C$4*C17</f>
@@ -5047,8 +5236,8 @@
       </c>
       <c r="AA18" s="37"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="302" t="s">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="351" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="155" t="s">
@@ -5111,8 +5300,8 @@
       <c r="Z19" s="32"/>
       <c r="AA19" s="37"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="302"/>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="351"/>
       <c r="C20" s="162">
         <f>S5</f>
         <v>165</v>
@@ -5170,7 +5359,7 @@
       <c r="Z20" s="32"/>
       <c r="AA20" s="37"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="182" t="s">
         <v>2</v>
       </c>
@@ -5240,8 +5429,8 @@
       </c>
       <c r="AA21" s="37"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="302" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="351" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="162">
@@ -5307,8 +5496,8 @@
       </c>
       <c r="AA22" s="37"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="302"/>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="351"/>
       <c r="C23" s="162">
         <f>S7</f>
         <v>85</v>
@@ -5375,8 +5564,8 @@
       <c r="Z23" s="32"/>
       <c r="AA23" s="37"/>
     </row>
-    <row r="24" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="302"/>
+    <row r="24" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="351"/>
       <c r="C24" s="188"/>
       <c r="D24" s="156"/>
       <c r="E24" s="164"/>
@@ -5420,7 +5609,7 @@
       <c r="Z24" s="32"/>
       <c r="AA24" s="37"/>
     </row>
-    <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="181"/>
       <c r="C25" s="185">
         <f>C4*(C20+C22+C23)</f>
@@ -5481,8 +5670,8 @@
       <c r="Z25" s="32"/>
       <c r="AA25" s="37"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" s="302" t="s">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="351" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="162"/>
@@ -5536,8 +5725,8 @@
       <c r="Z26" s="32"/>
       <c r="AA26" s="37"/>
     </row>
-    <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="302"/>
+    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="351"/>
       <c r="C27" s="162"/>
       <c r="D27" s="156" t="s">
         <v>50</v>
@@ -5591,8 +5780,8 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="302"/>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="351"/>
       <c r="C28" s="162"/>
       <c r="D28" s="156" t="s">
         <v>45</v>
@@ -5622,8 +5811,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="302"/>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="351"/>
       <c r="C29" s="162">
         <f>3800*G2-(C10+C17+C20+C22+C23)+600</f>
         <v>873.24</v>
@@ -5656,8 +5845,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="302"/>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="351"/>
       <c r="C30" s="162"/>
       <c r="D30" s="156" t="s">
         <v>51</v>
@@ -5687,8 +5876,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="302"/>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="351"/>
       <c r="C31" s="162"/>
       <c r="D31" s="156" t="s">
         <v>47</v>
@@ -5718,8 +5907,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="303"/>
+    <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="352"/>
       <c r="C32" s="189"/>
       <c r="D32" s="190" t="s">
         <v>48</v>
@@ -5747,7 +5936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="178"/>
       <c r="C33" s="184">
         <f>C4*C29</f>
@@ -5777,16 +5966,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="169" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="170"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="349" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="301"/>
-      <c r="F34" s="301"/>
+      <c r="E34" s="350"/>
+      <c r="F34" s="350"/>
       <c r="G34" s="171">
         <f>G12+G18+G25</f>
         <v>85657.801606295427</v>
@@ -5799,7 +5988,7 @@
       <c r="K34" s="165"/>
       <c r="L34" s="166"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>61</v>
       </c>
@@ -5814,13 +6003,13 @@
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J38" s="19"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76"/>
     </row>
   </sheetData>
@@ -5848,22 +6037,22 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="65" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>113</v>
@@ -5894,7 +6083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="46" t="s">
         <v>121</v>
@@ -5925,7 +6114,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="48" t="s">
         <v>121</v>
@@ -5956,7 +6145,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="46" t="s">
         <v>121</v>
@@ -5987,7 +6176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="48" t="s">
         <v>137</v>
@@ -6018,7 +6207,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="46" t="s">
         <v>144</v>
@@ -6049,7 +6238,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="48" t="s">
         <v>149</v>
@@ -6078,7 +6267,7 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="46" t="s">
         <v>152</v>
@@ -6107,7 +6296,7 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="48" t="s">
         <v>155</v>
@@ -6136,7 +6325,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
       <c r="B10" s="46" t="s">
         <v>160</v>
@@ -6165,7 +6354,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41"/>
       <c r="B11" s="48" t="s">
         <v>164</v>
@@ -6194,7 +6383,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="46" t="s">
         <v>169</v>
@@ -6223,7 +6412,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="48" t="s">
         <v>173</v>
@@ -6252,7 +6441,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="46" t="s">
         <v>178</v>
@@ -6281,7 +6470,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="48" t="s">
         <v>183</v>
@@ -6310,7 +6499,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="46" t="s">
         <v>187</v>
@@ -6339,7 +6528,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="48" t="s">
         <v>192</v>
       </c>
@@ -6365,7 +6554,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>196</v>
       </c>
@@ -6391,7 +6580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="48" t="s">
         <v>200</v>
       </c>
@@ -6417,7 +6606,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="46" t="s">
         <v>204</v>
       </c>
@@ -6443,7 +6632,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="s">
         <v>207</v>
       </c>
@@ -6469,7 +6658,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="46" t="s">
         <v>210</v>
       </c>
@@ -6495,7 +6684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="s">
         <v>213</v>
       </c>
@@ -6521,7 +6710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="46" t="s">
         <v>215</v>
       </c>
@@ -6547,7 +6736,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="48" t="s">
         <v>218</v>
       </c>
@@ -6573,7 +6762,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="46" t="s">
         <v>221</v>
       </c>
@@ -6599,7 +6788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="48" t="s">
         <v>225</v>
       </c>
@@ -6625,7 +6814,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>228</v>
       </c>
@@ -6651,7 +6840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="48" t="s">
         <v>231</v>
       </c>
@@ -6677,7 +6866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>235</v>
       </c>
@@ -6703,7 +6892,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="48" t="s">
         <v>238</v>
       </c>
@@ -6729,7 +6918,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="46" t="s">
         <v>242</v>
       </c>
@@ -6761,7 +6950,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="48" t="s">
         <v>246</v>
       </c>
@@ -6794,7 +6983,7 @@
         <v>28.484848484848484</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>250</v>
       </c>
@@ -6820,7 +7009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="48" t="s">
         <v>254</v>
       </c>
@@ -6846,7 +7035,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="46" t="s">
         <v>259</v>
       </c>
@@ -6872,7 +7061,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="48" t="s">
         <v>264</v>
       </c>
@@ -6898,7 +7087,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="46" t="s">
         <v>267</v>
       </c>
@@ -6924,7 +7113,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="48" t="s">
         <v>271</v>
       </c>
@@ -6948,7 +7137,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="46" t="s">
         <v>273</v>
       </c>
@@ -6976,7 +7165,7 @@
       <c r="K40" s="56"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="114" t="s">
         <v>275</v>
       </c>
@@ -7004,7 +7193,7 @@
       <c r="K41" s="56"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="114" t="s">
         <v>278</v>
       </c>
@@ -7032,7 +7221,7 @@
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="48" t="s">
         <v>282</v>
       </c>
@@ -7060,7 +7249,7 @@
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="46" t="s">
         <v>285</v>
       </c>
@@ -7088,7 +7277,7 @@
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="114" t="s">
         <v>289</v>
       </c>
@@ -7116,7 +7305,7 @@
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="114" t="s">
         <v>293</v>
       </c>
@@ -7144,7 +7333,7 @@
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="48" t="s">
         <v>295</v>
       </c>
@@ -7172,7 +7361,7 @@
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="46" t="s">
         <v>298</v>
       </c>
@@ -7197,10 +7386,10 @@
       <c r="I48" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="K48" s="284"/>
+      <c r="K48" s="282"/>
       <c r="L48" s="56"/>
     </row>
-    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="48" t="s">
         <v>301</v>
       </c>
@@ -7228,7 +7417,7 @@
       <c r="K49" s="56"/>
       <c r="L49" s="56"/>
     </row>
-    <row r="50" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="46" t="s">
         <v>304</v>
       </c>
@@ -7256,7 +7445,7 @@
       <c r="K50" s="56"/>
       <c r="L50" s="56"/>
     </row>
-    <row r="51" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="48" t="s">
         <v>307</v>
       </c>
@@ -7284,7 +7473,7 @@
       <c r="K51" s="56"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="46" t="s">
         <v>310</v>
       </c>
@@ -7314,7 +7503,7 @@
       </c>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="114" t="s">
         <v>313</v>
       </c>
@@ -7343,7 +7532,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="46" t="s">
         <v>316</v>
       </c>
@@ -7369,7 +7558,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="48" t="s">
         <v>319</v>
       </c>
@@ -7395,7 +7584,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="46" t="s">
         <v>322</v>
       </c>
@@ -7424,7 +7613,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="48" t="s">
         <v>324</v>
       </c>
@@ -7454,7 +7643,7 @@
         <v>24.185714285714283</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="46" t="s">
         <v>327</v>
       </c>
@@ -7484,7 +7673,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="114" t="s">
         <v>331</v>
       </c>
@@ -7514,7 +7703,7 @@
         <v>23.560869565217395</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="46" t="s">
         <v>335</v>
       </c>
@@ -7540,7 +7729,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="114" t="s">
         <v>339</v>
       </c>
@@ -7566,7 +7755,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="46" t="s">
         <v>341</v>
       </c>
@@ -7592,7 +7781,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="48" t="s">
         <v>343</v>
       </c>
@@ -7618,7 +7807,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="46" t="s">
         <v>348</v>
       </c>
@@ -7644,247 +7833,247 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="315" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="364" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="315"/>
-      <c r="C66" s="315"/>
-      <c r="D66" s="315"/>
-      <c r="E66" s="315"/>
-      <c r="F66" s="315"/>
-      <c r="G66" s="315"/>
-      <c r="H66" s="315"/>
-      <c r="I66" s="315"/>
-      <c r="J66" s="315"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="315"/>
-      <c r="B67" s="315"/>
-      <c r="C67" s="315"/>
-      <c r="D67" s="315"/>
-      <c r="E67" s="315"/>
-      <c r="F67" s="315"/>
-      <c r="G67" s="315"/>
-      <c r="H67" s="315"/>
-      <c r="I67" s="315"/>
-      <c r="J67" s="315"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="315"/>
-      <c r="B68" s="315"/>
-      <c r="C68" s="315"/>
-      <c r="D68" s="315"/>
-      <c r="E68" s="315"/>
-      <c r="F68" s="315"/>
-      <c r="G68" s="315"/>
-      <c r="H68" s="315"/>
-      <c r="I68" s="315"/>
-      <c r="J68" s="315"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="315"/>
-      <c r="B69" s="315"/>
-      <c r="C69" s="315"/>
-      <c r="D69" s="315"/>
-      <c r="E69" s="315"/>
-      <c r="F69" s="315"/>
-      <c r="G69" s="315"/>
-      <c r="H69" s="315"/>
-      <c r="I69" s="315"/>
-      <c r="J69" s="315"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="315"/>
-      <c r="B70" s="315"/>
-      <c r="C70" s="315"/>
-      <c r="D70" s="315"/>
-      <c r="E70" s="315"/>
-      <c r="F70" s="315"/>
-      <c r="G70" s="315"/>
-      <c r="H70" s="315"/>
-      <c r="I70" s="315"/>
-      <c r="J70" s="315"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="315"/>
-      <c r="B71" s="315"/>
-      <c r="C71" s="315"/>
-      <c r="D71" s="315"/>
-      <c r="E71" s="315"/>
-      <c r="F71" s="315"/>
-      <c r="G71" s="315"/>
-      <c r="H71" s="315"/>
-      <c r="I71" s="315"/>
-      <c r="J71" s="315"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="315"/>
-      <c r="B72" s="315"/>
-      <c r="C72" s="315"/>
-      <c r="D72" s="315"/>
-      <c r="E72" s="315"/>
-      <c r="F72" s="315"/>
-      <c r="G72" s="315"/>
-      <c r="H72" s="315"/>
-      <c r="I72" s="315"/>
-      <c r="J72" s="315"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="315"/>
-      <c r="B73" s="315"/>
-      <c r="C73" s="315"/>
-      <c r="D73" s="315"/>
-      <c r="E73" s="315"/>
-      <c r="F73" s="315"/>
-      <c r="G73" s="315"/>
-      <c r="H73" s="315"/>
-      <c r="I73" s="315"/>
-      <c r="J73" s="315"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="315"/>
-      <c r="B74" s="315"/>
-      <c r="C74" s="315"/>
-      <c r="D74" s="315"/>
-      <c r="E74" s="315"/>
-      <c r="F74" s="315"/>
-      <c r="G74" s="315"/>
-      <c r="H74" s="315"/>
-      <c r="I74" s="315"/>
-      <c r="J74" s="315"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="315"/>
-      <c r="B75" s="315"/>
-      <c r="C75" s="315"/>
-      <c r="D75" s="315"/>
-      <c r="E75" s="315"/>
-      <c r="F75" s="315"/>
-      <c r="G75" s="315"/>
-      <c r="H75" s="315"/>
-      <c r="I75" s="315"/>
-      <c r="J75" s="315"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="315"/>
-      <c r="B76" s="315"/>
-      <c r="C76" s="315"/>
-      <c r="D76" s="315"/>
-      <c r="E76" s="315"/>
-      <c r="F76" s="315"/>
-      <c r="G76" s="315"/>
-      <c r="H76" s="315"/>
-      <c r="I76" s="315"/>
-      <c r="J76" s="315"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="315"/>
-      <c r="B77" s="315"/>
-      <c r="C77" s="315"/>
-      <c r="D77" s="315"/>
-      <c r="E77" s="315"/>
-      <c r="F77" s="315"/>
-      <c r="G77" s="315"/>
-      <c r="H77" s="315"/>
-      <c r="I77" s="315"/>
-      <c r="J77" s="315"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="315"/>
-      <c r="B78" s="315"/>
-      <c r="C78" s="315"/>
-      <c r="D78" s="315"/>
-      <c r="E78" s="315"/>
-      <c r="F78" s="315"/>
-      <c r="G78" s="315"/>
-      <c r="H78" s="315"/>
-      <c r="I78" s="315"/>
-      <c r="J78" s="315"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="315"/>
-      <c r="B79" s="315"/>
-      <c r="C79" s="315"/>
-      <c r="D79" s="315"/>
-      <c r="E79" s="315"/>
-      <c r="F79" s="315"/>
-      <c r="G79" s="315"/>
-      <c r="H79" s="315"/>
-      <c r="I79" s="315"/>
-      <c r="J79" s="315"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="315"/>
-      <c r="B80" s="315"/>
-      <c r="C80" s="315"/>
-      <c r="D80" s="315"/>
-      <c r="E80" s="315"/>
-      <c r="F80" s="315"/>
-      <c r="G80" s="315"/>
-      <c r="H80" s="315"/>
-      <c r="I80" s="315"/>
-      <c r="J80" s="315"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="315"/>
-      <c r="B81" s="315"/>
-      <c r="C81" s="315"/>
-      <c r="D81" s="315"/>
-      <c r="E81" s="315"/>
-      <c r="F81" s="315"/>
-      <c r="G81" s="315"/>
-      <c r="H81" s="315"/>
-      <c r="I81" s="315"/>
-      <c r="J81" s="315"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="315"/>
-      <c r="B82" s="315"/>
-      <c r="C82" s="315"/>
-      <c r="D82" s="315"/>
-      <c r="E82" s="315"/>
-      <c r="F82" s="315"/>
-      <c r="G82" s="315"/>
-      <c r="H82" s="315"/>
-      <c r="I82" s="315"/>
-      <c r="J82" s="315"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="315"/>
-      <c r="B83" s="315"/>
-      <c r="C83" s="315"/>
-      <c r="D83" s="315"/>
-      <c r="E83" s="315"/>
-      <c r="F83" s="315"/>
-      <c r="G83" s="315"/>
-      <c r="H83" s="315"/>
-      <c r="I83" s="315"/>
-      <c r="J83" s="315"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="315"/>
-      <c r="B84" s="315"/>
-      <c r="C84" s="315"/>
-      <c r="D84" s="315"/>
-      <c r="E84" s="315"/>
-      <c r="F84" s="315"/>
-      <c r="G84" s="315"/>
-      <c r="H84" s="315"/>
-      <c r="I84" s="315"/>
-      <c r="J84" s="315"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="315"/>
-      <c r="B85" s="315"/>
-      <c r="C85" s="315"/>
-      <c r="D85" s="315"/>
-      <c r="E85" s="315"/>
-      <c r="F85" s="315"/>
-      <c r="G85" s="315"/>
-      <c r="H85" s="315"/>
-      <c r="I85" s="315"/>
-      <c r="J85" s="315"/>
+      <c r="B66" s="364"/>
+      <c r="C66" s="364"/>
+      <c r="D66" s="364"/>
+      <c r="E66" s="364"/>
+      <c r="F66" s="364"/>
+      <c r="G66" s="364"/>
+      <c r="H66" s="364"/>
+      <c r="I66" s="364"/>
+      <c r="J66" s="364"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="364"/>
+      <c r="B67" s="364"/>
+      <c r="C67" s="364"/>
+      <c r="D67" s="364"/>
+      <c r="E67" s="364"/>
+      <c r="F67" s="364"/>
+      <c r="G67" s="364"/>
+      <c r="H67" s="364"/>
+      <c r="I67" s="364"/>
+      <c r="J67" s="364"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="364"/>
+      <c r="B68" s="364"/>
+      <c r="C68" s="364"/>
+      <c r="D68" s="364"/>
+      <c r="E68" s="364"/>
+      <c r="F68" s="364"/>
+      <c r="G68" s="364"/>
+      <c r="H68" s="364"/>
+      <c r="I68" s="364"/>
+      <c r="J68" s="364"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="364"/>
+      <c r="B69" s="364"/>
+      <c r="C69" s="364"/>
+      <c r="D69" s="364"/>
+      <c r="E69" s="364"/>
+      <c r="F69" s="364"/>
+      <c r="G69" s="364"/>
+      <c r="H69" s="364"/>
+      <c r="I69" s="364"/>
+      <c r="J69" s="364"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="364"/>
+      <c r="B70" s="364"/>
+      <c r="C70" s="364"/>
+      <c r="D70" s="364"/>
+      <c r="E70" s="364"/>
+      <c r="F70" s="364"/>
+      <c r="G70" s="364"/>
+      <c r="H70" s="364"/>
+      <c r="I70" s="364"/>
+      <c r="J70" s="364"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="364"/>
+      <c r="B71" s="364"/>
+      <c r="C71" s="364"/>
+      <c r="D71" s="364"/>
+      <c r="E71" s="364"/>
+      <c r="F71" s="364"/>
+      <c r="G71" s="364"/>
+      <c r="H71" s="364"/>
+      <c r="I71" s="364"/>
+      <c r="J71" s="364"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="364"/>
+      <c r="B72" s="364"/>
+      <c r="C72" s="364"/>
+      <c r="D72" s="364"/>
+      <c r="E72" s="364"/>
+      <c r="F72" s="364"/>
+      <c r="G72" s="364"/>
+      <c r="H72" s="364"/>
+      <c r="I72" s="364"/>
+      <c r="J72" s="364"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="364"/>
+      <c r="B73" s="364"/>
+      <c r="C73" s="364"/>
+      <c r="D73" s="364"/>
+      <c r="E73" s="364"/>
+      <c r="F73" s="364"/>
+      <c r="G73" s="364"/>
+      <c r="H73" s="364"/>
+      <c r="I73" s="364"/>
+      <c r="J73" s="364"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="364"/>
+      <c r="B74" s="364"/>
+      <c r="C74" s="364"/>
+      <c r="D74" s="364"/>
+      <c r="E74" s="364"/>
+      <c r="F74" s="364"/>
+      <c r="G74" s="364"/>
+      <c r="H74" s="364"/>
+      <c r="I74" s="364"/>
+      <c r="J74" s="364"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="364"/>
+      <c r="B75" s="364"/>
+      <c r="C75" s="364"/>
+      <c r="D75" s="364"/>
+      <c r="E75" s="364"/>
+      <c r="F75" s="364"/>
+      <c r="G75" s="364"/>
+      <c r="H75" s="364"/>
+      <c r="I75" s="364"/>
+      <c r="J75" s="364"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="364"/>
+      <c r="B76" s="364"/>
+      <c r="C76" s="364"/>
+      <c r="D76" s="364"/>
+      <c r="E76" s="364"/>
+      <c r="F76" s="364"/>
+      <c r="G76" s="364"/>
+      <c r="H76" s="364"/>
+      <c r="I76" s="364"/>
+      <c r="J76" s="364"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="364"/>
+      <c r="B77" s="364"/>
+      <c r="C77" s="364"/>
+      <c r="D77" s="364"/>
+      <c r="E77" s="364"/>
+      <c r="F77" s="364"/>
+      <c r="G77" s="364"/>
+      <c r="H77" s="364"/>
+      <c r="I77" s="364"/>
+      <c r="J77" s="364"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="364"/>
+      <c r="B78" s="364"/>
+      <c r="C78" s="364"/>
+      <c r="D78" s="364"/>
+      <c r="E78" s="364"/>
+      <c r="F78" s="364"/>
+      <c r="G78" s="364"/>
+      <c r="H78" s="364"/>
+      <c r="I78" s="364"/>
+      <c r="J78" s="364"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="364"/>
+      <c r="B79" s="364"/>
+      <c r="C79" s="364"/>
+      <c r="D79" s="364"/>
+      <c r="E79" s="364"/>
+      <c r="F79" s="364"/>
+      <c r="G79" s="364"/>
+      <c r="H79" s="364"/>
+      <c r="I79" s="364"/>
+      <c r="J79" s="364"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="364"/>
+      <c r="B80" s="364"/>
+      <c r="C80" s="364"/>
+      <c r="D80" s="364"/>
+      <c r="E80" s="364"/>
+      <c r="F80" s="364"/>
+      <c r="G80" s="364"/>
+      <c r="H80" s="364"/>
+      <c r="I80" s="364"/>
+      <c r="J80" s="364"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="364"/>
+      <c r="B81" s="364"/>
+      <c r="C81" s="364"/>
+      <c r="D81" s="364"/>
+      <c r="E81" s="364"/>
+      <c r="F81" s="364"/>
+      <c r="G81" s="364"/>
+      <c r="H81" s="364"/>
+      <c r="I81" s="364"/>
+      <c r="J81" s="364"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="364"/>
+      <c r="B82" s="364"/>
+      <c r="C82" s="364"/>
+      <c r="D82" s="364"/>
+      <c r="E82" s="364"/>
+      <c r="F82" s="364"/>
+      <c r="G82" s="364"/>
+      <c r="H82" s="364"/>
+      <c r="I82" s="364"/>
+      <c r="J82" s="364"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="364"/>
+      <c r="B83" s="364"/>
+      <c r="C83" s="364"/>
+      <c r="D83" s="364"/>
+      <c r="E83" s="364"/>
+      <c r="F83" s="364"/>
+      <c r="G83" s="364"/>
+      <c r="H83" s="364"/>
+      <c r="I83" s="364"/>
+      <c r="J83" s="364"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="364"/>
+      <c r="B84" s="364"/>
+      <c r="C84" s="364"/>
+      <c r="D84" s="364"/>
+      <c r="E84" s="364"/>
+      <c r="F84" s="364"/>
+      <c r="G84" s="364"/>
+      <c r="H84" s="364"/>
+      <c r="I84" s="364"/>
+      <c r="J84" s="364"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="364"/>
+      <c r="B85" s="364"/>
+      <c r="C85" s="364"/>
+      <c r="D85" s="364"/>
+      <c r="E85" s="364"/>
+      <c r="F85" s="364"/>
+      <c r="G85" s="364"/>
+      <c r="H85" s="364"/>
+      <c r="I85" s="364"/>
+      <c r="J85" s="364"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I64">
@@ -7913,17 +8102,17 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>353</v>
       </c>
@@ -7965,7 +8154,7 @@
       <c r="T2" s="51"/>
       <c r="U2" s="51"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>463</v>
       </c>
@@ -8006,7 +8195,7 @@
       <c r="T3" s="50"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>463</v>
       </c>
@@ -8047,7 +8236,7 @@
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>463</v>
       </c>
@@ -8088,7 +8277,7 @@
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>463</v>
       </c>
@@ -8128,7 +8317,7 @@
       <c r="T6" s="50"/>
       <c r="U6" s="50"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>463</v>
       </c>
@@ -8168,7 +8357,7 @@
       <c r="T7" s="50"/>
       <c r="U7" s="50"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>463</v>
       </c>
@@ -8208,7 +8397,7 @@
       <c r="T8" s="50"/>
       <c r="U8" s="50"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>463</v>
       </c>
@@ -8250,7 +8439,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>463</v>
       </c>
@@ -8291,7 +8480,7 @@
       <c r="T10" s="50"/>
       <c r="U10" s="50"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>463</v>
       </c>
@@ -8333,7 +8522,7 @@
       <c r="T11" s="50"/>
       <c r="U11" s="50"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>463</v>
       </c>
@@ -8375,7 +8564,7 @@
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>463</v>
       </c>
@@ -8407,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>463</v>
       </c>
@@ -8439,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>463</v>
       </c>
@@ -8471,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>463</v>
       </c>
@@ -8503,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>463</v>
       </c>
@@ -8534,7 +8723,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>463</v>
       </c>
@@ -8567,7 +8756,7 @@
       </c>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>463</v>
       </c>
@@ -8600,7 +8789,7 @@
       </c>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>463</v>
       </c>
@@ -8632,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>463</v>
       </c>
@@ -8665,7 +8854,7 @@
       </c>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>463</v>
       </c>
@@ -8698,7 +8887,7 @@
       </c>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>463</v>
       </c>
@@ -8731,7 +8920,7 @@
       </c>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>463</v>
       </c>
@@ -8764,15 +8953,15 @@
       </c>
       <c r="K24" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>268</v>
       </c>
@@ -8784,7 +8973,7 @@
       </c>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>268</v>
       </c>
@@ -8796,7 +8985,7 @@
       </c>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>268</v>
       </c>
@@ -8808,7 +8997,7 @@
       </c>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>268</v>
       </c>
@@ -8819,7 +9008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>268</v>
       </c>
@@ -8830,7 +9019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>268</v>
       </c>
@@ -8847,7 +9036,7 @@
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>156</v>
       </c>
@@ -8864,7 +9053,7 @@
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>156</v>
       </c>
@@ -8881,7 +9070,7 @@
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>156</v>
       </c>
@@ -8898,7 +9087,7 @@
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>156</v>
       </c>
@@ -8915,7 +9104,7 @@
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>156</v>
       </c>
@@ -8932,7 +9121,7 @@
       <c r="J39" s="57"/>
       <c r="K39" s="57"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>156</v>
       </c>
@@ -8949,7 +9138,7 @@
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>156</v>
       </c>
@@ -8966,7 +9155,7 @@
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
@@ -8974,24 +9163,24 @@
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48" s="57"/>
       <c r="G48" s="57"/>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>376</v>
       </c>
@@ -9001,7 +9190,7 @@
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>377</v>
       </c>
@@ -9011,7 +9200,7 @@
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>378</v>
       </c>
@@ -9021,12 +9210,12 @@
       <c r="I51" s="57"/>
       <c r="J51" s="57"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>380</v>
       </c>
@@ -9040,48 +9229,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="70" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="70" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="70" customWidth="1"/>
     <col min="12" max="12" width="13" style="70" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" style="70" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="70" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="70" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" style="70" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" style="70" customWidth="1"/>
-    <col min="18" max="18" width="100.109375" style="70" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="70" customWidth="1"/>
-    <col min="20" max="16384" width="11.5546875" style="70"/>
+    <col min="13" max="13" width="18.7109375" style="70" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="70" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="70" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="70" customWidth="1"/>
+    <col min="18" max="18" width="100.140625" style="70" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="70" customWidth="1"/>
+    <col min="20" max="16384" width="11.5703125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="125"/>
       <c r="C1" s="124"/>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="326" t="s">
+      <c r="F1" s="377" t="s">
         <v>449</v>
       </c>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="328"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="379"/>
       <c r="Q1" s="139" t="s">
         <v>442</v>
       </c>
@@ -9095,7 +9284,7 @@
       <c r="W1"/>
       <c r="X1"/>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="118" t="s">
         <v>113</v>
       </c>
@@ -9145,7 +9334,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">
         <v>31</v>
       </c>
@@ -9165,7 +9354,7 @@
       <c r="J3" s="98"/>
       <c r="K3" s="98"/>
       <c r="L3" s="99"/>
-      <c r="Q3" s="321" t="s">
+      <c r="Q3" s="372" t="s">
         <v>439</v>
       </c>
       <c r="R3" s="134" t="s">
@@ -9178,7 +9367,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="71" t="s">
         <v>23</v>
       </c>
@@ -9214,7 +9403,7 @@
         <f>H4-G4*I4*0.001</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="Q4" s="321"/>
+      <c r="Q4" s="372"/>
       <c r="R4" s="134" t="s">
         <v>437</v>
       </c>
@@ -9225,7 +9414,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="73" t="s">
         <v>75</v>
       </c>
@@ -9261,7 +9450,7 @@
         <f t="shared" ref="M5:M10" si="0">H5-G5*I5*0.001</f>
         <v>9.0007999999999981</v>
       </c>
-      <c r="Q5" s="321"/>
+      <c r="Q5" s="372"/>
       <c r="R5" s="134" t="s">
         <v>65</v>
       </c>
@@ -9272,7 +9461,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="68" t="s">
         <v>386</v>
       </c>
@@ -9292,7 +9481,7 @@
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
       <c r="L6" s="83"/>
-      <c r="Q6" s="321"/>
+      <c r="Q6" s="372"/>
       <c r="R6" s="134" t="s">
         <v>66</v>
       </c>
@@ -9303,7 +9492,7 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
@@ -9339,7 +9528,7 @@
         <f t="shared" si="0"/>
         <v>8.5922999999999945</v>
       </c>
-      <c r="Q7" s="321"/>
+      <c r="Q7" s="372"/>
       <c r="R7" s="135" t="s">
         <v>436</v>
       </c>
@@ -9350,7 +9539,7 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="71" t="s">
         <v>34</v>
       </c>
@@ -9370,7 +9559,7 @@
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
       <c r="L8" s="83"/>
-      <c r="Q8" s="322" t="s">
+      <c r="Q8" s="373" t="s">
         <v>435</v>
       </c>
       <c r="R8" s="136" t="s">
@@ -9383,7 +9572,7 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="71" t="s">
         <v>32</v>
       </c>
@@ -9419,7 +9608,7 @@
         <f t="shared" si="0"/>
         <v>9.4707000000000008</v>
       </c>
-      <c r="Q9" s="322"/>
+      <c r="Q9" s="373"/>
       <c r="R9" s="136" t="s">
         <v>446</v>
       </c>
@@ -9430,7 +9619,7 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="154" t="s">
         <v>22</v>
       </c>
@@ -9466,7 +9655,7 @@
         <f t="shared" si="0"/>
         <v>5.0242000000000004</v>
       </c>
-      <c r="Q10" s="322"/>
+      <c r="Q10" s="373"/>
       <c r="R10" s="137" t="s">
         <v>433</v>
       </c>
@@ -9477,7 +9666,7 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="84" t="s">
         <v>72</v>
       </c>
@@ -9497,7 +9686,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
       <c r="L11" s="88"/>
-      <c r="Q11" s="322"/>
+      <c r="Q11" s="373"/>
       <c r="R11" s="135" t="s">
         <v>445</v>
       </c>
@@ -9508,7 +9697,7 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>411</v>
       </c>
@@ -9526,7 +9715,7 @@
       <c r="N12" s="79"/>
       <c r="O12" s="79"/>
       <c r="P12" s="79"/>
-      <c r="Q12" s="322"/>
+      <c r="Q12" s="373"/>
       <c r="R12" s="135" t="s">
         <v>432</v>
       </c>
@@ -9537,11 +9726,11 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>404</v>
       </c>
-      <c r="Q13" s="322" t="s">
+      <c r="Q13" s="373" t="s">
         <v>431</v>
       </c>
       <c r="R13" s="135" t="s">
@@ -9554,7 +9743,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
       <c r="D14" s="79"/>
@@ -9566,7 +9755,7 @@
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
       <c r="L14" s="79"/>
-      <c r="Q14" s="322"/>
+      <c r="Q14" s="373"/>
       <c r="R14" s="134" t="s">
         <v>429</v>
       </c>
@@ -9577,7 +9766,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="229"/>
       <c r="B15" s="258"/>
       <c r="C15" s="258"/>
@@ -9594,7 +9783,7 @@
       <c r="N15" s="229"/>
       <c r="O15" s="229"/>
       <c r="P15" s="228"/>
-      <c r="Q15" s="322"/>
+      <c r="Q15" s="373"/>
       <c r="R15" s="134" t="s">
         <v>428</v>
       </c>
@@ -9605,7 +9794,7 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="229"/>
       <c r="B16" s="229"/>
       <c r="C16" s="229"/>
@@ -9630,21 +9819,21 @@
       <c r="J16" s="210" t="s">
         <v>491</v>
       </c>
-      <c r="K16" s="319" t="s">
+      <c r="K16" s="370" t="s">
         <v>397</v>
       </c>
-      <c r="L16" s="320"/>
+      <c r="L16" s="371"/>
       <c r="M16" s="226" t="s">
         <v>494</v>
       </c>
-      <c r="N16" s="324" t="s">
+      <c r="N16" s="375" t="s">
         <v>452</v>
       </c>
-      <c r="O16" s="324" t="s">
+      <c r="O16" s="375" t="s">
         <v>461</v>
       </c>
       <c r="P16" s="228"/>
-      <c r="Q16" s="322" t="s">
+      <c r="Q16" s="373" t="s">
         <v>427</v>
       </c>
       <c r="R16" s="135" t="s">
@@ -9657,7 +9846,7 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="229"/>
       <c r="B17" s="229"/>
       <c r="C17" s="214" t="s">
@@ -9684,19 +9873,19 @@
       <c r="J17" s="236">
         <v>0.31</v>
       </c>
-      <c r="K17" s="317" t="s">
+      <c r="K17" s="368" t="s">
         <v>492</v>
       </c>
-      <c r="L17" s="329" t="s">
+      <c r="L17" s="380" t="s">
         <v>410</v>
       </c>
-      <c r="M17" s="333" t="s">
+      <c r="M17" s="384" t="s">
         <v>493</v>
       </c>
-      <c r="N17" s="325"/>
-      <c r="O17" s="325"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="376"/>
       <c r="P17" s="228"/>
-      <c r="Q17" s="322"/>
+      <c r="Q17" s="373"/>
       <c r="R17" s="135" t="s">
         <v>425</v>
       </c>
@@ -9707,7 +9896,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="229"/>
       <c r="B18" s="229"/>
       <c r="C18" s="215" t="s">
@@ -9734,9 +9923,9 @@
       <c r="J18" s="239">
         <v>0.5</v>
       </c>
-      <c r="K18" s="318"/>
-      <c r="L18" s="330"/>
-      <c r="M18" s="318"/>
+      <c r="K18" s="369"/>
+      <c r="L18" s="381"/>
+      <c r="M18" s="369"/>
       <c r="N18" s="225">
         <v>53</v>
       </c>
@@ -9744,7 +9933,7 @@
         <v>30</v>
       </c>
       <c r="P18" s="228"/>
-      <c r="Q18" s="322"/>
+      <c r="Q18" s="373"/>
       <c r="R18" s="135" t="s">
         <v>424</v>
       </c>
@@ -9755,7 +9944,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="229"/>
       <c r="B19" s="254" t="s">
         <v>31</v>
@@ -9763,22 +9952,22 @@
       <c r="C19" s="216" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="331" t="s">
+      <c r="D19" s="382" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="332"/>
-      <c r="J19" s="332"/>
+      <c r="E19" s="383"/>
+      <c r="F19" s="383"/>
+      <c r="G19" s="383"/>
+      <c r="H19" s="383"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="383"/>
       <c r="K19" s="231"/>
       <c r="L19" s="231"/>
       <c r="M19" s="228"/>
       <c r="N19" s="228"/>
       <c r="O19" s="232"/>
       <c r="P19" s="228"/>
-      <c r="Q19" s="322"/>
+      <c r="Q19" s="373"/>
       <c r="R19" s="135" t="s">
         <v>423</v>
       </c>
@@ -9789,7 +9978,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="229"/>
       <c r="B20" s="255" t="s">
         <v>33</v>
@@ -9832,7 +10021,7 @@
         <v>9</v>
       </c>
       <c r="P20" s="228"/>
-      <c r="Q20" s="322"/>
+      <c r="Q20" s="373"/>
       <c r="R20" s="135" t="s">
         <v>422</v>
       </c>
@@ -9843,7 +10032,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="229"/>
       <c r="B21" s="256" t="s">
         <v>24</v>
@@ -9883,7 +10072,7 @@
         <v>9</v>
       </c>
       <c r="P21" s="228"/>
-      <c r="Q21" s="322"/>
+      <c r="Q21" s="373"/>
       <c r="R21" s="135" t="s">
         <v>421</v>
       </c>
@@ -9894,7 +10083,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="229"/>
       <c r="B22" s="256" t="s">
         <v>25</v>
@@ -9938,7 +10127,7 @@
         <v>9</v>
       </c>
       <c r="P22" s="228"/>
-      <c r="Q22" s="322"/>
+      <c r="Q22" s="373"/>
       <c r="R22" s="135" t="s">
         <v>420</v>
       </c>
@@ -9949,7 +10138,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="229"/>
       <c r="B23" s="256" t="s">
         <v>26</v>
@@ -9993,7 +10182,7 @@
         <v>9</v>
       </c>
       <c r="P23" s="228"/>
-      <c r="Q23" s="322"/>
+      <c r="Q23" s="373"/>
       <c r="R23" s="135" t="s">
         <v>419</v>
       </c>
@@ -10004,7 +10193,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="229"/>
       <c r="B24" s="256" t="s">
         <v>27</v>
@@ -10048,7 +10237,7 @@
         <v>9</v>
       </c>
       <c r="P24" s="228"/>
-      <c r="Q24" s="322"/>
+      <c r="Q24" s="373"/>
       <c r="R24" s="135" t="s">
         <v>418</v>
       </c>
@@ -10059,7 +10248,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="229"/>
       <c r="B25" s="256" t="s">
         <v>28</v>
@@ -10100,7 +10289,7 @@
         <v>9</v>
       </c>
       <c r="P25" s="228"/>
-      <c r="Q25" s="322"/>
+      <c r="Q25" s="373"/>
       <c r="R25" s="135" t="s">
         <v>417</v>
       </c>
@@ -10111,7 +10300,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="229"/>
       <c r="B26" s="256" t="s">
         <v>29</v>
@@ -10140,7 +10329,7 @@
         <v>9</v>
       </c>
       <c r="P26" s="228"/>
-      <c r="Q26" s="322"/>
+      <c r="Q26" s="373"/>
       <c r="R26" s="135" t="s">
         <v>416</v>
       </c>
@@ -10151,7 +10340,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="229"/>
       <c r="B27" s="257" t="s">
         <v>30</v>
@@ -10181,7 +10370,7 @@
         <v>9</v>
       </c>
       <c r="P27" s="228"/>
-      <c r="Q27" s="322"/>
+      <c r="Q27" s="373"/>
       <c r="R27" s="135" t="s">
         <v>415</v>
       </c>
@@ -10192,7 +10381,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="229"/>
       <c r="B28" s="227"/>
       <c r="C28" s="228" t="s">
@@ -10213,7 +10402,7 @@
       <c r="N28" s="229"/>
       <c r="O28" s="229"/>
       <c r="P28" s="228"/>
-      <c r="Q28" s="322"/>
+      <c r="Q28" s="373"/>
       <c r="R28" s="135" t="s">
         <v>414</v>
       </c>
@@ -10224,7 +10413,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="229"/>
       <c r="B29" s="227"/>
       <c r="C29" s="229"/>
@@ -10243,7 +10432,7 @@
       <c r="N29" s="229"/>
       <c r="O29" s="229"/>
       <c r="P29" s="228"/>
-      <c r="Q29" s="323"/>
+      <c r="Q29" s="374"/>
       <c r="R29" s="138" t="s">
         <v>413</v>
       </c>
@@ -10254,7 +10443,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="229"/>
       <c r="B30" s="107"/>
       <c r="P30" s="79"/>
@@ -10269,7 +10458,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="107"/>
       <c r="M31" s="79"/>
       <c r="N31" s="79"/>
@@ -10284,7 +10473,7 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="107"/>
       <c r="L32" s="70" t="s">
         <v>479</v>
@@ -10304,7 +10493,7 @@
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>407</v>
       </c>
@@ -10325,7 +10514,7 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="70" t="s">
         <v>398</v>
       </c>
@@ -10346,7 +10535,7 @@
       <c r="W34"/>
       <c r="X34"/>
     </row>
-    <row r="35" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="70" t="s">
         <v>408</v>
       </c>
@@ -10367,7 +10556,7 @@
       <c r="W35"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="79" t="s">
         <v>405</v>
       </c>
@@ -10377,13 +10566,13 @@
       <c r="O36" s="213"/>
       <c r="Q36"/>
       <c r="R36"/>
-      <c r="S36" s="316"/>
+      <c r="S36" s="367"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="79" t="s">
         <v>409</v>
       </c>
@@ -10393,14 +10582,14 @@
       <c r="O37" s="213"/>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37" s="316"/>
+      <c r="S37" s="367"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="116"/>
       <c r="D38" s="117"/>
       <c r="E38" s="79"/>
@@ -10409,16 +10598,16 @@
       <c r="O38" s="213"/>
       <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38" s="316"/>
+      <c r="S38" s="367"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="229"/>
-      <c r="B39" s="283" t="s">
+      <c r="B39" s="281" t="s">
         <v>498</v>
       </c>
       <c r="C39" s="10"/>
@@ -10436,7 +10625,7 @@
       <c r="W39"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="229"/>
       <c r="B40" s="260"/>
       <c r="C40" s="261" t="s">
@@ -10488,25 +10677,25 @@
       <c r="W40"/>
       <c r="X40"/>
     </row>
-    <row r="41" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="229"/>
       <c r="B41" s="264" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="290"/>
-      <c r="D41" s="286"/>
-      <c r="E41" s="286"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="287"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="285"/>
       <c r="H41" s="229"/>
-      <c r="I41" s="285"/>
-      <c r="J41" s="285"/>
-      <c r="K41" s="285"/>
-      <c r="L41" s="285"/>
-      <c r="M41" s="293"/>
-      <c r="N41" s="289"/>
-      <c r="O41" s="294"/>
-      <c r="P41" s="295"/>
+      <c r="I41" s="283"/>
+      <c r="J41" s="283"/>
+      <c r="K41" s="283"/>
+      <c r="L41" s="283"/>
+      <c r="M41" s="291"/>
+      <c r="N41" s="287"/>
+      <c r="O41" s="292"/>
+      <c r="P41" s="293"/>
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
@@ -10516,25 +10705,25 @@
       <c r="W41"/>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="229"/>
       <c r="B42" s="265" t="s">
         <v>522</v>
       </c>
-      <c r="C42" s="290"/>
-      <c r="D42" s="286"/>
-      <c r="E42" s="286"/>
-      <c r="F42" s="286"/>
-      <c r="G42" s="287"/>
+      <c r="C42" s="288"/>
+      <c r="D42" s="284"/>
+      <c r="E42" s="284"/>
+      <c r="F42" s="284"/>
+      <c r="G42" s="285"/>
       <c r="H42" s="229"/>
-      <c r="I42" s="285"/>
-      <c r="J42" s="285"/>
-      <c r="K42" s="285"/>
-      <c r="L42" s="285"/>
-      <c r="M42" s="288"/>
-      <c r="N42" s="289"/>
-      <c r="O42" s="294"/>
-      <c r="P42" s="295"/>
+      <c r="I42" s="283"/>
+      <c r="J42" s="283"/>
+      <c r="K42" s="283"/>
+      <c r="L42" s="283"/>
+      <c r="M42" s="286"/>
+      <c r="N42" s="287"/>
+      <c r="O42" s="292"/>
+      <c r="P42" s="293"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -10544,12 +10733,12 @@
       <c r="W42"/>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="229"/>
       <c r="B43" s="265" t="s">
         <v>521</v>
       </c>
-      <c r="C43" s="291">
+      <c r="C43" s="289">
         <v>125</v>
       </c>
       <c r="D43" s="268">
@@ -10567,14 +10756,14 @@
         <v>1.91</v>
       </c>
       <c r="H43" s="229"/>
-      <c r="I43" s="285"/>
-      <c r="J43" s="285"/>
-      <c r="K43" s="285"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="295"/>
-      <c r="N43" s="285"/>
-      <c r="O43" s="295"/>
-      <c r="P43" s="295"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="283"/>
+      <c r="M43" s="293"/>
+      <c r="N43" s="283"/>
+      <c r="O43" s="293"/>
+      <c r="P43" s="293"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -10584,12 +10773,12 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="229"/>
       <c r="B44" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="291">
+      <c r="C44" s="289">
         <f>230-125</f>
         <v>105</v>
       </c>
@@ -10608,14 +10797,14 @@
         <v>2.91</v>
       </c>
       <c r="H44" s="229"/>
-      <c r="I44" s="285"/>
-      <c r="J44" s="295"/>
-      <c r="K44" s="295"/>
-      <c r="L44" s="295"/>
-      <c r="M44" s="295"/>
-      <c r="N44" s="295"/>
-      <c r="O44" s="295"/>
-      <c r="P44" s="285"/>
+      <c r="I44" s="283"/>
+      <c r="J44" s="293"/>
+      <c r="K44" s="293"/>
+      <c r="L44" s="293"/>
+      <c r="M44" s="293"/>
+      <c r="N44" s="293"/>
+      <c r="O44" s="293"/>
+      <c r="P44" s="283"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -10625,12 +10814,12 @@
       <c r="W44"/>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="229"/>
       <c r="B45" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="291">
+      <c r="C45" s="289">
         <f>315-230</f>
         <v>85</v>
       </c>
@@ -10649,14 +10838,14 @@
         <v>2.25</v>
       </c>
       <c r="H45" s="229"/>
-      <c r="I45" s="285"/>
-      <c r="J45" s="285"/>
-      <c r="K45" s="285"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="285"/>
-      <c r="N45" s="285"/>
-      <c r="O45" s="285"/>
-      <c r="P45" s="295"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="283"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="293"/>
       <c r="Q45" s="54"/>
       <c r="R45" s="54"/>
       <c r="S45"/>
@@ -10666,12 +10855,12 @@
       <c r="W45"/>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="229"/>
       <c r="B46" s="265" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="291">
+      <c r="C46" s="289">
         <f>400-315</f>
         <v>85</v>
       </c>
@@ -10690,14 +10879,14 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="H46" s="229"/>
-      <c r="I46" s="285"/>
-      <c r="J46" s="285"/>
-      <c r="K46" s="285"/>
-      <c r="L46" s="285"/>
-      <c r="M46" s="285"/>
-      <c r="N46" s="285"/>
-      <c r="O46" s="295"/>
-      <c r="P46" s="295"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="283"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="293"/>
+      <c r="P46" s="293"/>
       <c r="Q46" s="54"/>
       <c r="R46" s="54"/>
       <c r="S46"/>
@@ -10707,12 +10896,12 @@
       <c r="W46"/>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="229"/>
       <c r="B47" s="265" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="291">
+      <c r="C47" s="289">
         <f>445-400</f>
         <v>45</v>
       </c>
@@ -10731,14 +10920,14 @@
         <v>1.88</v>
       </c>
       <c r="H47" s="229"/>
-      <c r="I47" s="285"/>
-      <c r="J47" s="285"/>
-      <c r="K47" s="285"/>
-      <c r="L47" s="285"/>
-      <c r="M47" s="285"/>
-      <c r="N47" s="295"/>
-      <c r="O47" s="295"/>
-      <c r="P47" s="295"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="283"/>
+      <c r="M47" s="283"/>
+      <c r="N47" s="293"/>
+      <c r="O47" s="293"/>
+      <c r="P47" s="293"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
       <c r="S47"/>
@@ -10748,12 +10937,12 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="229"/>
       <c r="B48" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="291">
+      <c r="C48" s="289">
         <f>700-445</f>
         <v>255</v>
       </c>
@@ -10781,12 +10970,12 @@
       <c r="W48"/>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="229"/>
       <c r="B49" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="292">
+      <c r="C49" s="290">
         <f>1000-700</f>
         <v>300</v>
       </c>
@@ -10797,7 +10986,7 @@
       <c r="E49" s="271">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="F49" s="281">
+      <c r="F49" s="280">
         <f t="shared" si="4"/>
         <v>4.1999999999999996E-4</v>
       </c>
@@ -10814,7 +11003,7 @@
       <c r="W49"/>
       <c r="X49"/>
     </row>
-    <row r="50" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="229"/>
       <c r="B50" s="229"/>
       <c r="C50" s="275">
@@ -10840,7 +11029,7 @@
       <c r="W50"/>
       <c r="X50"/>
     </row>
-    <row r="51" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="229"/>
       <c r="B51" s="229"/>
       <c r="C51" s="275"/>
@@ -10863,7 +11052,7 @@
       <c r="W51"/>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="229"/>
       <c r="B52" s="229"/>
       <c r="C52" s="275"/>
@@ -10886,7 +11075,7 @@
       <c r="W52"/>
       <c r="X52"/>
     </row>
-    <row r="53" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="229"/>
       <c r="B53" s="229"/>
       <c r="C53" s="275"/>
@@ -10914,14 +11103,16 @@
         <v>512</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="229"/>
       <c r="B54" s="229"/>
       <c r="C54" s="275"/>
       <c r="D54" s="276"/>
       <c r="E54" s="276"/>
-      <c r="F54" s="276"/>
-      <c r="G54" s="276"/>
+      <c r="F54" s="365" t="s">
+        <v>477</v>
+      </c>
+      <c r="G54" s="366"/>
       <c r="H54" s="229"/>
       <c r="I54" s="70" t="s">
         <v>501</v>
@@ -10945,9 +11136,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="229"/>
-      <c r="B55" s="283" t="s">
+      <c r="B55" s="344" t="s">
         <v>499</v>
       </c>
       <c r="C55" s="261" t="s">
@@ -10956,17 +11147,17 @@
       <c r="D55" s="262" t="s">
         <v>478</v>
       </c>
-      <c r="E55" s="262" t="s">
+      <c r="E55" s="332" t="s">
         <v>476</v>
       </c>
-      <c r="F55" s="262" t="s">
-        <v>477</v>
-      </c>
-      <c r="G55" s="263" t="s">
+      <c r="F55" s="342" t="s">
+        <v>533</v>
+      </c>
+      <c r="G55" s="343" t="s">
+        <v>532</v>
+      </c>
+      <c r="H55" s="335" t="s">
         <v>391</v>
-      </c>
-      <c r="H55" s="336" t="s">
-        <v>528</v>
       </c>
       <c r="I55" s="70" t="s">
         <v>502</v>
@@ -10990,9 +11181,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="229"/>
-      <c r="B56" s="229" t="s">
+      <c r="B56" s="295" t="s">
         <v>523</v>
       </c>
       <c r="C56" s="267">
@@ -11002,19 +11193,20 @@
         <f>C56/SUM($C$56:$C$60)</f>
         <v>0.05</v>
       </c>
-      <c r="E56" s="269">
-        <v>8.9999999999999995E-9</v>
-      </c>
-      <c r="F56" s="269">
+      <c r="E56" s="333">
+        <f>Sheet1!C14*0.000001</f>
+        <v>9.4559999999999989E-7</v>
+      </c>
+      <c r="F56" s="338">
         <f>C56*E56*70</f>
-        <v>3.15E-5</v>
-      </c>
-      <c r="G56" s="280">
+        <v>3.3095999999999998E-3</v>
+      </c>
+      <c r="G56" s="339">
+        <f>F56/70*2200</f>
+        <v>0.10401599999999998</v>
+      </c>
+      <c r="H56" s="336">
         <v>1.2</v>
-      </c>
-      <c r="H56" s="335">
-        <f>F56/70*2200</f>
-        <v>9.8999999999999999E-4</v>
       </c>
       <c r="I56" s="70" t="s">
         <v>503</v>
@@ -11038,9 +11230,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="229"/>
-      <c r="B57" s="229" t="s">
+      <c r="B57" s="295" t="s">
         <v>524</v>
       </c>
       <c r="C57" s="267">
@@ -11050,19 +11242,20 @@
         <f>C57/SUM($C$56:$C$60)</f>
         <v>0.2</v>
       </c>
-      <c r="E57" s="269">
-        <v>1.3999999999999999E-6</v>
-      </c>
-      <c r="F57" s="269">
+      <c r="E57" s="333">
+        <f>Sheet1!C13*0.000001</f>
+        <v>1.1808E-6</v>
+      </c>
+      <c r="F57" s="338">
         <f>C57*E57*70</f>
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="G57" s="280">
+        <v>1.6531199999999999E-2</v>
+      </c>
+      <c r="G57" s="339">
+        <f>F57/70*2200</f>
+        <v>0.51955200000000001</v>
+      </c>
+      <c r="H57" s="336">
         <v>1.8</v>
-      </c>
-      <c r="H57" s="335">
-        <f t="shared" ref="H57:H60" si="5">F57/70*2200</f>
-        <v>0.61599999999999999</v>
       </c>
       <c r="I57" s="70" t="s">
         <v>504</v>
@@ -11086,9 +11279,9 @@
         <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="229"/>
-      <c r="B58" s="229" t="s">
+      <c r="B58" s="295" t="s">
         <v>525</v>
       </c>
       <c r="C58" s="267">
@@ -11098,19 +11291,20 @@
         <f>C58/SUM($C$56:$C$60)</f>
         <v>0.2</v>
       </c>
-      <c r="E58" s="269">
-        <v>1.3999999999999999E-6</v>
-      </c>
-      <c r="F58" s="269">
-        <f t="shared" ref="F57:F60" si="6">C58*E58*70</f>
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="G58" s="280">
+      <c r="E58" s="333">
+        <f>Sheet1!C13*0.000001</f>
+        <v>1.1808E-6</v>
+      </c>
+      <c r="F58" s="338">
+        <f t="shared" ref="F58:F59" si="5">C58*E58*70</f>
+        <v>1.6531199999999999E-2</v>
+      </c>
+      <c r="G58" s="339">
+        <f>F58/70*2200</f>
+        <v>0.51955200000000001</v>
+      </c>
+      <c r="H58" s="336">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="H58" s="335">
-        <f t="shared" si="5"/>
-        <v>0.61599999999999999</v>
       </c>
       <c r="I58" s="70" t="s">
         <v>505</v>
@@ -11134,9 +11328,9 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="229"/>
-      <c r="B59" s="229" t="s">
+      <c r="B59" s="295" t="s">
         <v>526</v>
       </c>
       <c r="C59" s="267">
@@ -11146,19 +11340,20 @@
         <f>C59/SUM($C$56:$C$60)</f>
         <v>0.2</v>
       </c>
-      <c r="E59" s="269">
-        <v>8.9999999999999996E-7</v>
-      </c>
-      <c r="F59" s="269">
-        <f t="shared" si="6"/>
-        <v>1.2599999999999998E-2</v>
-      </c>
-      <c r="G59" s="280">
+      <c r="E59" s="333">
+        <f>E56</f>
+        <v>9.4559999999999989E-7</v>
+      </c>
+      <c r="F59" s="338">
+        <f t="shared" si="5"/>
+        <v>1.3238399999999999E-2</v>
+      </c>
+      <c r="G59" s="339">
+        <f>F59/70*2200</f>
+        <v>0.41606399999999993</v>
+      </c>
+      <c r="H59" s="336">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="H59" s="335">
-        <f t="shared" si="5"/>
-        <v>0.39599999999999996</v>
       </c>
       <c r="I59" s="70" t="s">
         <v>506</v>
@@ -11182,9 +11377,9 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="229"/>
-      <c r="B60" s="229" t="s">
+      <c r="B60" s="295" t="s">
         <v>527</v>
       </c>
       <c r="C60" s="272">
@@ -11195,19 +11390,19 @@
         <f>C60/SUM($C$56:$C$60)</f>
         <v>0.35</v>
       </c>
-      <c r="E60" s="269">
+      <c r="E60" s="334">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F60" s="269">
+      <c r="F60" s="340">
         <f>C60*E60*70</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G60" s="282">
+      <c r="G60" s="341">
+        <f>F60/70*2200</f>
+        <v>1.54</v>
+      </c>
+      <c r="H60" s="337">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="H60" s="335">
-        <f t="shared" si="5"/>
-        <v>1.54</v>
       </c>
       <c r="I60" s="70" t="s">
         <v>507</v>
@@ -11231,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="229"/>
       <c r="B61" s="229"/>
       <c r="C61" s="229"/>
@@ -11240,10 +11435,9 @@
         <v>495</v>
       </c>
       <c r="F61" s="278">
-        <f>SUMPRODUCT(G55:G60,D55:D60)</f>
+        <f>SUMPRODUCT(H55:H60,D55:D60)</f>
         <v>2.1449999999999996</v>
       </c>
-      <c r="G61" s="276"/>
       <c r="H61" s="229"/>
       <c r="I61" s="70" t="s">
         <v>508</v>
@@ -11267,7 +11461,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="229"/>
       <c r="B62" s="229"/>
       <c r="C62" s="229"/>
@@ -11303,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="229"/>
       <c r="B63" s="229"/>
       <c r="C63" s="229"/>
@@ -11326,7 +11520,7 @@
         <v>66.820000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="229"/>
       <c r="B64" s="229"/>
       <c r="C64" s="229"/>
@@ -11336,7 +11530,7 @@
       <c r="G64" s="229"/>
       <c r="H64" s="229"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="229"/>
       <c r="B65" s="229"/>
       <c r="C65" s="229"/>
@@ -11346,19 +11540,20 @@
       <c r="G65" s="229"/>
       <c r="H65" s="229"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E68" s="334"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E68" s="294"/>
     </row>
   </sheetData>
   <sortState ref="B1:R12">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="N16:N17"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="S36:S38"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="K16:L16"/>
@@ -11372,4 +11567,634 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="229"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="229"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="228"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="229"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="207" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="208" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" s="209" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" s="209" t="s">
+        <v>490</v>
+      </c>
+      <c r="I3" s="208" t="s">
+        <v>460</v>
+      </c>
+      <c r="J3" s="209" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="210" t="s">
+        <v>491</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="229"/>
+      <c r="B4" s="315" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="316">
+        <v>81584220</v>
+      </c>
+      <c r="D4" s="317" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="233">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F4" s="235">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G4" s="235">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="H4" s="235">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="I4" s="235">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="J4" s="235">
+        <v>0.7</v>
+      </c>
+      <c r="K4" s="236">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="229"/>
+      <c r="B5" s="304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="297" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="298" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" s="382" t="s">
+        <v>448</v>
+      </c>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="386"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="229"/>
+      <c r="B6" s="305" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="306">
+        <v>250</v>
+      </c>
+      <c r="D6" s="301">
+        <f>$C$4*C6</f>
+        <v>20396055000</v>
+      </c>
+      <c r="E6" s="303">
+        <v>35</v>
+      </c>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296">
+        <v>30</v>
+      </c>
+      <c r="H6" s="296">
+        <v>30</v>
+      </c>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296">
+        <v>1</v>
+      </c>
+      <c r="K6" s="141">
+        <v>5</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="229"/>
+      <c r="B7" s="307" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="308">
+        <f>460-C6</f>
+        <v>210</v>
+      </c>
+      <c r="D7" s="302">
+        <f>$C$4*C7</f>
+        <v>17132686200</v>
+      </c>
+      <c r="E7" s="246"/>
+      <c r="F7" s="244">
+        <v>90</v>
+      </c>
+      <c r="G7" s="244">
+        <v>5</v>
+      </c>
+      <c r="H7" s="244">
+        <v>5</v>
+      </c>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="229"/>
+      <c r="B8" s="307" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="308">
+        <f>625-(C7+C6)</f>
+        <v>165</v>
+      </c>
+      <c r="D8" s="302">
+        <f>$C$4*C8</f>
+        <v>13461396300</v>
+      </c>
+      <c r="E8" s="246">
+        <v>39</v>
+      </c>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244">
+        <v>20</v>
+      </c>
+      <c r="H8" s="244">
+        <v>20</v>
+      </c>
+      <c r="I8" s="244">
+        <v>20</v>
+      </c>
+      <c r="J8" s="244"/>
+      <c r="K8" s="142">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="229"/>
+      <c r="B9" s="307" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="308">
+        <f>800-(C8+C7+C6)</f>
+        <v>175</v>
+      </c>
+      <c r="D9" s="302">
+        <f>$C$4*C9</f>
+        <v>14277238500</v>
+      </c>
+      <c r="E9" s="246">
+        <v>35</v>
+      </c>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244">
+        <v>20</v>
+      </c>
+      <c r="H9" s="244">
+        <v>20</v>
+      </c>
+      <c r="I9" s="244">
+        <v>20</v>
+      </c>
+      <c r="J9" s="244"/>
+      <c r="K9" s="142">
+        <v>5</v>
+      </c>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="229"/>
+      <c r="B10" s="309" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="310">
+        <f>885-(C9+C8+C7+C6)</f>
+        <v>85</v>
+      </c>
+      <c r="D10" s="311">
+        <f>$C$4*C10</f>
+        <v>6934658700</v>
+      </c>
+      <c r="E10" s="312">
+        <v>39</v>
+      </c>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313">
+        <v>20</v>
+      </c>
+      <c r="H10" s="313">
+        <v>20</v>
+      </c>
+      <c r="I10" s="313">
+        <v>20</v>
+      </c>
+      <c r="J10" s="313"/>
+      <c r="K10" s="314">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="229"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="318"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="79"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="229"/>
+      <c r="B12" s="254" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="304" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="304" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="319" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="229"/>
+      <c r="B13" s="305" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="324">
+        <f>SUMPRODUCT($E$4:$K$4,E6:K6)/100</f>
+        <v>1.1808000000000001</v>
+      </c>
+      <c r="D13" s="328">
+        <f>C13*D6/1000000</f>
+        <v>24083.661744000001</v>
+      </c>
+      <c r="E13" s="321">
+        <v>1.9</v>
+      </c>
+      <c r="F13" s="229"/>
+      <c r="G13" s="229"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="229"/>
+      <c r="K13" s="229"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="229"/>
+      <c r="B14" s="307" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="325">
+        <f>SUMPRODUCT($E$4:$K$4,E7:K7)/100</f>
+        <v>0.94559999999999989</v>
+      </c>
+      <c r="D14" s="329">
+        <f>C14*D7/1000000</f>
+        <v>16200.668070719998</v>
+      </c>
+      <c r="E14" s="322">
+        <v>2.91</v>
+      </c>
+      <c r="F14" s="229"/>
+      <c r="G14" s="229"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="229"/>
+      <c r="K14" s="229"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="229"/>
+      <c r="B15" s="307" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="325">
+        <f>SUMPRODUCT($E$4:$K$4,E8:K8)/100</f>
+        <v>1.3244399999999998</v>
+      </c>
+      <c r="D15" s="329">
+        <f>C15*D8/1000000</f>
+        <v>17828.811715571999</v>
+      </c>
+      <c r="E15" s="322">
+        <v>2.25</v>
+      </c>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="229"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="229"/>
+      <c r="B16" s="307" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="325">
+        <f>SUMPRODUCT($E$4:$K$4,E9:K9)/100</f>
+        <v>1.3085999999999998</v>
+      </c>
+      <c r="D16" s="329">
+        <f>C16*D9/1000000</f>
+        <v>18683.194301099997</v>
+      </c>
+      <c r="E16" s="322">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F16" s="229"/>
+      <c r="G16" s="229"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="229"/>
+      <c r="B17" s="309" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="326">
+        <f>SUMPRODUCT($E$4:$K$4,E10:K10)/100</f>
+        <v>1.3244399999999998</v>
+      </c>
+      <c r="D17" s="330">
+        <f>C17*D10/1000000</f>
+        <v>9184.5393686279986</v>
+      </c>
+      <c r="E17" s="323">
+        <v>1.88</v>
+      </c>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="229"/>
+      <c r="K17" s="229"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="229"/>
+      <c r="B18" s="299" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="327">
+        <f>AVERAGE(C13:C17)</f>
+        <v>1.2167759999999999</v>
+      </c>
+      <c r="D18" s="331">
+        <f>SUM(D13:D17)</f>
+        <v>85980.875200019989</v>
+      </c>
+      <c r="E18" s="387">
+        <f>AVERAGE(E13:E17)</f>
+        <v>2.2359999999999998</v>
+      </c>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="229"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="229"/>
+      <c r="B20" s="385" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="385"/>
+      <c r="D20" s="385"/>
+      <c r="E20" s="385"/>
+      <c r="F20" s="385"/>
+      <c r="G20" s="385"/>
+      <c r="H20" s="385"/>
+      <c r="I20" s="385"/>
+      <c r="J20" s="385"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="229"/>
+      <c r="B21" s="320"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="320"/>
+      <c r="I21" s="320"/>
+      <c r="J21" s="320"/>
+      <c r="K21" s="229"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="229"/>
+      <c r="B22" s="229"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="229"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="229"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="229"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="E5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>